--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9909162740797095</v>
+        <v>0.9909162740797104</v>
       </c>
       <c r="D2">
-        <v>1.010012123723356</v>
+        <v>1.010012123723357</v>
       </c>
       <c r="E2">
-        <v>0.9983406292418193</v>
+        <v>0.9983406292418197</v>
       </c>
       <c r="F2">
-        <v>0.9639049267099439</v>
+        <v>0.9639049267099452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038477105126181</v>
+        <v>1.038477105126182</v>
       </c>
       <c r="J2">
-        <v>1.013372114431356</v>
+        <v>1.013372114431357</v>
       </c>
       <c r="K2">
-        <v>1.021333713974913</v>
+        <v>1.021333713974914</v>
       </c>
       <c r="L2">
         <v>1.009823130245712</v>
       </c>
       <c r="M2">
-        <v>0.9758911293537438</v>
+        <v>0.9758911293537449</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9970344929938069</v>
+        <v>0.997034492993807</v>
       </c>
       <c r="D3">
         <v>1.014626082801665</v>
       </c>
       <c r="E3">
-        <v>1.003351284408136</v>
+        <v>1.003351284408137</v>
       </c>
       <c r="F3">
         <v>0.9766144401544704</v>
@@ -506,7 +506,7 @@
         <v>1.006504794627302</v>
       </c>
       <c r="F4">
-        <v>0.9844531466586981</v>
+        <v>0.9844531466586983</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042579231189043</v>
       </c>
       <c r="J4">
-        <v>1.020259369580189</v>
+        <v>1.02025936958019</v>
       </c>
       <c r="K4">
-        <v>1.027414520125871</v>
+        <v>1.027414520125872</v>
       </c>
       <c r="L4">
         <v>1.016525341379136</v>
       </c>
       <c r="M4">
-        <v>0.9947429021980588</v>
+        <v>0.9947429021980591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,7 +544,7 @@
         <v>1.007810495126251</v>
       </c>
       <c r="F5">
-        <v>0.987664631493377</v>
+        <v>0.9876646314933772</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.043221912171262</v>
       </c>
       <c r="J5">
-        <v>1.021355096335711</v>
+        <v>1.02135509633571</v>
       </c>
       <c r="K5">
         <v>1.028379535809641</v>
       </c>
       <c r="L5">
-        <v>1.017593300657493</v>
+        <v>1.017593300657492</v>
       </c>
       <c r="M5">
-        <v>0.9976858468983592</v>
+        <v>0.9976858468983594</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,7 +582,7 @@
         <v>1.008028585844728</v>
       </c>
       <c r="F6">
-        <v>0.9881991526738345</v>
+        <v>0.9881991526738338</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.017771571702157</v>
       </c>
       <c r="M6">
-        <v>0.9981755717922479</v>
+        <v>0.9981755717922474</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.006522318684426</v>
       </c>
       <c r="F7">
-        <v>0.9844963782971748</v>
+        <v>0.984496378297174</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.027427485817324</v>
       </c>
       <c r="L7">
-        <v>1.016539682078027</v>
+        <v>1.016539682078026</v>
       </c>
       <c r="M7">
-        <v>0.9947825256043308</v>
+        <v>0.9947825256043298</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,10 +649,10 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9930088336244922</v>
+        <v>0.9930088336244913</v>
       </c>
       <c r="D8">
-        <v>1.011590540899411</v>
+        <v>1.01159054089941</v>
       </c>
       <c r="E8">
         <v>1.000053139633992</v>
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039349336391408</v>
+        <v>1.039349336391407</v>
       </c>
       <c r="J8">
-        <v>1.0148217968937</v>
+        <v>1.014821796893699</v>
       </c>
       <c r="K8">
-        <v>1.022615766833124</v>
+        <v>1.022615766833123</v>
       </c>
       <c r="L8">
-        <v>1.011232391157367</v>
+        <v>1.011232391157366</v>
       </c>
       <c r="M8">
-        <v>0.9799127624881537</v>
+        <v>0.9799127624881536</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9781402691406781</v>
+        <v>0.978140269140679</v>
       </c>
       <c r="D9">
-        <v>1.000367139484026</v>
+        <v>1.000367139484027</v>
       </c>
       <c r="E9">
-        <v>0.9879121638875041</v>
+        <v>0.9879121638875048</v>
       </c>
       <c r="F9">
-        <v>0.9363129929617976</v>
+        <v>0.9363129929617995</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033033114542506</v>
+        <v>1.033033114542507</v>
       </c>
       <c r="J9">
-        <v>1.004489289315228</v>
+        <v>1.004489289315229</v>
       </c>
       <c r="K9">
         <v>1.013454262913273</v>
       </c>
       <c r="L9">
-        <v>1.001204450308067</v>
+        <v>1.001204450308068</v>
       </c>
       <c r="M9">
-        <v>0.9505313969921049</v>
+        <v>0.9505313969921064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.9674452043799501</v>
       </c>
       <c r="D10">
-        <v>0.9922806891085728</v>
+        <v>0.9922806891085729</v>
       </c>
       <c r="E10">
         <v>0.9792168315724681</v>
       </c>
       <c r="F10">
-        <v>0.9118860550121457</v>
+        <v>0.9118860550121464</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028318217552622</v>
       </c>
       <c r="J10">
-        <v>0.9970127593257129</v>
+        <v>0.997012759325713</v>
       </c>
       <c r="K10">
         <v>1.006790730986452</v>
       </c>
       <c r="L10">
-        <v>0.9939717528726161</v>
+        <v>0.993971752872616</v>
       </c>
       <c r="M10">
-        <v>0.9280519885565007</v>
+        <v>0.9280519885565015</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9625902057494683</v>
+        <v>0.9625902057494652</v>
       </c>
       <c r="D11">
-        <v>0.988604965219446</v>
+        <v>0.9886049652194435</v>
       </c>
       <c r="E11">
-        <v>0.9752795215707543</v>
+        <v>0.9752795215707518</v>
       </c>
       <c r="F11">
-        <v>0.9003077376748925</v>
+        <v>0.9003077376748891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026128385633826</v>
+        <v>1.026128385633825</v>
       </c>
       <c r="J11">
-        <v>0.9936065600676739</v>
+        <v>0.9936065600676712</v>
       </c>
       <c r="K11">
-        <v>1.003745022885137</v>
+        <v>1.003745022885135</v>
       </c>
       <c r="L11">
-        <v>0.9906831887677446</v>
+        <v>0.9906831887677421</v>
       </c>
       <c r="M11">
-        <v>0.9173910684645438</v>
+        <v>0.9173910684645407</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9607490552382111</v>
+        <v>0.9607490552382097</v>
       </c>
       <c r="D12">
-        <v>0.9872100420937198</v>
+        <v>0.987210042093719</v>
       </c>
       <c r="E12">
-        <v>0.9737879481148669</v>
+        <v>0.9737879481148654</v>
       </c>
       <c r="F12">
-        <v>0.8958251960580303</v>
+        <v>0.8958251960580309</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025289427588419</v>
+        <v>1.025289427588418</v>
       </c>
       <c r="J12">
-        <v>0.9923127622747142</v>
+        <v>0.992312762274713</v>
       </c>
       <c r="K12">
-        <v>1.002586449344228</v>
+        <v>1.002586449344227</v>
       </c>
       <c r="L12">
-        <v>0.9894351696088188</v>
+        <v>0.9894351696088175</v>
       </c>
       <c r="M12">
-        <v>0.913263065964135</v>
+        <v>0.9132630659641353</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9611457752954171</v>
+        <v>0.9611457752954172</v>
       </c>
       <c r="D13">
-        <v>0.9875106615757551</v>
+        <v>0.987510661575755</v>
       </c>
       <c r="E13">
-        <v>0.9741092717551443</v>
+        <v>0.9741092717551442</v>
       </c>
       <c r="F13">
-        <v>0.8967955621927228</v>
+        <v>0.8967955621927208</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025470606578081</v>
       </c>
       <c r="J13">
-        <v>0.9925916403439613</v>
+        <v>0.9925916403439614</v>
       </c>
       <c r="K13">
         <v>1.00283626095941</v>
       </c>
       <c r="L13">
-        <v>0.989704128470986</v>
+        <v>0.9897041284709859</v>
       </c>
       <c r="M13">
-        <v>0.9141567065166732</v>
+        <v>0.9141567065166717</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9624388139083354</v>
+        <v>0.962438813908336</v>
       </c>
       <c r="D14">
-        <v>0.9884902870619957</v>
+        <v>0.9884902870619962</v>
       </c>
       <c r="E14">
         <v>0.9751568422316576</v>
       </c>
       <c r="F14">
-        <v>0.8999411371440159</v>
+        <v>0.8999411371440161</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02605958082614</v>
+        <v>1.026059580826141</v>
       </c>
       <c r="J14">
-        <v>0.9935002189425229</v>
+        <v>0.9935002189425233</v>
       </c>
       <c r="K14">
-        <v>1.003649832257821</v>
+        <v>1.003649832257822</v>
       </c>
       <c r="L14">
-        <v>0.9905805873540596</v>
+        <v>0.9905805873540598</v>
       </c>
       <c r="M14">
-        <v>0.9170534747121635</v>
+        <v>0.9170534747121639</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9632303504006126</v>
+        <v>0.9632303504006116</v>
       </c>
       <c r="D15">
-        <v>0.9890898280369882</v>
+        <v>0.9890898280369875</v>
       </c>
       <c r="E15">
-        <v>0.9757983223198642</v>
+        <v>0.9757983223198635</v>
       </c>
       <c r="F15">
-        <v>0.9018540224894517</v>
+        <v>0.9018540224894511</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026418966619348</v>
       </c>
       <c r="J15">
-        <v>0.9940561266789691</v>
+        <v>0.9940561266789684</v>
       </c>
       <c r="K15">
-        <v>1.00414737917513</v>
+        <v>1.004147379175129</v>
       </c>
       <c r="L15">
-        <v>0.991116990662562</v>
+        <v>0.9911169906625611</v>
       </c>
       <c r="M15">
-        <v>0.9188149816984879</v>
+        <v>0.9188149816984875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9677623632637672</v>
+        <v>0.9677623632637671</v>
       </c>
       <c r="D16">
-        <v>0.9925206906736052</v>
+        <v>0.992520690673605</v>
       </c>
       <c r="E16">
-        <v>0.9794742525516129</v>
+        <v>0.9794742525516126</v>
       </c>
       <c r="F16">
-        <v>0.9126309108179157</v>
+        <v>0.9126309108179153</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.028460165864851</v>
       </c>
       <c r="J16">
-        <v>0.9972350031139183</v>
+        <v>0.9972350031139181</v>
       </c>
       <c r="K16">
         <v>1.006989233163067</v>
@@ -980,7 +980,7 @@
         <v>0.9941864651711292</v>
       </c>
       <c r="M16">
-        <v>0.9287377276783709</v>
+        <v>0.9287377276783708</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9705425653039242</v>
+        <v>0.9705425653039246</v>
       </c>
       <c r="D17">
-        <v>0.9946239657700418</v>
+        <v>0.9946239657700415</v>
       </c>
       <c r="E17">
-        <v>0.9817319210538976</v>
+        <v>0.9817319210538977</v>
       </c>
       <c r="F17">
-        <v>0.9191035973235978</v>
+        <v>0.9191035973235981</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.029698813672359</v>
       </c>
       <c r="J17">
-        <v>0.9991817866671368</v>
+        <v>0.999181786667137</v>
       </c>
       <c r="K17">
         <v>1.008726917549843</v>
       </c>
       <c r="L17">
-        <v>0.996068021357149</v>
+        <v>0.9960680213571491</v>
       </c>
       <c r="M17">
-        <v>0.934696088889574</v>
+        <v>0.9346960888895745</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9721429216923186</v>
+        <v>0.9721429216923181</v>
       </c>
       <c r="D18">
-        <v>0.9958342269559816</v>
+        <v>0.9958342269559811</v>
       </c>
       <c r="E18">
-        <v>0.9830324186462863</v>
+        <v>0.9830324186462857</v>
       </c>
       <c r="F18">
-        <v>0.9227849377916844</v>
+        <v>0.9227849377916838</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,13 +1050,13 @@
         <v>1.00030127641912</v>
       </c>
       <c r="K18">
-        <v>1.009725256597275</v>
+        <v>1.009725256597274</v>
       </c>
       <c r="L18">
-        <v>0.9971506064265373</v>
+        <v>0.9971506064265367</v>
       </c>
       <c r="M18">
-        <v>0.938084367021451</v>
+        <v>0.9380843670214506</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9726851023244892</v>
+        <v>0.9726851023244886</v>
       </c>
       <c r="D19">
-        <v>0.996244179527436</v>
+        <v>0.9962441795274353</v>
       </c>
       <c r="E19">
-        <v>0.9834731655113222</v>
+        <v>0.9834731655113214</v>
       </c>
       <c r="F19">
-        <v>0.9240250273325057</v>
+        <v>0.9240250273325056</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.030646516658013</v>
       </c>
       <c r="J19">
-        <v>1.000680359347428</v>
+        <v>1.000680359347427</v>
       </c>
       <c r="K19">
-        <v>1.010063166366255</v>
+        <v>1.010063166366254</v>
       </c>
       <c r="L19">
-        <v>0.9975172922814661</v>
+        <v>0.9975172922814652</v>
       </c>
       <c r="M19">
-        <v>0.9392256389960807</v>
+        <v>0.9392256389960805</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9702465049127635</v>
+        <v>0.9702465049127622</v>
       </c>
       <c r="D20">
-        <v>0.9944000375235336</v>
+        <v>0.9944000375235325</v>
       </c>
       <c r="E20">
-        <v>0.9814914079192113</v>
+        <v>0.9814914079192103</v>
       </c>
       <c r="F20">
-        <v>0.9184190655971248</v>
+        <v>0.9184190655971242</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029567391895621</v>
+        <v>1.02956739189562</v>
       </c>
       <c r="J20">
-        <v>0.9989745947719909</v>
+        <v>0.9989745947719897</v>
       </c>
       <c r="K20">
-        <v>1.008542075461375</v>
+        <v>1.008542075461374</v>
       </c>
       <c r="L20">
-        <v>0.995867707951798</v>
+        <v>0.9958677079517969</v>
       </c>
       <c r="M20">
-        <v>0.9340660056512284</v>
+        <v>0.9340660056512277</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.9620591274559729</v>
       </c>
       <c r="D21">
-        <v>0.9882026605725737</v>
+        <v>0.9882026605725738</v>
       </c>
       <c r="E21">
-        <v>0.9748491912923324</v>
+        <v>0.9748491912923326</v>
       </c>
       <c r="F21">
-        <v>0.8990201669117385</v>
+        <v>0.8990201669117374</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025886879194607</v>
       </c>
       <c r="J21">
-        <v>0.9932334841428428</v>
+        <v>0.993233484142843</v>
       </c>
       <c r="K21">
         <v>1.003411037950763</v>
       </c>
       <c r="L21">
-        <v>0.9903232509064074</v>
+        <v>0.9903232509064075</v>
       </c>
       <c r="M21">
-        <v>0.9162053658464511</v>
+        <v>0.9162053658464503</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,22 +1181,22 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9566899359652397</v>
+        <v>0.9566899359652398</v>
       </c>
       <c r="D22">
-        <v>0.9841324855617523</v>
+        <v>0.9841324855617525</v>
       </c>
       <c r="E22">
         <v>0.9705024898654357</v>
       </c>
       <c r="F22">
-        <v>0.8857471803555564</v>
+        <v>0.8857471803555569</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023422523783921</v>
+        <v>1.023422523783922</v>
       </c>
       <c r="J22">
         <v>0.9894561894408084</v>
@@ -1208,7 +1208,7 @@
         <v>0.9866818555381204</v>
       </c>
       <c r="M22">
-        <v>0.9039813068141875</v>
+        <v>0.9039813068141878</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9595588929615529</v>
+        <v>0.9595588929615537</v>
       </c>
       <c r="D23">
-        <v>0.9863080108114564</v>
+        <v>0.986308010811457</v>
       </c>
       <c r="E23">
-        <v>0.9728242098789002</v>
+        <v>0.9728242098789011</v>
       </c>
       <c r="F23">
-        <v>0.8928988798451131</v>
+        <v>0.8928988798451116</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.024744536234215</v>
       </c>
       <c r="J23">
-        <v>0.9914757988845773</v>
+        <v>0.991475798884578</v>
       </c>
       <c r="K23">
         <v>1.001836448576227</v>
       </c>
       <c r="L23">
-        <v>0.9886281469879589</v>
+        <v>0.9886281469879595</v>
       </c>
       <c r="M23">
-        <v>0.9105680593408276</v>
+        <v>0.9105680593408261</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9703803473459021</v>
+        <v>0.9703803473459031</v>
       </c>
       <c r="D24">
-        <v>0.9945012719360273</v>
+        <v>0.9945012719360281</v>
       </c>
       <c r="E24">
-        <v>0.9816001357827637</v>
+        <v>0.9816001357827646</v>
       </c>
       <c r="F24">
-        <v>0.9187286644607097</v>
+        <v>0.9187286644607106</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02962681889849</v>
+        <v>1.029626818898491</v>
       </c>
       <c r="J24">
-        <v>0.9990682651935108</v>
+        <v>0.9990682651935116</v>
       </c>
       <c r="K24">
-        <v>1.008625644457999</v>
+        <v>1.008625644458</v>
       </c>
       <c r="L24">
-        <v>0.9959582667725577</v>
+        <v>0.9959582667725586</v>
       </c>
       <c r="M24">
-        <v>0.9343509803452317</v>
+        <v>0.9343509803452327</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821109567019286</v>
+        <v>0.9821109567019297</v>
       </c>
       <c r="D25">
-        <v>1.003366273916345</v>
+        <v>1.003366273916346</v>
       </c>
       <c r="E25">
-        <v>0.9911483321763487</v>
+        <v>0.9911483321763496</v>
       </c>
       <c r="F25">
-        <v>0.945055319527432</v>
+        <v>0.9450553195274322</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034746806691961</v>
+        <v>1.034746806691962</v>
       </c>
       <c r="J25">
-        <v>1.007255729564079</v>
+        <v>1.00725572956408</v>
       </c>
       <c r="K25">
-        <v>1.015912556615347</v>
+        <v>1.015912556615348</v>
       </c>
       <c r="L25">
-        <v>1.003885630831889</v>
+        <v>1.00388563083189</v>
       </c>
       <c r="M25">
-        <v>0.9585709971324339</v>
+        <v>0.958570997132434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9909162740797104</v>
+        <v>0.9909162740797095</v>
       </c>
       <c r="D2">
-        <v>1.010012123723357</v>
+        <v>1.010012123723356</v>
       </c>
       <c r="E2">
-        <v>0.9983406292418197</v>
+        <v>0.9983406292418193</v>
       </c>
       <c r="F2">
-        <v>0.9639049267099452</v>
+        <v>0.9639049267099439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038477105126182</v>
+        <v>1.038477105126181</v>
       </c>
       <c r="J2">
-        <v>1.013372114431357</v>
+        <v>1.013372114431356</v>
       </c>
       <c r="K2">
-        <v>1.021333713974914</v>
+        <v>1.021333713974913</v>
       </c>
       <c r="L2">
         <v>1.009823130245712</v>
       </c>
       <c r="M2">
-        <v>0.9758911293537449</v>
+        <v>0.9758911293537438</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997034492993807</v>
+        <v>0.9970344929938069</v>
       </c>
       <c r="D3">
         <v>1.014626082801665</v>
       </c>
       <c r="E3">
-        <v>1.003351284408137</v>
+        <v>1.003351284408136</v>
       </c>
       <c r="F3">
         <v>0.9766144401544704</v>
@@ -506,7 +506,7 @@
         <v>1.006504794627302</v>
       </c>
       <c r="F4">
-        <v>0.9844531466586983</v>
+        <v>0.9844531466586981</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042579231189043</v>
       </c>
       <c r="J4">
-        <v>1.02025936958019</v>
+        <v>1.020259369580189</v>
       </c>
       <c r="K4">
-        <v>1.027414520125872</v>
+        <v>1.027414520125871</v>
       </c>
       <c r="L4">
         <v>1.016525341379136</v>
       </c>
       <c r="M4">
-        <v>0.9947429021980591</v>
+        <v>0.9947429021980588</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,7 +544,7 @@
         <v>1.007810495126251</v>
       </c>
       <c r="F5">
-        <v>0.9876646314933772</v>
+        <v>0.987664631493377</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.043221912171262</v>
       </c>
       <c r="J5">
-        <v>1.02135509633571</v>
+        <v>1.021355096335711</v>
       </c>
       <c r="K5">
         <v>1.028379535809641</v>
       </c>
       <c r="L5">
-        <v>1.017593300657492</v>
+        <v>1.017593300657493</v>
       </c>
       <c r="M5">
-        <v>0.9976858468983594</v>
+        <v>0.9976858468983592</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,7 +582,7 @@
         <v>1.008028585844728</v>
       </c>
       <c r="F6">
-        <v>0.9881991526738338</v>
+        <v>0.9881991526738345</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.017771571702157</v>
       </c>
       <c r="M6">
-        <v>0.9981755717922474</v>
+        <v>0.9981755717922479</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.006522318684426</v>
       </c>
       <c r="F7">
-        <v>0.984496378297174</v>
+        <v>0.9844963782971748</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.027427485817324</v>
       </c>
       <c r="L7">
-        <v>1.016539682078026</v>
+        <v>1.016539682078027</v>
       </c>
       <c r="M7">
-        <v>0.9947825256043298</v>
+        <v>0.9947825256043308</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,10 +649,10 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9930088336244913</v>
+        <v>0.9930088336244922</v>
       </c>
       <c r="D8">
-        <v>1.01159054089941</v>
+        <v>1.011590540899411</v>
       </c>
       <c r="E8">
         <v>1.000053139633992</v>
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039349336391407</v>
+        <v>1.039349336391408</v>
       </c>
       <c r="J8">
-        <v>1.014821796893699</v>
+        <v>1.0148217968937</v>
       </c>
       <c r="K8">
-        <v>1.022615766833123</v>
+        <v>1.022615766833124</v>
       </c>
       <c r="L8">
-        <v>1.011232391157366</v>
+        <v>1.011232391157367</v>
       </c>
       <c r="M8">
-        <v>0.9799127624881536</v>
+        <v>0.9799127624881537</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.978140269140679</v>
+        <v>0.9781402691406781</v>
       </c>
       <c r="D9">
-        <v>1.000367139484027</v>
+        <v>1.000367139484026</v>
       </c>
       <c r="E9">
-        <v>0.9879121638875048</v>
+        <v>0.9879121638875041</v>
       </c>
       <c r="F9">
-        <v>0.9363129929617995</v>
+        <v>0.9363129929617976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033033114542507</v>
+        <v>1.033033114542506</v>
       </c>
       <c r="J9">
-        <v>1.004489289315229</v>
+        <v>1.004489289315228</v>
       </c>
       <c r="K9">
         <v>1.013454262913273</v>
       </c>
       <c r="L9">
-        <v>1.001204450308068</v>
+        <v>1.001204450308067</v>
       </c>
       <c r="M9">
-        <v>0.9505313969921064</v>
+        <v>0.9505313969921049</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.9674452043799501</v>
       </c>
       <c r="D10">
-        <v>0.9922806891085729</v>
+        <v>0.9922806891085728</v>
       </c>
       <c r="E10">
         <v>0.9792168315724681</v>
       </c>
       <c r="F10">
-        <v>0.9118860550121464</v>
+        <v>0.9118860550121457</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.028318217552622</v>
       </c>
       <c r="J10">
-        <v>0.997012759325713</v>
+        <v>0.9970127593257129</v>
       </c>
       <c r="K10">
         <v>1.006790730986452</v>
       </c>
       <c r="L10">
-        <v>0.993971752872616</v>
+        <v>0.9939717528726161</v>
       </c>
       <c r="M10">
-        <v>0.9280519885565015</v>
+        <v>0.9280519885565007</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9625902057494652</v>
+        <v>0.9625902057494683</v>
       </c>
       <c r="D11">
-        <v>0.9886049652194435</v>
+        <v>0.988604965219446</v>
       </c>
       <c r="E11">
-        <v>0.9752795215707518</v>
+        <v>0.9752795215707543</v>
       </c>
       <c r="F11">
-        <v>0.9003077376748891</v>
+        <v>0.9003077376748925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026128385633825</v>
+        <v>1.026128385633826</v>
       </c>
       <c r="J11">
-        <v>0.9936065600676712</v>
+        <v>0.9936065600676739</v>
       </c>
       <c r="K11">
-        <v>1.003745022885135</v>
+        <v>1.003745022885137</v>
       </c>
       <c r="L11">
-        <v>0.9906831887677421</v>
+        <v>0.9906831887677446</v>
       </c>
       <c r="M11">
-        <v>0.9173910684645407</v>
+        <v>0.9173910684645438</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9607490552382097</v>
+        <v>0.9607490552382111</v>
       </c>
       <c r="D12">
-        <v>0.987210042093719</v>
+        <v>0.9872100420937198</v>
       </c>
       <c r="E12">
-        <v>0.9737879481148654</v>
+        <v>0.9737879481148669</v>
       </c>
       <c r="F12">
-        <v>0.8958251960580309</v>
+        <v>0.8958251960580303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025289427588418</v>
+        <v>1.025289427588419</v>
       </c>
       <c r="J12">
-        <v>0.992312762274713</v>
+        <v>0.9923127622747142</v>
       </c>
       <c r="K12">
-        <v>1.002586449344227</v>
+        <v>1.002586449344228</v>
       </c>
       <c r="L12">
-        <v>0.9894351696088175</v>
+        <v>0.9894351696088188</v>
       </c>
       <c r="M12">
-        <v>0.9132630659641353</v>
+        <v>0.913263065964135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9611457752954172</v>
+        <v>0.9611457752954171</v>
       </c>
       <c r="D13">
-        <v>0.987510661575755</v>
+        <v>0.9875106615757551</v>
       </c>
       <c r="E13">
-        <v>0.9741092717551442</v>
+        <v>0.9741092717551443</v>
       </c>
       <c r="F13">
-        <v>0.8967955621927208</v>
+        <v>0.8967955621927228</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.025470606578081</v>
       </c>
       <c r="J13">
-        <v>0.9925916403439614</v>
+        <v>0.9925916403439613</v>
       </c>
       <c r="K13">
         <v>1.00283626095941</v>
       </c>
       <c r="L13">
-        <v>0.9897041284709859</v>
+        <v>0.989704128470986</v>
       </c>
       <c r="M13">
-        <v>0.9141567065166717</v>
+        <v>0.9141567065166732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.962438813908336</v>
+        <v>0.9624388139083354</v>
       </c>
       <c r="D14">
-        <v>0.9884902870619962</v>
+        <v>0.9884902870619957</v>
       </c>
       <c r="E14">
         <v>0.9751568422316576</v>
       </c>
       <c r="F14">
-        <v>0.8999411371440161</v>
+        <v>0.8999411371440159</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026059580826141</v>
+        <v>1.02605958082614</v>
       </c>
       <c r="J14">
-        <v>0.9935002189425233</v>
+        <v>0.9935002189425229</v>
       </c>
       <c r="K14">
-        <v>1.003649832257822</v>
+        <v>1.003649832257821</v>
       </c>
       <c r="L14">
-        <v>0.9905805873540598</v>
+        <v>0.9905805873540596</v>
       </c>
       <c r="M14">
-        <v>0.9170534747121639</v>
+        <v>0.9170534747121635</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9632303504006116</v>
+        <v>0.9632303504006126</v>
       </c>
       <c r="D15">
-        <v>0.9890898280369875</v>
+        <v>0.9890898280369882</v>
       </c>
       <c r="E15">
-        <v>0.9757983223198635</v>
+        <v>0.9757983223198642</v>
       </c>
       <c r="F15">
-        <v>0.9018540224894511</v>
+        <v>0.9018540224894517</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.026418966619348</v>
       </c>
       <c r="J15">
-        <v>0.9940561266789684</v>
+        <v>0.9940561266789691</v>
       </c>
       <c r="K15">
-        <v>1.004147379175129</v>
+        <v>1.00414737917513</v>
       </c>
       <c r="L15">
-        <v>0.9911169906625611</v>
+        <v>0.991116990662562</v>
       </c>
       <c r="M15">
-        <v>0.9188149816984875</v>
+        <v>0.9188149816984879</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9677623632637671</v>
+        <v>0.9677623632637672</v>
       </c>
       <c r="D16">
-        <v>0.992520690673605</v>
+        <v>0.9925206906736052</v>
       </c>
       <c r="E16">
-        <v>0.9794742525516126</v>
+        <v>0.9794742525516129</v>
       </c>
       <c r="F16">
-        <v>0.9126309108179153</v>
+        <v>0.9126309108179157</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.028460165864851</v>
       </c>
       <c r="J16">
-        <v>0.9972350031139181</v>
+        <v>0.9972350031139183</v>
       </c>
       <c r="K16">
         <v>1.006989233163067</v>
@@ -980,7 +980,7 @@
         <v>0.9941864651711292</v>
       </c>
       <c r="M16">
-        <v>0.9287377276783708</v>
+        <v>0.9287377276783709</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9705425653039246</v>
+        <v>0.9705425653039242</v>
       </c>
       <c r="D17">
-        <v>0.9946239657700415</v>
+        <v>0.9946239657700418</v>
       </c>
       <c r="E17">
-        <v>0.9817319210538977</v>
+        <v>0.9817319210538976</v>
       </c>
       <c r="F17">
-        <v>0.9191035973235981</v>
+        <v>0.9191035973235978</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.029698813672359</v>
       </c>
       <c r="J17">
-        <v>0.999181786667137</v>
+        <v>0.9991817866671368</v>
       </c>
       <c r="K17">
         <v>1.008726917549843</v>
       </c>
       <c r="L17">
-        <v>0.9960680213571491</v>
+        <v>0.996068021357149</v>
       </c>
       <c r="M17">
-        <v>0.9346960888895745</v>
+        <v>0.934696088889574</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9721429216923181</v>
+        <v>0.9721429216923186</v>
       </c>
       <c r="D18">
-        <v>0.9958342269559811</v>
+        <v>0.9958342269559816</v>
       </c>
       <c r="E18">
-        <v>0.9830324186462857</v>
+        <v>0.9830324186462863</v>
       </c>
       <c r="F18">
-        <v>0.9227849377916838</v>
+        <v>0.9227849377916844</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,13 +1050,13 @@
         <v>1.00030127641912</v>
       </c>
       <c r="K18">
-        <v>1.009725256597274</v>
+        <v>1.009725256597275</v>
       </c>
       <c r="L18">
-        <v>0.9971506064265367</v>
+        <v>0.9971506064265373</v>
       </c>
       <c r="M18">
-        <v>0.9380843670214506</v>
+        <v>0.938084367021451</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9726851023244886</v>
+        <v>0.9726851023244892</v>
       </c>
       <c r="D19">
-        <v>0.9962441795274353</v>
+        <v>0.996244179527436</v>
       </c>
       <c r="E19">
-        <v>0.9834731655113214</v>
+        <v>0.9834731655113222</v>
       </c>
       <c r="F19">
-        <v>0.9240250273325056</v>
+        <v>0.9240250273325057</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.030646516658013</v>
       </c>
       <c r="J19">
-        <v>1.000680359347427</v>
+        <v>1.000680359347428</v>
       </c>
       <c r="K19">
-        <v>1.010063166366254</v>
+        <v>1.010063166366255</v>
       </c>
       <c r="L19">
-        <v>0.9975172922814652</v>
+        <v>0.9975172922814661</v>
       </c>
       <c r="M19">
-        <v>0.9392256389960805</v>
+        <v>0.9392256389960807</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9702465049127622</v>
+        <v>0.9702465049127635</v>
       </c>
       <c r="D20">
-        <v>0.9944000375235325</v>
+        <v>0.9944000375235336</v>
       </c>
       <c r="E20">
-        <v>0.9814914079192103</v>
+        <v>0.9814914079192113</v>
       </c>
       <c r="F20">
-        <v>0.9184190655971242</v>
+        <v>0.9184190655971248</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02956739189562</v>
+        <v>1.029567391895621</v>
       </c>
       <c r="J20">
-        <v>0.9989745947719897</v>
+        <v>0.9989745947719909</v>
       </c>
       <c r="K20">
-        <v>1.008542075461374</v>
+        <v>1.008542075461375</v>
       </c>
       <c r="L20">
-        <v>0.9958677079517969</v>
+        <v>0.995867707951798</v>
       </c>
       <c r="M20">
-        <v>0.9340660056512277</v>
+        <v>0.9340660056512284</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.9620591274559729</v>
       </c>
       <c r="D21">
-        <v>0.9882026605725738</v>
+        <v>0.9882026605725737</v>
       </c>
       <c r="E21">
-        <v>0.9748491912923326</v>
+        <v>0.9748491912923324</v>
       </c>
       <c r="F21">
-        <v>0.8990201669117374</v>
+        <v>0.8990201669117385</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.025886879194607</v>
       </c>
       <c r="J21">
-        <v>0.993233484142843</v>
+        <v>0.9932334841428428</v>
       </c>
       <c r="K21">
         <v>1.003411037950763</v>
       </c>
       <c r="L21">
-        <v>0.9903232509064075</v>
+        <v>0.9903232509064074</v>
       </c>
       <c r="M21">
-        <v>0.9162053658464503</v>
+        <v>0.9162053658464511</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,22 +1181,22 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9566899359652398</v>
+        <v>0.9566899359652397</v>
       </c>
       <c r="D22">
-        <v>0.9841324855617525</v>
+        <v>0.9841324855617523</v>
       </c>
       <c r="E22">
         <v>0.9705024898654357</v>
       </c>
       <c r="F22">
-        <v>0.8857471803555569</v>
+        <v>0.8857471803555564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023422523783922</v>
+        <v>1.023422523783921</v>
       </c>
       <c r="J22">
         <v>0.9894561894408084</v>
@@ -1208,7 +1208,7 @@
         <v>0.9866818555381204</v>
       </c>
       <c r="M22">
-        <v>0.9039813068141878</v>
+        <v>0.9039813068141875</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9595588929615537</v>
+        <v>0.9595588929615529</v>
       </c>
       <c r="D23">
-        <v>0.986308010811457</v>
+        <v>0.9863080108114564</v>
       </c>
       <c r="E23">
-        <v>0.9728242098789011</v>
+        <v>0.9728242098789002</v>
       </c>
       <c r="F23">
-        <v>0.8928988798451116</v>
+        <v>0.8928988798451131</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.024744536234215</v>
       </c>
       <c r="J23">
-        <v>0.991475798884578</v>
+        <v>0.9914757988845773</v>
       </c>
       <c r="K23">
         <v>1.001836448576227</v>
       </c>
       <c r="L23">
-        <v>0.9886281469879595</v>
+        <v>0.9886281469879589</v>
       </c>
       <c r="M23">
-        <v>0.9105680593408261</v>
+        <v>0.9105680593408276</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9703803473459031</v>
+        <v>0.9703803473459021</v>
       </c>
       <c r="D24">
-        <v>0.9945012719360281</v>
+        <v>0.9945012719360273</v>
       </c>
       <c r="E24">
-        <v>0.9816001357827646</v>
+        <v>0.9816001357827637</v>
       </c>
       <c r="F24">
-        <v>0.9187286644607106</v>
+        <v>0.9187286644607097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029626818898491</v>
+        <v>1.02962681889849</v>
       </c>
       <c r="J24">
-        <v>0.9990682651935116</v>
+        <v>0.9990682651935108</v>
       </c>
       <c r="K24">
-        <v>1.008625644458</v>
+        <v>1.008625644457999</v>
       </c>
       <c r="L24">
-        <v>0.9959582667725586</v>
+        <v>0.9959582667725577</v>
       </c>
       <c r="M24">
-        <v>0.9343509803452327</v>
+        <v>0.9343509803452317</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821109567019297</v>
+        <v>0.9821109567019286</v>
       </c>
       <c r="D25">
-        <v>1.003366273916346</v>
+        <v>1.003366273916345</v>
       </c>
       <c r="E25">
-        <v>0.9911483321763496</v>
+        <v>0.9911483321763487</v>
       </c>
       <c r="F25">
-        <v>0.9450553195274322</v>
+        <v>0.945055319527432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034746806691962</v>
+        <v>1.034746806691961</v>
       </c>
       <c r="J25">
-        <v>1.00725572956408</v>
+        <v>1.007255729564079</v>
       </c>
       <c r="K25">
-        <v>1.015912556615348</v>
+        <v>1.015912556615347</v>
       </c>
       <c r="L25">
-        <v>1.00388563083189</v>
+        <v>1.003885630831889</v>
       </c>
       <c r="M25">
-        <v>0.958570997132434</v>
+        <v>0.9585709971324339</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9909162740797095</v>
+        <v>0.9909223409314394</v>
       </c>
       <c r="D2">
-        <v>1.010012123723356</v>
+        <v>1.010017085861962</v>
       </c>
       <c r="E2">
-        <v>0.9983406292418193</v>
+        <v>0.9983465043661834</v>
       </c>
       <c r="F2">
-        <v>0.9639049267099439</v>
+        <v>0.9639083732015531</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038477105126181</v>
+        <v>1.038479926903239</v>
       </c>
       <c r="J2">
-        <v>1.013372114431356</v>
+        <v>1.013377995207244</v>
       </c>
       <c r="K2">
-        <v>1.021333713974913</v>
+        <v>1.02133860869757</v>
       </c>
       <c r="L2">
-        <v>1.009823130245712</v>
+        <v>1.009828923176993</v>
       </c>
       <c r="M2">
-        <v>0.9758911293537438</v>
+        <v>0.9758945231360041</v>
+      </c>
+      <c r="N2">
+        <v>1.010974882168467</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9970344929938069</v>
+        <v>0.9970376952436978</v>
       </c>
       <c r="D3">
-        <v>1.014626082801665</v>
+        <v>1.014628806376771</v>
       </c>
       <c r="E3">
-        <v>1.003351284408136</v>
+        <v>1.003354615421863</v>
       </c>
       <c r="F3">
-        <v>0.9766144401544704</v>
+        <v>0.9766162806057345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041011666129018</v>
+        <v>1.041013207472438</v>
       </c>
       <c r="J3">
-        <v>1.017606328484328</v>
+        <v>1.017609442728772</v>
       </c>
       <c r="K3">
-        <v>1.025075178996106</v>
+        <v>1.025077868962259</v>
       </c>
       <c r="L3">
-        <v>1.013941463763682</v>
+        <v>1.013944752511407</v>
       </c>
       <c r="M3">
-        <v>0.9875555544377536</v>
+        <v>0.9875573699003029</v>
+      </c>
+      <c r="N3">
+        <v>1.013899074936441</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0008780990249</v>
+        <v>1.000879527547072</v>
       </c>
       <c r="D4">
-        <v>1.0175230813239</v>
+        <v>1.017524416230653</v>
       </c>
       <c r="E4">
-        <v>1.006504794627302</v>
+        <v>1.006506547700569</v>
       </c>
       <c r="F4">
-        <v>0.9844531466586981</v>
+        <v>0.9844540272522674</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042579231189043</v>
+        <v>1.042579978521609</v>
       </c>
       <c r="J4">
-        <v>1.020259369580189</v>
+        <v>1.020260761647317</v>
       </c>
       <c r="K4">
-        <v>1.027414520125871</v>
+        <v>1.027415839600035</v>
       </c>
       <c r="L4">
-        <v>1.016525341379136</v>
+        <v>1.016527073631993</v>
       </c>
       <c r="M4">
-        <v>0.9947429021980588</v>
+        <v>0.9947437717410597</v>
+      </c>
+      <c r="N4">
+        <v>1.015730111359916</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00246793448309</v>
+        <v>1.002468634836799</v>
       </c>
       <c r="D5">
-        <v>1.018720996496152</v>
+        <v>1.018721760759641</v>
       </c>
       <c r="E5">
-        <v>1.007810495126251</v>
+        <v>1.007811599879178</v>
       </c>
       <c r="F5">
-        <v>0.987664631493377</v>
+        <v>0.9876651250241861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043221912171262</v>
+        <v>1.043222333237109</v>
       </c>
       <c r="J5">
-        <v>1.021355096335711</v>
+        <v>1.021355779378983</v>
       </c>
       <c r="K5">
-        <v>1.028379535809641</v>
+        <v>1.02838029148332</v>
       </c>
       <c r="L5">
-        <v>1.017593300657493</v>
+        <v>1.017594392659505</v>
       </c>
       <c r="M5">
-        <v>0.9976858468983592</v>
+        <v>0.9976863344406842</v>
+      </c>
+      <c r="N5">
+        <v>1.016486044881876</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002733392341344</v>
+        <v>1.002733971415684</v>
       </c>
       <c r="D6">
-        <v>1.018920992774864</v>
+        <v>1.01892166196472</v>
       </c>
       <c r="E6">
-        <v>1.008028585844728</v>
+        <v>1.008029582589219</v>
       </c>
       <c r="F6">
-        <v>0.9881991526738345</v>
+        <v>0.9881995821156603</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043328891368803</v>
+        <v>1.043329258075558</v>
       </c>
       <c r="J6">
-        <v>1.021537955160464</v>
+        <v>1.0215385199993</v>
       </c>
       <c r="K6">
-        <v>1.02854051440098</v>
+        <v>1.028541176105477</v>
       </c>
       <c r="L6">
-        <v>1.017771571702157</v>
+        <v>1.017772556997974</v>
       </c>
       <c r="M6">
-        <v>0.9981755717922479</v>
+        <v>0.9981759960527583</v>
+      </c>
+      <c r="N6">
+        <v>1.016612179781232</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000899442734308</v>
+        <v>1.000900861459853</v>
       </c>
       <c r="D7">
-        <v>1.017539164936444</v>
+        <v>1.017540492167992</v>
       </c>
       <c r="E7">
-        <v>1.006522318684426</v>
+        <v>1.006524063037285</v>
       </c>
       <c r="F7">
-        <v>0.9844963782971748</v>
+        <v>0.9844972536570983</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042587881602603</v>
+        <v>1.042588624546856</v>
       </c>
       <c r="J7">
-        <v>1.020274086348982</v>
+        <v>1.020275468884826</v>
       </c>
       <c r="K7">
-        <v>1.027427485817324</v>
+        <v>1.027428797710747</v>
       </c>
       <c r="L7">
-        <v>1.016539682078027</v>
+        <v>1.016541405721889</v>
       </c>
       <c r="M7">
-        <v>0.9947825256043308</v>
+        <v>0.9947833899842745</v>
+      </c>
+      <c r="N7">
+        <v>1.015740265549351</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9930088336244922</v>
+        <v>0.993013914798955</v>
       </c>
       <c r="D8">
-        <v>1.011590540899411</v>
+        <v>1.011594733363548</v>
       </c>
       <c r="E8">
-        <v>1.000053139633992</v>
+        <v>1.000058139995646</v>
       </c>
       <c r="F8">
-        <v>0.9682853401358479</v>
+        <v>0.9682882257305842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039349336391408</v>
+        <v>1.039351717822316</v>
       </c>
       <c r="J8">
-        <v>1.0148217968937</v>
+        <v>1.014826727809447</v>
       </c>
       <c r="K8">
-        <v>1.022615766833124</v>
+        <v>1.022619904128112</v>
       </c>
       <c r="L8">
-        <v>1.011232391157367</v>
+        <v>1.011237323795427</v>
       </c>
       <c r="M8">
-        <v>0.9799127624881537</v>
+        <v>0.9799156056785628</v>
+      </c>
+      <c r="N8">
+        <v>1.011976288087964</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9781402691406781</v>
+        <v>0.9781525007691534</v>
       </c>
       <c r="D9">
-        <v>1.000367139484026</v>
+        <v>1.000376901068583</v>
       </c>
       <c r="E9">
-        <v>0.9879121638875041</v>
+        <v>0.9879234929511251</v>
       </c>
       <c r="F9">
-        <v>0.9363129929617976</v>
+        <v>0.9363201783721981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033033114542506</v>
+        <v>1.033038686805138</v>
       </c>
       <c r="J9">
-        <v>1.004489289315228</v>
+        <v>1.004501061367544</v>
       </c>
       <c r="K9">
-        <v>1.013454262913273</v>
+        <v>1.013463866274149</v>
       </c>
       <c r="L9">
-        <v>1.001204450308067</v>
+        <v>1.001215589725749</v>
       </c>
       <c r="M9">
-        <v>0.9505313969921049</v>
+        <v>0.9505384441294829</v>
+      </c>
+      <c r="N9">
+        <v>1.004834417010001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9674452043799501</v>
+        <v>0.9674628170291768</v>
       </c>
       <c r="D10">
-        <v>0.9922806891085728</v>
+        <v>0.992294619815117</v>
       </c>
       <c r="E10">
-        <v>0.9792168315724681</v>
+        <v>0.9792328938970769</v>
       </c>
       <c r="F10">
-        <v>0.9118860550121457</v>
+        <v>0.9118969134293117</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028318217552622</v>
+        <v>1.02832619064147</v>
       </c>
       <c r="J10">
-        <v>0.9970127593257129</v>
+        <v>0.9970296042174914</v>
       </c>
       <c r="K10">
-        <v>1.006790730986452</v>
+        <v>1.006804405049096</v>
       </c>
       <c r="L10">
-        <v>0.9939717528726161</v>
+        <v>0.9939875088634947</v>
       </c>
       <c r="M10">
-        <v>0.9280519885565007</v>
+        <v>0.9280625969526654</v>
+      </c>
+      <c r="N10">
+        <v>0.9996618480056455</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9625902057494683</v>
+        <v>0.9626103375654571</v>
       </c>
       <c r="D11">
-        <v>0.988604965219446</v>
+        <v>0.9886208416395005</v>
       </c>
       <c r="E11">
-        <v>0.9752795215707543</v>
+        <v>0.9752977901723685</v>
       </c>
       <c r="F11">
-        <v>0.9003077376748925</v>
+        <v>0.9003204863314269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026128385633826</v>
+        <v>1.026137485097685</v>
       </c>
       <c r="J11">
-        <v>0.9936065600676739</v>
+        <v>0.9936257579319204</v>
       </c>
       <c r="K11">
-        <v>1.003745022885137</v>
+        <v>1.003760590787619</v>
       </c>
       <c r="L11">
-        <v>0.9906831887677446</v>
+        <v>0.9907010894806164</v>
       </c>
       <c r="M11">
-        <v>0.9173910684645438</v>
+        <v>0.9174034994020577</v>
+      </c>
+      <c r="N11">
+        <v>0.9973045199587481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9607490552382111</v>
+        <v>0.9607701561012271</v>
       </c>
       <c r="D12">
-        <v>0.9872100420937198</v>
+        <v>0.9872266660155288</v>
       </c>
       <c r="E12">
-        <v>0.9737879481148669</v>
+        <v>0.9738070636947337</v>
       </c>
       <c r="F12">
-        <v>0.8958251960580303</v>
+        <v>0.8958387064290975</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025289427588419</v>
+        <v>1.025298961084279</v>
       </c>
       <c r="J12">
-        <v>0.9923127622747142</v>
+        <v>0.9923328615934345</v>
       </c>
       <c r="K12">
-        <v>1.002586449344228</v>
+        <v>1.00260274384839</v>
       </c>
       <c r="L12">
-        <v>0.9894351696088188</v>
+        <v>0.9894538924939321</v>
       </c>
       <c r="M12">
-        <v>0.913263065964135</v>
+        <v>0.9132762294569599</v>
+      </c>
+      <c r="N12">
+        <v>0.9964090411653718</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9611457752954171</v>
+        <v>0.9611666666935754</v>
       </c>
       <c r="D13">
-        <v>0.9875106615757551</v>
+        <v>0.9875271239640115</v>
       </c>
       <c r="E13">
-        <v>0.9741092717551443</v>
+        <v>0.9741282043375208</v>
       </c>
       <c r="F13">
-        <v>0.8967955621927228</v>
+        <v>0.8968089061705662</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025470606578081</v>
+        <v>1.025480046213211</v>
       </c>
       <c r="J13">
-        <v>0.9925916403439613</v>
+        <v>0.9926115449794287</v>
       </c>
       <c r="K13">
-        <v>1.00283626095941</v>
+        <v>1.002852398491507</v>
       </c>
       <c r="L13">
-        <v>0.989704128470986</v>
+        <v>0.9897226737727399</v>
       </c>
       <c r="M13">
-        <v>0.9141567065166732</v>
+        <v>0.9141697100764845</v>
+      </c>
+      <c r="N13">
+        <v>0.9966020645313277</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9624388139083354</v>
+        <v>0.9624590251133114</v>
       </c>
       <c r="D14">
-        <v>0.9884902870619957</v>
+        <v>0.9885062247402944</v>
       </c>
       <c r="E14">
-        <v>0.9751568422316576</v>
+        <v>0.9751751802578975</v>
       </c>
       <c r="F14">
-        <v>0.8999411371440159</v>
+        <v>0.8999539474407772</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02605958082614</v>
+        <v>1.026068715829882</v>
       </c>
       <c r="J14">
-        <v>0.9935002189425229</v>
+        <v>0.9935194907343308</v>
       </c>
       <c r="K14">
-        <v>1.003649832257821</v>
+        <v>1.00366545972583</v>
       </c>
       <c r="L14">
-        <v>0.9905805873540596</v>
+        <v>0.9905985554825761</v>
       </c>
       <c r="M14">
-        <v>0.9170534747121635</v>
+        <v>0.9170659649698338</v>
+      </c>
+      <c r="N14">
+        <v>0.9972309192537344</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9632303504006126</v>
+        <v>0.96325014709984</v>
       </c>
       <c r="D15">
-        <v>0.9890898280369882</v>
+        <v>0.989105445835099</v>
       </c>
       <c r="E15">
-        <v>0.9757983223198642</v>
+        <v>0.9758162977956302</v>
       </c>
       <c r="F15">
-        <v>0.9018540224894517</v>
+        <v>0.9018665124095335</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026418966619348</v>
+        <v>1.02642791609535</v>
       </c>
       <c r="J15">
-        <v>0.9940561266789691</v>
+        <v>0.9940750123301257</v>
       </c>
       <c r="K15">
-        <v>1.00414737917513</v>
+        <v>1.004162695562333</v>
       </c>
       <c r="L15">
-        <v>0.991116990662562</v>
+        <v>0.9911346066838637</v>
       </c>
       <c r="M15">
-        <v>0.9188149816984879</v>
+        <v>0.918827163561505</v>
+      </c>
+      <c r="N15">
+        <v>0.9976156704996885</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9677623632637672</v>
+        <v>0.9677798130990022</v>
       </c>
       <c r="D16">
-        <v>0.9925206906736052</v>
+        <v>0.9925344954999893</v>
       </c>
       <c r="E16">
-        <v>0.9794742525516129</v>
+        <v>0.9794901720669682</v>
       </c>
       <c r="F16">
-        <v>0.9126309108179157</v>
+        <v>0.9126416512084384</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028460165864851</v>
+        <v>1.028468066232821</v>
       </c>
       <c r="J16">
-        <v>0.9972350031139183</v>
+        <v>0.9972516954560686</v>
       </c>
       <c r="K16">
-        <v>1.006989233163067</v>
+        <v>1.007002784573857</v>
       </c>
       <c r="L16">
-        <v>0.9941864651711292</v>
+        <v>0.9942020821826941</v>
       </c>
       <c r="M16">
-        <v>0.9287377276783709</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9287482220502851</v>
+      </c>
+      <c r="N16">
+        <v>0.9998156430793043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9705425653039242</v>
+        <v>0.9705585967351497</v>
       </c>
       <c r="D17">
-        <v>0.9946239657700418</v>
+        <v>0.9946366732684343</v>
       </c>
       <c r="E17">
-        <v>0.9817319210538976</v>
+        <v>0.9817465953485286</v>
       </c>
       <c r="F17">
-        <v>0.9191035973235978</v>
+        <v>0.9191133290405223</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029698813672359</v>
+        <v>1.029706080800873</v>
       </c>
       <c r="J17">
-        <v>0.9991817866671368</v>
+        <v>0.9991971475591408</v>
       </c>
       <c r="K17">
-        <v>1.008726917549843</v>
+        <v>1.008739399106692</v>
       </c>
       <c r="L17">
-        <v>0.996068021357149</v>
+        <v>0.9960824257366606</v>
       </c>
       <c r="M17">
-        <v>0.934696088889574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9347056076946373</v>
+      </c>
+      <c r="N17">
+        <v>1.001162754014385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9721429216923186</v>
+        <v>0.9721581436557802</v>
       </c>
       <c r="D18">
-        <v>0.9958342269559816</v>
+        <v>0.9958463076616463</v>
       </c>
       <c r="E18">
-        <v>0.9830324186462863</v>
+        <v>0.9830463814386592</v>
       </c>
       <c r="F18">
-        <v>0.9227849377916844</v>
+        <v>0.922794108864622</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030407253216678</v>
+        <v>1.030414159151972</v>
       </c>
       <c r="J18">
-        <v>1.00030127641912</v>
+        <v>1.000315875475643</v>
       </c>
       <c r="K18">
-        <v>1.009725256597275</v>
+        <v>1.009737126512151</v>
       </c>
       <c r="L18">
-        <v>0.9971506064265373</v>
+        <v>0.9971643172702308</v>
       </c>
       <c r="M18">
-        <v>0.938084367021451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9380933427250596</v>
+      </c>
+      <c r="N18">
+        <v>1.001937328843546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9726851023244892</v>
+        <v>0.9727000511812708</v>
       </c>
       <c r="D19">
-        <v>0.996244179527436</v>
+        <v>0.9962560486660886</v>
       </c>
       <c r="E19">
-        <v>0.9834731655113222</v>
+        <v>0.983486888109342</v>
       </c>
       <c r="F19">
-        <v>0.9240250273325057</v>
+        <v>0.9240340115897278</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030646516658013</v>
+        <v>1.030653300754077</v>
       </c>
       <c r="J19">
-        <v>1.000680359347428</v>
+        <v>1.000694701040302</v>
       </c>
       <c r="K19">
-        <v>1.010063166366255</v>
+        <v>1.010074829738284</v>
       </c>
       <c r="L19">
-        <v>0.9975172922814661</v>
+        <v>0.9975307688878303</v>
       </c>
       <c r="M19">
-        <v>0.9392256389960807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9392344335917143</v>
+      </c>
+      <c r="N19">
+        <v>1.002199602464523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9702465049127635</v>
+        <v>0.9702626866462284</v>
       </c>
       <c r="D20">
-        <v>0.9944000375235336</v>
+        <v>0.9944128613598774</v>
       </c>
       <c r="E20">
-        <v>0.9814914079192113</v>
+        <v>0.981506214256856</v>
       </c>
       <c r="F20">
-        <v>0.9184190655971248</v>
+        <v>0.9184289025841432</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029567391895621</v>
+        <v>1.029574726103959</v>
       </c>
       <c r="J20">
-        <v>0.9989745947719909</v>
+        <v>0.9989900969622647</v>
       </c>
       <c r="K20">
-        <v>1.008542075461375</v>
+        <v>1.00855467050048</v>
       </c>
       <c r="L20">
-        <v>0.995867707951798</v>
+        <v>0.9958822409875047</v>
       </c>
       <c r="M20">
-        <v>0.9340660056512284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9340756263636854</v>
+      </c>
+      <c r="N20">
+        <v>1.001019391592401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9620591274559729</v>
+        <v>0.9620795379951679</v>
       </c>
       <c r="D21">
-        <v>0.9882026605725737</v>
+        <v>0.9882187520460908</v>
       </c>
       <c r="E21">
-        <v>0.9748491912923324</v>
+        <v>0.9748677036054054</v>
       </c>
       <c r="F21">
-        <v>0.8990201669117385</v>
+        <v>0.8990331325695122</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025886879194607</v>
+        <v>1.025896103447536</v>
       </c>
       <c r="J21">
-        <v>0.9932334841428428</v>
+        <v>0.9932529414960747</v>
       </c>
       <c r="K21">
-        <v>1.003411037950763</v>
+        <v>1.003426814948418</v>
       </c>
       <c r="L21">
-        <v>0.9903232509064074</v>
+        <v>0.9903413882591419</v>
       </c>
       <c r="M21">
-        <v>0.9162053658464511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9162180055864705</v>
+      </c>
+      <c r="N21">
+        <v>0.9970463059015519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9566899359652397</v>
+        <v>0.9567132016064255</v>
       </c>
       <c r="D22">
-        <v>0.9841324855617523</v>
+        <v>0.9841507775799939</v>
       </c>
       <c r="E22">
-        <v>0.9705024898654357</v>
+        <v>0.9705234940260863</v>
       </c>
       <c r="F22">
-        <v>0.8857471803555564</v>
+        <v>0.8857624707698301</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023422523783921</v>
+        <v>1.023433028924267</v>
       </c>
       <c r="J22">
-        <v>0.9894561894408084</v>
+        <v>0.989478295291098</v>
       </c>
       <c r="K22">
-        <v>1.000024973632031</v>
+        <v>1.000042887697095</v>
       </c>
       <c r="L22">
-        <v>0.9866818555381204</v>
+        <v>0.986702409393705</v>
       </c>
       <c r="M22">
-        <v>0.9039813068141875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9039961781350755</v>
+      </c>
+      <c r="N22">
+        <v>0.9944318160726133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9595588929615529</v>
+        <v>0.959580624436233</v>
       </c>
       <c r="D23">
-        <v>0.9863080108114564</v>
+        <v>0.9863251209037802</v>
       </c>
       <c r="E23">
-        <v>0.9728242098789002</v>
+        <v>0.9728438761151601</v>
       </c>
       <c r="F23">
-        <v>0.8928988798451131</v>
+        <v>0.8929128971710263</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024744536234215</v>
+        <v>1.024754352459108</v>
       </c>
       <c r="J23">
-        <v>0.9914757988845773</v>
+        <v>0.9914964837463056</v>
       </c>
       <c r="K23">
-        <v>1.001836448576227</v>
+        <v>1.001853215373412</v>
       </c>
       <c r="L23">
-        <v>0.9886281469879589</v>
+        <v>0.988647404057558</v>
       </c>
       <c r="M23">
-        <v>0.9105680593408276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9105817097970649</v>
+      </c>
+      <c r="N23">
+        <v>0.9958297347730311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9703803473459021</v>
+        <v>0.9703964611094086</v>
       </c>
       <c r="D24">
-        <v>0.9945012719360273</v>
+        <v>0.9945140431635474</v>
       </c>
       <c r="E24">
-        <v>0.9816001357827637</v>
+        <v>0.9816148824103602</v>
       </c>
       <c r="F24">
-        <v>0.9187286644607097</v>
+        <v>0.9187384537961248</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02962681889849</v>
+        <v>1.029634122771299</v>
       </c>
       <c r="J24">
-        <v>0.9990682651935108</v>
+        <v>0.9990837034918011</v>
       </c>
       <c r="K24">
-        <v>1.008625644457999</v>
+        <v>1.008638188181331</v>
       </c>
       <c r="L24">
-        <v>0.9959582667725577</v>
+        <v>0.9959727416317726</v>
       </c>
       <c r="M24">
-        <v>0.9343509803452317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9343605549309318</v>
+      </c>
+      <c r="N24">
+        <v>1.001084205265681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821109567019286</v>
+        <v>0.9821212438762303</v>
       </c>
       <c r="D25">
-        <v>1.003366273916345</v>
+        <v>1.003374524382069</v>
       </c>
       <c r="E25">
-        <v>0.9911483321763487</v>
+        <v>0.9911579443752193</v>
       </c>
       <c r="F25">
-        <v>0.945055319527432</v>
+        <v>0.94506127860488</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034746806691961</v>
+        <v>1.034751511839179</v>
       </c>
       <c r="J25">
-        <v>1.007255729564079</v>
+        <v>1.007265652641256</v>
       </c>
       <c r="K25">
-        <v>1.015912556615347</v>
+        <v>1.015920680099209</v>
       </c>
       <c r="L25">
-        <v>1.003885630831889</v>
+        <v>1.003895090382034</v>
       </c>
       <c r="M25">
-        <v>0.9585709971324339</v>
+        <v>0.9585768492023655</v>
+      </c>
+      <c r="N25">
+        <v>1.006747497586853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9909223409314394</v>
+        <v>1.014635985160068</v>
       </c>
       <c r="D2">
-        <v>1.010017085861962</v>
+        <v>1.031064476374359</v>
       </c>
       <c r="E2">
-        <v>0.9983465043661834</v>
+        <v>1.027069225591663</v>
       </c>
       <c r="F2">
-        <v>0.9639083732015531</v>
+        <v>1.034763794612049</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038479926903239</v>
+        <v>1.053367474923272</v>
       </c>
       <c r="J2">
-        <v>1.013377995207244</v>
+        <v>1.036387578237401</v>
       </c>
       <c r="K2">
-        <v>1.02133860869757</v>
+        <v>1.042107354757881</v>
       </c>
       <c r="L2">
-        <v>1.009828923176993</v>
+        <v>1.038163896847642</v>
       </c>
       <c r="M2">
-        <v>0.9758945231360041</v>
+        <v>1.0457591621675</v>
       </c>
       <c r="N2">
-        <v>1.010974882168467</v>
+        <v>1.037859367473815</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9970376952436978</v>
+        <v>1.021364167155616</v>
       </c>
       <c r="D3">
-        <v>1.014628806376771</v>
+        <v>1.036281222198901</v>
       </c>
       <c r="E3">
-        <v>1.003354615421863</v>
+        <v>1.032934011925701</v>
       </c>
       <c r="F3">
-        <v>0.9766162806057345</v>
+        <v>1.041190117452344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041013207472438</v>
+        <v>1.055879153014457</v>
       </c>
       <c r="J3">
-        <v>1.017609442728772</v>
+        <v>1.041288895034011</v>
       </c>
       <c r="K3">
-        <v>1.025077868962259</v>
+        <v>1.04647000586816</v>
       </c>
       <c r="L3">
-        <v>1.013944752511407</v>
+        <v>1.043162148466726</v>
       </c>
       <c r="M3">
-        <v>0.9875573699003029</v>
+        <v>1.0513217532304</v>
       </c>
       <c r="N3">
-        <v>1.013899074936441</v>
+        <v>1.042767644702465</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000879527547072</v>
+        <v>1.025597455736929</v>
       </c>
       <c r="D4">
-        <v>1.017524416230653</v>
+        <v>1.039565065437037</v>
       </c>
       <c r="E4">
-        <v>1.006506547700569</v>
+        <v>1.036629735251599</v>
       </c>
       <c r="F4">
-        <v>0.9844540272522674</v>
+        <v>1.045241292544284</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042579978521609</v>
+        <v>1.057445965891267</v>
       </c>
       <c r="J4">
-        <v>1.020260761647317</v>
+        <v>1.044368291720242</v>
       </c>
       <c r="K4">
-        <v>1.027415839600035</v>
+        <v>1.049208321123056</v>
       </c>
       <c r="L4">
-        <v>1.016527073631993</v>
+        <v>1.046305292529429</v>
       </c>
       <c r="M4">
-        <v>0.9947437717410597</v>
+        <v>1.054822715928962</v>
       </c>
       <c r="N4">
-        <v>1.015730111359916</v>
+        <v>1.045851414485202</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002468634836799</v>
+        <v>1.027349792795627</v>
       </c>
       <c r="D5">
-        <v>1.018721760759641</v>
+        <v>1.040924666921045</v>
       </c>
       <c r="E5">
-        <v>1.007811599879178</v>
+        <v>1.038160841395721</v>
       </c>
       <c r="F5">
-        <v>0.9876651250241861</v>
+        <v>1.046920054015377</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043222333237109</v>
+        <v>1.058091239334576</v>
       </c>
       <c r="J5">
-        <v>1.021355779378983</v>
+        <v>1.045641861690641</v>
       </c>
       <c r="K5">
-        <v>1.02838029148332</v>
+        <v>1.050340173267301</v>
       </c>
       <c r="L5">
-        <v>1.017594392659505</v>
+        <v>1.047605905301203</v>
       </c>
       <c r="M5">
-        <v>0.9976863344406842</v>
+        <v>1.056272098982216</v>
       </c>
       <c r="N5">
-        <v>1.016486044881876</v>
+        <v>1.047126793071039</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002733971415684</v>
+        <v>1.02764245527306</v>
       </c>
       <c r="D6">
-        <v>1.01892166196472</v>
+        <v>1.041151751598487</v>
       </c>
       <c r="E6">
-        <v>1.008029582589219</v>
+        <v>1.038416629397677</v>
       </c>
       <c r="F6">
-        <v>0.9881995821156603</v>
+        <v>1.04720053299207</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043329258075558</v>
+        <v>1.058198812699558</v>
       </c>
       <c r="J6">
-        <v>1.0215385199993</v>
+        <v>1.045854496460928</v>
       </c>
       <c r="K6">
-        <v>1.028541176105477</v>
+        <v>1.05052910787878</v>
       </c>
       <c r="L6">
-        <v>1.017772556997974</v>
+        <v>1.04782309490923</v>
       </c>
       <c r="M6">
-        <v>0.9981759960527583</v>
+        <v>1.056514173460516</v>
       </c>
       <c r="N6">
-        <v>1.016612179781232</v>
+        <v>1.047339729807089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000900861459853</v>
+        <v>1.025620976116372</v>
       </c>
       <c r="D7">
-        <v>1.017540492167992</v>
+        <v>1.039583313409192</v>
       </c>
       <c r="E7">
-        <v>1.006524063037285</v>
+        <v>1.036650281191554</v>
       </c>
       <c r="F7">
-        <v>0.9844972536570983</v>
+        <v>1.045263818297462</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042588624546856</v>
+        <v>1.057454640055463</v>
       </c>
       <c r="J7">
-        <v>1.020275468884826</v>
+        <v>1.044385390458859</v>
       </c>
       <c r="K7">
-        <v>1.027428797710747</v>
+        <v>1.049223519794812</v>
       </c>
       <c r="L7">
-        <v>1.016541405721889</v>
+        <v>1.046322751660799</v>
       </c>
       <c r="M7">
-        <v>0.9947833899842745</v>
+        <v>1.054842169316077</v>
       </c>
       <c r="N7">
-        <v>1.015740265549351</v>
+        <v>1.04586853750599</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.993013914798955</v>
+        <v>1.016935629384852</v>
       </c>
       <c r="D8">
-        <v>1.011594733363548</v>
+        <v>1.032847144352457</v>
       </c>
       <c r="E8">
-        <v>1.000058139995646</v>
+        <v>1.029072526626956</v>
       </c>
       <c r="F8">
-        <v>0.9682882257305842</v>
+        <v>1.036958577076064</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039351717822316</v>
+        <v>1.054228759005611</v>
       </c>
       <c r="J8">
-        <v>1.014826727809447</v>
+        <v>1.038063716708695</v>
       </c>
       <c r="K8">
-        <v>1.022619904128112</v>
+        <v>1.043599829071375</v>
       </c>
       <c r="L8">
-        <v>1.011237323795427</v>
+        <v>1.039872581618789</v>
       </c>
       <c r="M8">
-        <v>0.9799156056785628</v>
+        <v>1.047660153186199</v>
       </c>
       <c r="N8">
-        <v>1.011976288087964</v>
+        <v>1.039537886253994</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9781525007691534</v>
+        <v>1.000637608198338</v>
       </c>
       <c r="D9">
-        <v>1.000376901068583</v>
+        <v>1.020223581058752</v>
       </c>
       <c r="E9">
-        <v>0.9879234929511251</v>
+        <v>1.014902429535338</v>
       </c>
       <c r="F9">
-        <v>0.9363201783721981</v>
+        <v>1.021440408058136</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033038686805138</v>
+        <v>1.048068985498985</v>
       </c>
       <c r="J9">
-        <v>1.004501061367544</v>
+        <v>1.02616787094942</v>
       </c>
       <c r="K9">
-        <v>1.013463866274149</v>
+        <v>1.032996849908913</v>
       </c>
       <c r="L9">
-        <v>1.001215589725749</v>
+        <v>1.027758265229077</v>
       </c>
       <c r="M9">
-        <v>0.9505384441294829</v>
+        <v>1.034194949980276</v>
       </c>
       <c r="N9">
-        <v>1.004834417010001</v>
+        <v>1.027625147029268</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9674628170291768</v>
+        <v>0.9889924185690618</v>
       </c>
       <c r="D10">
-        <v>0.992294619815117</v>
+        <v>1.01122222040884</v>
       </c>
       <c r="E10">
-        <v>0.9792328938970769</v>
+        <v>1.004817176909607</v>
       </c>
       <c r="F10">
-        <v>0.9118969134293117</v>
+        <v>1.010403200522521</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02832619064147</v>
+        <v>1.043599405563264</v>
       </c>
       <c r="J10">
-        <v>0.9970296042174914</v>
+        <v>1.017649678824844</v>
       </c>
       <c r="K10">
-        <v>1.006804405049096</v>
+        <v>1.025391767882604</v>
       </c>
       <c r="L10">
-        <v>0.9939875088634947</v>
+        <v>1.019099997052574</v>
       </c>
       <c r="M10">
-        <v>0.9280625969526654</v>
+        <v>1.024587128510502</v>
       </c>
       <c r="N10">
-        <v>0.9996618480056455</v>
+        <v>1.019094858094825</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9626103375654571</v>
+        <v>0.9837360886794406</v>
       </c>
       <c r="D11">
-        <v>0.9886208416395005</v>
+        <v>1.007165347380516</v>
       </c>
       <c r="E11">
-        <v>0.9752977901723685</v>
+        <v>1.000275815254989</v>
       </c>
       <c r="F11">
-        <v>0.9003204863314269</v>
+        <v>1.005434747034778</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026137485097685</v>
+        <v>1.041566746068054</v>
       </c>
       <c r="J11">
-        <v>0.9936257579319204</v>
+        <v>1.01380147463749</v>
       </c>
       <c r="K11">
-        <v>1.003760590787619</v>
+        <v>1.021953389108833</v>
       </c>
       <c r="L11">
-        <v>0.9907010894806164</v>
+        <v>1.015192531978109</v>
       </c>
       <c r="M11">
-        <v>0.9174034994020577</v>
+        <v>1.020254894646789</v>
       </c>
       <c r="N11">
-        <v>0.9973045199587481</v>
+        <v>1.01524118901613</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9607701561012271</v>
+        <v>0.9817487131071511</v>
       </c>
       <c r="D12">
-        <v>0.9872266660155288</v>
+        <v>1.005632558105606</v>
       </c>
       <c r="E12">
-        <v>0.9738070636947337</v>
+        <v>0.9985605344476391</v>
       </c>
       <c r="F12">
-        <v>0.8958387064290975</v>
+        <v>1.003558369160189</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025298961084279</v>
+        <v>1.04079602451649</v>
       </c>
       <c r="J12">
-        <v>0.9923328615934345</v>
+        <v>1.012346101725877</v>
       </c>
       <c r="K12">
-        <v>1.00260274384839</v>
+        <v>1.020652636972987</v>
       </c>
       <c r="L12">
-        <v>0.9894538924939321</v>
+        <v>1.013715364404361</v>
       </c>
       <c r="M12">
-        <v>0.9132762294569599</v>
+        <v>1.018617712491337</v>
       </c>
       <c r="N12">
-        <v>0.9964090411653718</v>
+        <v>1.013783749308049</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9611666666935754</v>
+        <v>0.982176641778017</v>
       </c>
       <c r="D13">
-        <v>0.9875271239640115</v>
+        <v>1.005962552038763</v>
       </c>
       <c r="E13">
-        <v>0.9741282043375208</v>
+        <v>0.998929792369562</v>
       </c>
       <c r="F13">
-        <v>0.8968089061705662</v>
+        <v>1.003962297900191</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025480046213211</v>
+        <v>1.040962076188181</v>
       </c>
       <c r="J13">
-        <v>0.9926115449794287</v>
+        <v>1.01265949398037</v>
       </c>
       <c r="K13">
-        <v>1.002852398491507</v>
+        <v>1.020932750356135</v>
       </c>
       <c r="L13">
-        <v>0.9897226737727399</v>
+        <v>1.014033421694262</v>
       </c>
       <c r="M13">
-        <v>0.9141697100764845</v>
+        <v>1.018970197992211</v>
       </c>
       <c r="N13">
-        <v>0.9966020645313277</v>
+        <v>1.01409758661549</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9624590251133114</v>
+        <v>0.9835725417913488</v>
       </c>
       <c r="D14">
-        <v>0.9885062247402944</v>
+        <v>1.00703918677558</v>
       </c>
       <c r="E14">
-        <v>0.9751751802578975</v>
+        <v>1.000134623047948</v>
       </c>
       <c r="F14">
-        <v>0.8999539474407772</v>
+        <v>1.005280289958581</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026068715829882</v>
+        <v>1.04150336499503</v>
       </c>
       <c r="J14">
-        <v>0.9935194907343308</v>
+        <v>1.013681715254184</v>
       </c>
       <c r="K14">
-        <v>1.00366545972583</v>
+        <v>1.021846360514398</v>
       </c>
       <c r="L14">
-        <v>0.9905985554825761</v>
+        <v>1.015070966550633</v>
       </c>
       <c r="M14">
-        <v>0.9170659649698338</v>
+        <v>1.02012014918009</v>
       </c>
       <c r="N14">
-        <v>0.9972309192537344</v>
+        <v>1.015121259560763</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.96325014709984</v>
+        <v>0.9844278822751864</v>
       </c>
       <c r="D15">
-        <v>0.989105445835099</v>
+        <v>1.007699044212994</v>
       </c>
       <c r="E15">
-        <v>0.9758162977956302</v>
+        <v>1.000873122763267</v>
       </c>
       <c r="F15">
-        <v>0.9018665124095335</v>
+        <v>1.006088179674556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02642791609535</v>
+        <v>1.041834755797571</v>
       </c>
       <c r="J15">
-        <v>0.9940750123301257</v>
+        <v>1.014308034126209</v>
       </c>
       <c r="K15">
-        <v>1.004162695562333</v>
+        <v>1.022406084781892</v>
       </c>
       <c r="L15">
-        <v>0.9911346066838637</v>
+        <v>1.015706755882328</v>
       </c>
       <c r="M15">
-        <v>0.918827163561505</v>
+        <v>1.020824893269279</v>
       </c>
       <c r="N15">
-        <v>0.9976156704996885</v>
+        <v>1.015748467877426</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9677798130990022</v>
+        <v>0.9893365254057445</v>
       </c>
       <c r="D16">
-        <v>0.9925344954999893</v>
+        <v>1.011487944428916</v>
       </c>
       <c r="E16">
-        <v>0.9794901720669682</v>
+        <v>1.005114714527048</v>
       </c>
       <c r="F16">
-        <v>0.9126416512084384</v>
+        <v>1.010728750987426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028468066232821</v>
+        <v>1.043732166816032</v>
       </c>
       <c r="J16">
-        <v>0.9972516954560686</v>
+        <v>1.017901541856552</v>
       </c>
       <c r="K16">
-        <v>1.007002784573857</v>
+        <v>1.025616754920458</v>
       </c>
       <c r="L16">
-        <v>0.9942020821826941</v>
+        <v>1.019355823038991</v>
       </c>
       <c r="M16">
-        <v>0.9287482220502851</v>
+        <v>1.024870842410504</v>
       </c>
       <c r="N16">
-        <v>0.9998156430793043</v>
+        <v>1.019347078800926</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9705585967351497</v>
+        <v>0.992356443697885</v>
       </c>
       <c r="D17">
-        <v>0.9946366732684343</v>
+        <v>1.013820674530046</v>
       </c>
       <c r="E17">
-        <v>0.9817465953485286</v>
+        <v>1.007727178266321</v>
       </c>
       <c r="F17">
-        <v>0.9191133290405223</v>
+        <v>1.013587350900094</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029706080800873</v>
+        <v>1.044895585743495</v>
       </c>
       <c r="J17">
-        <v>0.9991971475591408</v>
+        <v>1.020111554821597</v>
       </c>
       <c r="K17">
-        <v>1.008739399106692</v>
+        <v>1.027590640344065</v>
       </c>
       <c r="L17">
-        <v>0.9960824257366606</v>
+        <v>1.021601065107758</v>
       </c>
       <c r="M17">
-        <v>0.9347056076946373</v>
+        <v>1.027361266222248</v>
       </c>
       <c r="N17">
-        <v>1.001162754014385</v>
+        <v>1.021560230237874</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9721581436557802</v>
+        <v>0.9940974802285253</v>
       </c>
       <c r="D18">
-        <v>0.9958463076616463</v>
+        <v>1.015166097678786</v>
       </c>
       <c r="E18">
-        <v>0.9830463814386592</v>
+        <v>1.009234321602336</v>
       </c>
       <c r="F18">
-        <v>0.922794108864622</v>
+        <v>1.015236640819248</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030414159151972</v>
+        <v>1.04556487950138</v>
       </c>
       <c r="J18">
-        <v>1.000315875475643</v>
+        <v>1.021385347307843</v>
       </c>
       <c r="K18">
-        <v>1.009737126512151</v>
+        <v>1.028728080705803</v>
       </c>
       <c r="L18">
-        <v>0.9971643172702308</v>
+        <v>1.022895539887041</v>
       </c>
       <c r="M18">
-        <v>0.9380933427250596</v>
+        <v>1.02879745268353</v>
       </c>
       <c r="N18">
-        <v>1.001937328843546</v>
+        <v>1.022835831655557</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9727000511812708</v>
+        <v>0.9946877432468392</v>
       </c>
       <c r="D19">
-        <v>0.9962560486660886</v>
+        <v>1.015622326879392</v>
       </c>
       <c r="E19">
-        <v>0.983486888109342</v>
+        <v>1.009745455559458</v>
       </c>
       <c r="F19">
-        <v>0.9240340115897278</v>
+        <v>1.01579600839704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030653300754077</v>
+        <v>1.045791543333487</v>
       </c>
       <c r="J19">
-        <v>1.000694701040302</v>
+        <v>1.021817143774393</v>
       </c>
       <c r="K19">
-        <v>1.010074829738284</v>
+        <v>1.029113611835974</v>
       </c>
       <c r="L19">
-        <v>0.9975307688878303</v>
+        <v>1.023334410949188</v>
       </c>
       <c r="M19">
-        <v>0.9392344335917143</v>
+        <v>1.029284428981542</v>
       </c>
       <c r="N19">
-        <v>1.002199602464523</v>
+        <v>1.023268241322618</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9702626866462284</v>
+        <v>0.9920345675256005</v>
       </c>
       <c r="D20">
-        <v>0.9944128613598774</v>
+        <v>1.013571982306454</v>
       </c>
       <c r="E20">
-        <v>0.981506214256856</v>
+        <v>1.007448624339868</v>
       </c>
       <c r="F20">
-        <v>0.9184289025841432</v>
+        <v>1.013282537321696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029574726103959</v>
+        <v>1.044771732188577</v>
       </c>
       <c r="J20">
-        <v>0.9989900969622647</v>
+        <v>1.019876034411159</v>
       </c>
       <c r="K20">
-        <v>1.00855467050048</v>
+        <v>1.027380310216214</v>
       </c>
       <c r="L20">
-        <v>0.9958822409875047</v>
+        <v>1.021361751060023</v>
       </c>
       <c r="M20">
-        <v>0.9340756263636854</v>
+        <v>1.027095782143508</v>
       </c>
       <c r="N20">
-        <v>1.001019391592401</v>
+        <v>1.021324375361439</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9620795379951679</v>
+        <v>0.9831624727789884</v>
       </c>
       <c r="D21">
-        <v>0.9882187520460908</v>
+        <v>1.006722876177975</v>
       </c>
       <c r="E21">
-        <v>0.9748677036054054</v>
+        <v>0.9997806339961524</v>
       </c>
       <c r="F21">
-        <v>0.8990331325695122</v>
+        <v>1.004893047393392</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025896103447536</v>
+        <v>1.041344411693271</v>
       </c>
       <c r="J21">
-        <v>0.9932529414960747</v>
+        <v>1.01338143072141</v>
       </c>
       <c r="K21">
-        <v>1.003426814948418</v>
+        <v>1.021577991248679</v>
       </c>
       <c r="L21">
-        <v>0.9903413882591419</v>
+        <v>1.014766163526021</v>
       </c>
       <c r="M21">
-        <v>0.9162180055864705</v>
+        <v>1.019782308688211</v>
       </c>
       <c r="N21">
-        <v>0.9970463059015519</v>
+        <v>1.014820548589509</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9567132016064255</v>
+        <v>0.9773804341407799</v>
       </c>
       <c r="D22">
-        <v>0.9841507775799939</v>
+        <v>1.002265656691966</v>
       </c>
       <c r="E22">
-        <v>0.9705234940260863</v>
+        <v>0.9947937577463689</v>
       </c>
       <c r="F22">
-        <v>0.8857624707698301</v>
+        <v>0.9994381968512922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023433028924267</v>
+        <v>1.039098044215173</v>
       </c>
       <c r="J22">
-        <v>0.989478295291098</v>
+        <v>1.009146557661675</v>
       </c>
       <c r="K22">
-        <v>1.000042887697095</v>
+        <v>1.017792363700452</v>
       </c>
       <c r="L22">
-        <v>0.986702409393705</v>
+        <v>1.010469061680896</v>
       </c>
       <c r="M22">
-        <v>0.9039961781350755</v>
+        <v>1.015020791393247</v>
       </c>
       <c r="N22">
-        <v>0.9944318160726133</v>
+        <v>1.010579661524283</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.959580624436233</v>
+        <v>0.980465947797434</v>
       </c>
       <c r="D23">
-        <v>0.9863251209037802</v>
+        <v>1.004643535491525</v>
       </c>
       <c r="E23">
-        <v>0.9728438761151601</v>
+        <v>0.9974539126676829</v>
       </c>
       <c r="F23">
-        <v>0.8929128971710263</v>
+        <v>1.002347873188324</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024754352459108</v>
+        <v>1.040297952482558</v>
       </c>
       <c r="J23">
-        <v>0.9914964837463056</v>
+        <v>1.011406622382702</v>
       </c>
       <c r="K23">
-        <v>1.001853215373412</v>
+        <v>1.019812867908581</v>
       </c>
       <c r="L23">
-        <v>0.988647404057558</v>
+        <v>1.012761992004544</v>
       </c>
       <c r="M23">
-        <v>0.9105817097970649</v>
+        <v>1.017561224549202</v>
       </c>
       <c r="N23">
-        <v>0.9958297347730311</v>
+        <v>1.012842935796446</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9703964611094086</v>
+        <v>0.9921800724418921</v>
       </c>
       <c r="D24">
-        <v>0.9945140431635474</v>
+        <v>1.013684402502883</v>
       </c>
       <c r="E24">
-        <v>0.9816148824103602</v>
+        <v>1.007574542197146</v>
       </c>
       <c r="F24">
-        <v>0.9187384537961248</v>
+        <v>1.013420325158841</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029634122771299</v>
+        <v>1.04482772496553</v>
       </c>
       <c r="J24">
-        <v>0.9990837034918011</v>
+        <v>1.019982502991452</v>
       </c>
       <c r="K24">
-        <v>1.008638188181331</v>
+        <v>1.02747539215309</v>
       </c>
       <c r="L24">
-        <v>0.9959727416317726</v>
+        <v>1.021469933409033</v>
       </c>
       <c r="M24">
-        <v>0.9343605549309318</v>
+        <v>1.02721579360215</v>
       </c>
       <c r="N24">
-        <v>1.001084205265681</v>
+        <v>1.021430995139328</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821212438762303</v>
+        <v>1.004979574661506</v>
       </c>
       <c r="D25">
-        <v>1.003374524382069</v>
+        <v>1.023584023950693</v>
       </c>
       <c r="E25">
-        <v>0.9911579443752193</v>
+        <v>1.018671200242813</v>
       </c>
       <c r="F25">
-        <v>0.94506127860488</v>
+        <v>1.025566374143517</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034751511839179</v>
+        <v>1.049721972172038</v>
       </c>
       <c r="J25">
-        <v>1.007265652641256</v>
+        <v>1.029340510554502</v>
       </c>
       <c r="K25">
-        <v>1.015920680099209</v>
+        <v>1.03582693643015</v>
       </c>
       <c r="L25">
-        <v>1.003895090382034</v>
+        <v>1.030986422742961</v>
       </c>
       <c r="M25">
-        <v>0.9585768492023655</v>
+        <v>1.037780357968863</v>
       </c>
       <c r="N25">
-        <v>1.006747497586853</v>
+        <v>1.030802292146496</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014635985160068</v>
+        <v>1.010105091694748</v>
       </c>
       <c r="D2">
-        <v>1.031064476374359</v>
+        <v>1.031125651737712</v>
       </c>
       <c r="E2">
-        <v>1.027069225591663</v>
+        <v>1.025847803351665</v>
       </c>
       <c r="F2">
-        <v>1.034763794612049</v>
+        <v>1.038322612466015</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053367474923272</v>
+        <v>1.053794688022163</v>
       </c>
       <c r="J2">
-        <v>1.036387578237401</v>
+        <v>1.031987705528991</v>
       </c>
       <c r="K2">
-        <v>1.042107354757881</v>
+        <v>1.042167740970497</v>
       </c>
       <c r="L2">
-        <v>1.038163896847642</v>
+        <v>1.036958409511845</v>
       </c>
       <c r="M2">
-        <v>1.0457591621675</v>
+        <v>1.04927267257905</v>
       </c>
       <c r="N2">
-        <v>1.037859367473815</v>
+        <v>1.033453246441486</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021364167155616</v>
+        <v>1.014556963039845</v>
       </c>
       <c r="D3">
-        <v>1.036281222198901</v>
+        <v>1.034442898843459</v>
       </c>
       <c r="E3">
-        <v>1.032934011925701</v>
+        <v>1.029483379779333</v>
       </c>
       <c r="F3">
-        <v>1.041190117452344</v>
+        <v>1.042143759999655</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055879153014457</v>
+        <v>1.055075040166588</v>
       </c>
       <c r="J3">
-        <v>1.041288895034011</v>
+        <v>1.03465850633771</v>
       </c>
       <c r="K3">
-        <v>1.04647000586816</v>
+        <v>1.044653256501741</v>
       </c>
       <c r="L3">
-        <v>1.043162148466726</v>
+        <v>1.039752417123747</v>
       </c>
       <c r="M3">
-        <v>1.0513217532304</v>
+        <v>1.052264370914929</v>
       </c>
       <c r="N3">
-        <v>1.042767644702465</v>
+        <v>1.036127840093699</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025597455736929</v>
+        <v>1.017380328206809</v>
       </c>
       <c r="D4">
-        <v>1.039565065437037</v>
+        <v>1.036547598483289</v>
       </c>
       <c r="E4">
-        <v>1.036629735251599</v>
+        <v>1.031794400234547</v>
       </c>
       <c r="F4">
-        <v>1.045241292544284</v>
+        <v>1.044570957460163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057445965891267</v>
+        <v>1.055873493635402</v>
       </c>
       <c r="J4">
-        <v>1.044368291720242</v>
+        <v>1.036349655499316</v>
       </c>
       <c r="K4">
-        <v>1.049208321123056</v>
+        <v>1.046224062862323</v>
       </c>
       <c r="L4">
-        <v>1.046305292529429</v>
+        <v>1.041523660657159</v>
       </c>
       <c r="M4">
-        <v>1.054822715928962</v>
+        <v>1.05415964001606</v>
       </c>
       <c r="N4">
-        <v>1.045851414485202</v>
+        <v>1.037821390881092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027349792795627</v>
+        <v>1.018554025278283</v>
       </c>
       <c r="D5">
-        <v>1.040924666921045</v>
+        <v>1.037422702646603</v>
       </c>
       <c r="E5">
-        <v>1.038160841395721</v>
+        <v>1.032756349953955</v>
       </c>
       <c r="F5">
-        <v>1.046920054015377</v>
+        <v>1.045580833638312</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058091239334576</v>
+        <v>1.056202117924874</v>
       </c>
       <c r="J5">
-        <v>1.045641861690641</v>
+        <v>1.037052006441645</v>
       </c>
       <c r="K5">
-        <v>1.050340173267301</v>
+        <v>1.046875693183614</v>
       </c>
       <c r="L5">
-        <v>1.047605905301203</v>
+        <v>1.042259772632139</v>
       </c>
       <c r="M5">
-        <v>1.056272098982216</v>
+        <v>1.054946977100559</v>
       </c>
       <c r="N5">
-        <v>1.047126793071039</v>
+        <v>1.03852473924232</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02764245527306</v>
+        <v>1.01875033070668</v>
       </c>
       <c r="D6">
-        <v>1.041151751598487</v>
+        <v>1.037569075201543</v>
       </c>
       <c r="E6">
-        <v>1.038416629397677</v>
+        <v>1.032917311368614</v>
       </c>
       <c r="F6">
-        <v>1.04720053299207</v>
+        <v>1.045749789041821</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058198812699558</v>
+        <v>1.056256886209938</v>
       </c>
       <c r="J6">
-        <v>1.045854496460928</v>
+        <v>1.037169436760166</v>
       </c>
       <c r="K6">
-        <v>1.05052910787878</v>
+        <v>1.046984599170089</v>
       </c>
       <c r="L6">
-        <v>1.04782309490923</v>
+        <v>1.04238287683273</v>
       </c>
       <c r="M6">
-        <v>1.056514173460516</v>
+        <v>1.05507862902863</v>
       </c>
       <c r="N6">
-        <v>1.047339729807089</v>
+        <v>1.038642336325363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025620976116372</v>
+        <v>1.017396062643965</v>
       </c>
       <c r="D7">
-        <v>1.039583313409192</v>
+        <v>1.036559329451617</v>
       </c>
       <c r="E7">
-        <v>1.036650281191554</v>
+        <v>1.031807291177398</v>
       </c>
       <c r="F7">
-        <v>1.045263818297462</v>
+        <v>1.044584492366524</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057454640055463</v>
+        <v>1.055877912230812</v>
       </c>
       <c r="J7">
-        <v>1.044385390458859</v>
+        <v>1.036359073837032</v>
       </c>
       <c r="K7">
-        <v>1.049223519794812</v>
+        <v>1.046232804000002</v>
       </c>
       <c r="L7">
-        <v>1.046322751660799</v>
+        <v>1.041533529759583</v>
       </c>
       <c r="M7">
-        <v>1.054842169316077</v>
+        <v>1.054170197165267</v>
       </c>
       <c r="N7">
-        <v>1.04586853750599</v>
+        <v>1.037830822593927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016935629384852</v>
+        <v>1.011621776060236</v>
       </c>
       <c r="D8">
-        <v>1.032847144352457</v>
+        <v>1.032255561516694</v>
       </c>
       <c r="E8">
-        <v>1.029072526626956</v>
+        <v>1.027085239992896</v>
       </c>
       <c r="F8">
-        <v>1.036958577076064</v>
+        <v>1.039623583147301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054228759005611</v>
+        <v>1.054233692246382</v>
       </c>
       <c r="J8">
-        <v>1.038063716708695</v>
+        <v>1.032898143807681</v>
       </c>
       <c r="K8">
-        <v>1.043599829071375</v>
+        <v>1.043015641876932</v>
       </c>
       <c r="L8">
-        <v>1.039872581618789</v>
+        <v>1.03791040945179</v>
       </c>
       <c r="M8">
-        <v>1.047660153186199</v>
+        <v>1.050292299630899</v>
       </c>
       <c r="N8">
-        <v>1.039537886253994</v>
+        <v>1.03436497764696</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000637608198338</v>
+        <v>1.000985598791623</v>
       </c>
       <c r="D9">
-        <v>1.020223581058752</v>
+        <v>1.024337994600821</v>
       </c>
       <c r="E9">
-        <v>1.014902429535338</v>
+        <v>1.018431952670737</v>
       </c>
       <c r="F9">
-        <v>1.021440408058136</v>
+        <v>1.030518613684621</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048068985498985</v>
+        <v>1.051099721622873</v>
       </c>
       <c r="J9">
-        <v>1.02616787094942</v>
+        <v>1.026503600967</v>
       </c>
       <c r="K9">
-        <v>1.032996849908913</v>
+        <v>1.037048171173121</v>
       </c>
       <c r="L9">
-        <v>1.027758265229077</v>
+        <v>1.031232898660175</v>
       </c>
       <c r="M9">
-        <v>1.034194949980276</v>
+        <v>1.043135219202393</v>
       </c>
       <c r="N9">
-        <v>1.027625147029268</v>
+        <v>1.027961353821982</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9889924185690618</v>
+        <v>0.9935515511148988</v>
       </c>
       <c r="D10">
-        <v>1.01122222040884</v>
+        <v>1.018814778375625</v>
       </c>
       <c r="E10">
-        <v>1.004817176909607</v>
+        <v>1.012417308676544</v>
       </c>
       <c r="F10">
-        <v>1.010403200522521</v>
+        <v>1.02418079505179</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043599405563264</v>
+        <v>1.048841285704486</v>
       </c>
       <c r="J10">
-        <v>1.017649678824844</v>
+        <v>1.022023371377624</v>
       </c>
       <c r="K10">
-        <v>1.025391767882604</v>
+        <v>1.03285243724429</v>
       </c>
       <c r="L10">
-        <v>1.019099997052574</v>
+        <v>1.026565926625081</v>
       </c>
       <c r="M10">
-        <v>1.024587128510502</v>
+        <v>1.038126764520439</v>
       </c>
       <c r="N10">
-        <v>1.019094858094825</v>
+        <v>1.023474761792699</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9837360886794406</v>
+        <v>0.9902430807093573</v>
       </c>
       <c r="D11">
-        <v>1.007165347380516</v>
+        <v>1.016360177687474</v>
       </c>
       <c r="E11">
-        <v>1.000275815254989</v>
+        <v>1.009749246059415</v>
       </c>
       <c r="F11">
-        <v>1.005434747034778</v>
+        <v>1.021367237711477</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041566746068054</v>
+        <v>1.047820821693338</v>
       </c>
       <c r="J11">
-        <v>1.01380147463749</v>
+        <v>1.020027468502292</v>
       </c>
       <c r="K11">
-        <v>1.021953389108833</v>
+        <v>1.030980022259072</v>
       </c>
       <c r="L11">
-        <v>1.015192531978109</v>
+        <v>1.024489618458628</v>
       </c>
       <c r="M11">
-        <v>1.020254894646789</v>
+        <v>1.035897143768073</v>
       </c>
       <c r="N11">
-        <v>1.01524118901613</v>
+        <v>1.021476024506351</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9817487131071511</v>
+        <v>0.9889999864570421</v>
       </c>
       <c r="D12">
-        <v>1.005632558105606</v>
+        <v>1.015438512937401</v>
       </c>
       <c r="E12">
-        <v>0.9985605344476391</v>
+        <v>1.008748150853954</v>
       </c>
       <c r="F12">
-        <v>1.003558369160189</v>
+        <v>1.020311234492025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04079602451649</v>
+        <v>1.047435161077451</v>
       </c>
       <c r="J12">
-        <v>1.012346101725877</v>
+        <v>1.019277294468071</v>
       </c>
       <c r="K12">
-        <v>1.020652636972987</v>
+        <v>1.030275794331055</v>
       </c>
       <c r="L12">
-        <v>1.013715364404361</v>
+        <v>1.023709647578455</v>
       </c>
       <c r="M12">
-        <v>1.018617712491337</v>
+        <v>1.035059381374125</v>
       </c>
       <c r="N12">
-        <v>1.013783749308049</v>
+        <v>1.020724785138955</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.982176641778017</v>
+        <v>0.9892672885251497</v>
       </c>
       <c r="D13">
-        <v>1.005962552038763</v>
+        <v>1.015636669458915</v>
       </c>
       <c r="E13">
-        <v>0.998929792369562</v>
+        <v>1.008963352546098</v>
       </c>
       <c r="F13">
-        <v>1.003962297900191</v>
+        <v>1.020538253771928</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040962076188181</v>
+        <v>1.047518189666262</v>
       </c>
       <c r="J13">
-        <v>1.01265949398037</v>
+        <v>1.019438614648847</v>
       </c>
       <c r="K13">
-        <v>1.020932750356135</v>
+        <v>1.030427254878835</v>
       </c>
       <c r="L13">
-        <v>1.014033421694262</v>
+        <v>1.023877356132265</v>
       </c>
       <c r="M13">
-        <v>1.018970197992211</v>
+        <v>1.035239525046408</v>
       </c>
       <c r="N13">
-        <v>1.01409758661549</v>
+        <v>1.020886334412891</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9835725417913488</v>
+        <v>0.9901406198862039</v>
       </c>
       <c r="D14">
-        <v>1.00703918677558</v>
+        <v>1.016284197596338</v>
       </c>
       <c r="E14">
-        <v>1.000134623047948</v>
+        <v>1.009666703345713</v>
       </c>
       <c r="F14">
-        <v>1.005280289958581</v>
+        <v>1.021280174104473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04150336499503</v>
+        <v>1.047789079148237</v>
       </c>
       <c r="J14">
-        <v>1.013681715254184</v>
+        <v>1.019965640967652</v>
       </c>
       <c r="K14">
-        <v>1.021846360514398</v>
+        <v>1.030921990874195</v>
       </c>
       <c r="L14">
-        <v>1.015070966550633</v>
+        <v>1.024425326488373</v>
       </c>
       <c r="M14">
-        <v>1.02012014918009</v>
+        <v>1.035828092113489</v>
       </c>
       <c r="N14">
-        <v>1.015121259560763</v>
+        <v>1.021414109169521</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9844278822751864</v>
+        <v>0.9906768061062839</v>
       </c>
       <c r="D15">
-        <v>1.007699044212994</v>
+        <v>1.016681833030697</v>
       </c>
       <c r="E15">
-        <v>1.000873122763267</v>
+        <v>1.01009871300019</v>
       </c>
       <c r="F15">
-        <v>1.006088179674556</v>
+        <v>1.021735832205534</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041834755797571</v>
+        <v>1.047955099652121</v>
       </c>
       <c r="J15">
-        <v>1.014308034126209</v>
+        <v>1.020289179762371</v>
       </c>
       <c r="K15">
-        <v>1.022406084781892</v>
+        <v>1.031225645769359</v>
       </c>
       <c r="L15">
-        <v>1.015706755882328</v>
+        <v>1.024761778804569</v>
       </c>
       <c r="M15">
-        <v>1.020824893269279</v>
+        <v>1.036189444713927</v>
       </c>
       <c r="N15">
-        <v>1.015748467877426</v>
+        <v>1.021738107426438</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9893365254057445</v>
+        <v>0.9937691763500818</v>
       </c>
       <c r="D16">
-        <v>1.011487944428916</v>
+        <v>1.018976316809566</v>
       </c>
       <c r="E16">
-        <v>1.005114714527048</v>
+        <v>1.012592996356173</v>
       </c>
       <c r="F16">
-        <v>1.010728750987426</v>
+        <v>1.024366019137422</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043732166816032</v>
+        <v>1.048908095462896</v>
       </c>
       <c r="J16">
-        <v>1.017901541856552</v>
+        <v>1.022154620591182</v>
       </c>
       <c r="K16">
-        <v>1.025616754920458</v>
+        <v>1.032975499978555</v>
       </c>
       <c r="L16">
-        <v>1.019355823038991</v>
+        <v>1.026702521731417</v>
       </c>
       <c r="M16">
-        <v>1.024870842410504</v>
+        <v>1.038273417517015</v>
       </c>
       <c r="N16">
-        <v>1.019347078800926</v>
+        <v>1.023606197395195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.992356443697885</v>
+        <v>0.9956844772823703</v>
       </c>
       <c r="D17">
-        <v>1.013820674530046</v>
+        <v>1.020398407248801</v>
       </c>
       <c r="E17">
-        <v>1.007727178266321</v>
+        <v>1.014140208545123</v>
       </c>
       <c r="F17">
-        <v>1.013587350900094</v>
+        <v>1.025996971576491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044895585743495</v>
+        <v>1.049494341068934</v>
       </c>
       <c r="J17">
-        <v>1.020111554821597</v>
+        <v>1.023309510793377</v>
       </c>
       <c r="K17">
-        <v>1.027590640344065</v>
+        <v>1.034057987926972</v>
       </c>
       <c r="L17">
-        <v>1.021601065107758</v>
+        <v>1.027904769358031</v>
       </c>
       <c r="M17">
-        <v>1.027361266222248</v>
+        <v>1.039564033019848</v>
       </c>
       <c r="N17">
-        <v>1.021560230237874</v>
+        <v>1.024762727673945</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9940974802285253</v>
+        <v>0.9967930589572045</v>
       </c>
       <c r="D18">
-        <v>1.015166097678786</v>
+        <v>1.021221840732998</v>
       </c>
       <c r="E18">
-        <v>1.009234321602336</v>
+        <v>1.015036561606288</v>
       </c>
       <c r="F18">
-        <v>1.015236640819248</v>
+        <v>1.026941634751832</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04556487950138</v>
+        <v>1.049832198923546</v>
       </c>
       <c r="J18">
-        <v>1.021385347307843</v>
+        <v>1.02397777053247</v>
       </c>
       <c r="K18">
-        <v>1.028728080705803</v>
+        <v>1.034684043247149</v>
       </c>
       <c r="L18">
-        <v>1.022895539887041</v>
+        <v>1.028600695747167</v>
       </c>
       <c r="M18">
-        <v>1.02879745268353</v>
+        <v>1.040310979035093</v>
       </c>
       <c r="N18">
-        <v>1.022835831655557</v>
+        <v>1.025431936418519</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9946877432468392</v>
+        <v>0.997169622766635</v>
       </c>
       <c r="D19">
-        <v>1.015622326879392</v>
+        <v>1.021501597647845</v>
       </c>
       <c r="E19">
-        <v>1.009745455559458</v>
+        <v>1.01534117291209</v>
       </c>
       <c r="F19">
-        <v>1.01579600839704</v>
+        <v>1.027262628829848</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045791543333487</v>
+        <v>1.049946712627679</v>
       </c>
       <c r="J19">
-        <v>1.021817143774393</v>
+        <v>1.024204731111206</v>
       </c>
       <c r="K19">
-        <v>1.029113611835974</v>
+        <v>1.034896616779306</v>
       </c>
       <c r="L19">
-        <v>1.023334410949188</v>
+        <v>1.028837097359347</v>
       </c>
       <c r="M19">
-        <v>1.029284428981542</v>
+        <v>1.040564688924911</v>
       </c>
       <c r="N19">
-        <v>1.023268241322618</v>
+        <v>1.025659219307309</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9920345675256005</v>
+        <v>0.9954798763585828</v>
       </c>
       <c r="D20">
-        <v>1.013571982306454</v>
+        <v>1.020246459115902</v>
       </c>
       <c r="E20">
-        <v>1.007448624339868</v>
+        <v>1.013974842711157</v>
       </c>
       <c r="F20">
-        <v>1.013282537321696</v>
+        <v>1.025822676665893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044771732188577</v>
+        <v>1.049431867000507</v>
       </c>
       <c r="J20">
-        <v>1.019876034411159</v>
+        <v>1.023186160090191</v>
       </c>
       <c r="K20">
-        <v>1.027380310216214</v>
+        <v>1.033942402324657</v>
       </c>
       <c r="L20">
-        <v>1.021361751060023</v>
+        <v>1.027776333109296</v>
       </c>
       <c r="M20">
-        <v>1.027095782143508</v>
+        <v>1.039426170101607</v>
       </c>
       <c r="N20">
-        <v>1.021324375361439</v>
+        <v>1.024639201798612</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9831624727789884</v>
+        <v>0.9898838432159248</v>
       </c>
       <c r="D21">
-        <v>1.006722876177975</v>
+        <v>1.016093794212082</v>
       </c>
       <c r="E21">
-        <v>0.9997806339961524</v>
+        <v>1.009459865814734</v>
       </c>
       <c r="F21">
-        <v>1.004893047393392</v>
+        <v>1.02106200292841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041344411693271</v>
+        <v>1.047709493413971</v>
       </c>
       <c r="J21">
-        <v>1.01338143072141</v>
+        <v>1.019810691340437</v>
       </c>
       <c r="K21">
-        <v>1.021577991248679</v>
+        <v>1.030776547540436</v>
       </c>
       <c r="L21">
-        <v>1.014766163526021</v>
+        <v>1.024264207443724</v>
       </c>
       <c r="M21">
-        <v>1.019782308688211</v>
+        <v>1.035655041874012</v>
       </c>
       <c r="N21">
-        <v>1.014820548589509</v>
+        <v>1.021258939496062</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773804341407799</v>
+        <v>0.9862829446044493</v>
       </c>
       <c r="D22">
-        <v>1.002265656691966</v>
+        <v>1.013425228950716</v>
       </c>
       <c r="E22">
-        <v>0.9947937577463689</v>
+        <v>1.006562661703142</v>
       </c>
       <c r="F22">
-        <v>0.9994381968512922</v>
+        <v>1.018005299903568</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039098044215173</v>
+        <v>1.046588175881842</v>
       </c>
       <c r="J22">
-        <v>1.009146557661675</v>
+        <v>1.017637226600547</v>
       </c>
       <c r="K22">
-        <v>1.017792363700452</v>
+        <v>1.028735339843398</v>
       </c>
       <c r="L22">
-        <v>1.010469061680896</v>
+        <v>1.022005222484228</v>
       </c>
       <c r="M22">
-        <v>1.015020791393247</v>
+        <v>1.033228312386141</v>
       </c>
       <c r="N22">
-        <v>1.010579661524283</v>
+        <v>1.019082388186941</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.980465947797434</v>
+        <v>0.9881999243912896</v>
       </c>
       <c r="D23">
-        <v>1.004643535491525</v>
+        <v>1.014845505661081</v>
       </c>
       <c r="E23">
-        <v>0.9974539126676829</v>
+        <v>1.008104237937559</v>
       </c>
       <c r="F23">
-        <v>1.002347873188324</v>
+        <v>1.019631915758646</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040297952482558</v>
+        <v>1.047186325080928</v>
       </c>
       <c r="J23">
-        <v>1.011406622382702</v>
+        <v>1.018794413943982</v>
       </c>
       <c r="K23">
-        <v>1.019812867908581</v>
+        <v>1.029822359809652</v>
       </c>
       <c r="L23">
-        <v>1.012761992004544</v>
+        <v>1.023207707286109</v>
       </c>
       <c r="M23">
-        <v>1.017561224549202</v>
+        <v>1.034520195174675</v>
       </c>
       <c r="N23">
-        <v>1.012842935796446</v>
+        <v>1.020241218869135</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9921800724418921</v>
+        <v>0.9955723531730699</v>
       </c>
       <c r="D24">
-        <v>1.013684402502883</v>
+        <v>1.020315136593719</v>
       </c>
       <c r="E24">
-        <v>1.007574542197146</v>
+        <v>1.014049583258668</v>
       </c>
       <c r="F24">
-        <v>1.013420325158841</v>
+        <v>1.025901453527324</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04482772496553</v>
+        <v>1.049460108963738</v>
       </c>
       <c r="J24">
-        <v>1.019982502991452</v>
+        <v>1.023241913523411</v>
       </c>
       <c r="K24">
-        <v>1.02747539215309</v>
+        <v>1.033994646963218</v>
       </c>
       <c r="L24">
-        <v>1.021469933409033</v>
+        <v>1.027834384346216</v>
       </c>
       <c r="M24">
-        <v>1.02721579360215</v>
+        <v>1.039488482461738</v>
       </c>
       <c r="N24">
-        <v>1.021430995139328</v>
+        <v>1.024695034408101</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004979574661506</v>
+        <v>1.0037932437516</v>
       </c>
       <c r="D25">
-        <v>1.023584023950693</v>
+        <v>1.026426456578217</v>
       </c>
       <c r="E25">
-        <v>1.018671200242813</v>
+        <v>1.020710640641915</v>
       </c>
       <c r="F25">
-        <v>1.025566374143517</v>
+        <v>1.032917854952152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049721972172038</v>
+        <v>1.051938963530067</v>
       </c>
       <c r="J25">
-        <v>1.029340510554502</v>
+        <v>1.028193621002851</v>
       </c>
       <c r="K25">
-        <v>1.03582693643015</v>
+        <v>1.038627933200273</v>
       </c>
       <c r="L25">
-        <v>1.030986422742961</v>
+        <v>1.032995738055811</v>
       </c>
       <c r="M25">
-        <v>1.037780357968863</v>
+        <v>1.045025784962614</v>
       </c>
       <c r="N25">
-        <v>1.030802292146496</v>
+        <v>1.029653773880132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010105091694748</v>
+        <v>1.039216618482286</v>
       </c>
       <c r="D2">
-        <v>1.031125651737712</v>
+        <v>1.046357541331056</v>
       </c>
       <c r="E2">
-        <v>1.025847803351665</v>
+        <v>1.047857386747824</v>
       </c>
       <c r="F2">
-        <v>1.038322612466015</v>
+        <v>1.058917009885102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053794688022163</v>
+        <v>1.040276226565228</v>
       </c>
       <c r="J2">
-        <v>1.031987705528991</v>
+        <v>1.044309834564598</v>
       </c>
       <c r="K2">
-        <v>1.042167740970497</v>
+        <v>1.049123203024651</v>
       </c>
       <c r="L2">
-        <v>1.036958409511845</v>
+        <v>1.050618852859598</v>
       </c>
       <c r="M2">
-        <v>1.04927267257905</v>
+        <v>1.061647935920581</v>
       </c>
       <c r="N2">
-        <v>1.033453246441486</v>
+        <v>1.045792874313692</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014556963039845</v>
+        <v>1.040162936897491</v>
       </c>
       <c r="D3">
-        <v>1.034442898843459</v>
+        <v>1.047073490039572</v>
       </c>
       <c r="E3">
-        <v>1.029483379779333</v>
+        <v>1.048676432164096</v>
       </c>
       <c r="F3">
-        <v>1.042143759999655</v>
+        <v>1.059769035826908</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055075040166588</v>
+        <v>1.040464516732097</v>
       </c>
       <c r="J3">
-        <v>1.03465850633771</v>
+        <v>1.04490128326365</v>
       </c>
       <c r="K3">
-        <v>1.044653256501741</v>
+        <v>1.04965102672486</v>
       </c>
       <c r="L3">
-        <v>1.039752417123747</v>
+        <v>1.051249808405838</v>
       </c>
       <c r="M3">
-        <v>1.052264370914929</v>
+        <v>1.062313993019986</v>
       </c>
       <c r="N3">
-        <v>1.036127840093699</v>
+        <v>1.046385162937737</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017380328206809</v>
+        <v>1.040775717791575</v>
       </c>
       <c r="D4">
-        <v>1.036547598483289</v>
+        <v>1.047536831201523</v>
       </c>
       <c r="E4">
-        <v>1.031794400234547</v>
+        <v>1.049207103766685</v>
       </c>
       <c r="F4">
-        <v>1.044570957460163</v>
+        <v>1.060320855789997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055873493635402</v>
+        <v>1.040584755562964</v>
       </c>
       <c r="J4">
-        <v>1.036349655499316</v>
+        <v>1.045283816347476</v>
       </c>
       <c r="K4">
-        <v>1.046224062862323</v>
+        <v>1.049991966323565</v>
       </c>
       <c r="L4">
-        <v>1.041523660657159</v>
+        <v>1.051658121554631</v>
       </c>
       <c r="M4">
-        <v>1.05415964001606</v>
+        <v>1.062744832446882</v>
       </c>
       <c r="N4">
-        <v>1.037821390881092</v>
+        <v>1.046768239262418</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018554025278283</v>
+        <v>1.041033437400736</v>
       </c>
       <c r="D5">
-        <v>1.037422702646603</v>
+        <v>1.047731636111191</v>
       </c>
       <c r="E5">
-        <v>1.032756349953955</v>
+        <v>1.049430362854265</v>
       </c>
       <c r="F5">
-        <v>1.045580833638312</v>
+        <v>1.060552959511864</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056202117924874</v>
+        <v>1.040634920776059</v>
       </c>
       <c r="J5">
-        <v>1.037052006441645</v>
+        <v>1.045444590562447</v>
       </c>
       <c r="K5">
-        <v>1.046875693183614</v>
+        <v>1.05013515307142</v>
       </c>
       <c r="L5">
-        <v>1.042259772632139</v>
+        <v>1.05182978542373</v>
       </c>
       <c r="M5">
-        <v>1.054946977100559</v>
+        <v>1.062925921491314</v>
       </c>
       <c r="N5">
-        <v>1.03852473924232</v>
+        <v>1.046929241795216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01875033070668</v>
+        <v>1.04107671587125</v>
       </c>
       <c r="D6">
-        <v>1.037569075201543</v>
+        <v>1.047764345622707</v>
       </c>
       <c r="E6">
-        <v>1.032917311368614</v>
+        <v>1.049467858654371</v>
       </c>
       <c r="F6">
-        <v>1.045749789041821</v>
+        <v>1.060591937656232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056256886209938</v>
+        <v>1.040643321243781</v>
       </c>
       <c r="J6">
-        <v>1.037169436760166</v>
+        <v>1.045471582725245</v>
       </c>
       <c r="K6">
-        <v>1.046984599170089</v>
+        <v>1.050159186262463</v>
       </c>
       <c r="L6">
-        <v>1.04238287683273</v>
+        <v>1.051858609036628</v>
       </c>
       <c r="M6">
-        <v>1.05507862902863</v>
+        <v>1.062956324996699</v>
       </c>
       <c r="N6">
-        <v>1.038642336325363</v>
+        <v>1.046956272289981</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017396062643965</v>
+        <v>1.040779161036443</v>
       </c>
       <c r="D7">
-        <v>1.036559329451617</v>
+        <v>1.047539434132218</v>
       </c>
       <c r="E7">
-        <v>1.031807291177398</v>
+        <v>1.049210086320099</v>
       </c>
       <c r="F7">
-        <v>1.044584492366524</v>
+        <v>1.060323956707275</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055877912230812</v>
+        <v>1.040585427379617</v>
       </c>
       <c r="J7">
-        <v>1.036359073837032</v>
+        <v>1.045285964789535</v>
       </c>
       <c r="K7">
-        <v>1.046232804000002</v>
+        <v>1.049993880160234</v>
       </c>
       <c r="L7">
-        <v>1.041533529759583</v>
+        <v>1.051660415301722</v>
       </c>
       <c r="M7">
-        <v>1.054170197165267</v>
+        <v>1.062747252310144</v>
       </c>
       <c r="N7">
-        <v>1.037830822593927</v>
+        <v>1.046770390755512</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011621776060236</v>
+        <v>1.039536337458344</v>
       </c>
       <c r="D8">
-        <v>1.032255561516694</v>
+        <v>1.046599483202101</v>
       </c>
       <c r="E8">
-        <v>1.027085239992896</v>
+        <v>1.04813404228534</v>
       </c>
       <c r="F8">
-        <v>1.039623583147301</v>
+        <v>1.059204851083681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054233692246382</v>
+        <v>1.040340190432633</v>
       </c>
       <c r="J8">
-        <v>1.032898143807681</v>
+        <v>1.044509752746766</v>
       </c>
       <c r="K8">
-        <v>1.043015641876932</v>
+        <v>1.049301706546802</v>
       </c>
       <c r="L8">
-        <v>1.03791040945179</v>
+        <v>1.050832077670966</v>
       </c>
       <c r="M8">
-        <v>1.050292299630899</v>
+        <v>1.061873062044297</v>
       </c>
       <c r="N8">
-        <v>1.03436497764696</v>
+        <v>1.04599307640261</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000985598791623</v>
+        <v>1.037349816011797</v>
       </c>
       <c r="D9">
-        <v>1.024337994600821</v>
+        <v>1.044943807907629</v>
       </c>
       <c r="E9">
-        <v>1.018431952670737</v>
+        <v>1.046243300278029</v>
       </c>
       <c r="F9">
-        <v>1.030518613684621</v>
+        <v>1.05723676162515</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051099721622873</v>
+        <v>1.039895849516591</v>
       </c>
       <c r="J9">
-        <v>1.026503600967</v>
+        <v>1.04314068511918</v>
       </c>
       <c r="K9">
-        <v>1.037048171173121</v>
+        <v>1.048077483233626</v>
       </c>
       <c r="L9">
-        <v>1.031232898660175</v>
+        <v>1.049372821215318</v>
       </c>
       <c r="M9">
-        <v>1.043135219202393</v>
+        <v>1.060331583856112</v>
       </c>
       <c r="N9">
-        <v>1.027961353821982</v>
+        <v>1.044622064541958</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9935515511148988</v>
+        <v>1.035894548019024</v>
       </c>
       <c r="D10">
-        <v>1.018814778375625</v>
+        <v>1.043840544440646</v>
       </c>
       <c r="E10">
-        <v>1.012417308676544</v>
+        <v>1.0449865150232</v>
       </c>
       <c r="F10">
-        <v>1.02418079505179</v>
+        <v>1.055927431341146</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048841285704486</v>
+        <v>1.03959146198807</v>
       </c>
       <c r="J10">
-        <v>1.022023371377624</v>
+        <v>1.042227174880679</v>
       </c>
       <c r="K10">
-        <v>1.03285243724429</v>
+        <v>1.047258361595917</v>
       </c>
       <c r="L10">
-        <v>1.026565926625081</v>
+        <v>1.048400310135251</v>
       </c>
       <c r="M10">
-        <v>1.038126764520439</v>
+        <v>1.059303310466299</v>
       </c>
       <c r="N10">
-        <v>1.023474761792699</v>
+        <v>1.043707257014137</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9902430807093573</v>
+        <v>1.035264986467072</v>
       </c>
       <c r="D11">
-        <v>1.016360177687474</v>
+        <v>1.043362961466952</v>
       </c>
       <c r="E11">
-        <v>1.009749246059415</v>
+        <v>1.044443211464008</v>
       </c>
       <c r="F11">
-        <v>1.021367237711477</v>
+        <v>1.055361144096552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047820821693338</v>
+        <v>1.039457732362926</v>
       </c>
       <c r="J11">
-        <v>1.020027468502292</v>
+        <v>1.041831438721865</v>
       </c>
       <c r="K11">
-        <v>1.030980022259072</v>
+        <v>1.04690298221347</v>
       </c>
       <c r="L11">
-        <v>1.024489618458628</v>
+        <v>1.04797929427613</v>
       </c>
       <c r="M11">
-        <v>1.035897143768073</v>
+        <v>1.058857926036128</v>
       </c>
       <c r="N11">
-        <v>1.021476024506351</v>
+        <v>1.043310958864587</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9889999864570421</v>
+        <v>1.03503122729101</v>
       </c>
       <c r="D12">
-        <v>1.015438512937401</v>
+        <v>1.043185588027701</v>
       </c>
       <c r="E12">
-        <v>1.008748150853954</v>
+        <v>1.04424153992883</v>
       </c>
       <c r="F12">
-        <v>1.020311234492025</v>
+        <v>1.055150900744204</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047435161077451</v>
+        <v>1.039407770282946</v>
       </c>
       <c r="J12">
-        <v>1.019277294468071</v>
+        <v>1.041684418654898</v>
       </c>
       <c r="K12">
-        <v>1.030275794331055</v>
+        <v>1.046770875303775</v>
       </c>
       <c r="L12">
-        <v>1.023709647578455</v>
+        <v>1.047822924598815</v>
       </c>
       <c r="M12">
-        <v>1.035059381374125</v>
+        <v>1.058692471416802</v>
       </c>
       <c r="N12">
-        <v>1.020724785138955</v>
+        <v>1.043163730012261</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9892672885251497</v>
+        <v>1.035081365428607</v>
       </c>
       <c r="D13">
-        <v>1.015636669458915</v>
+        <v>1.04322363420653</v>
       </c>
       <c r="E13">
-        <v>1.008963352546098</v>
+        <v>1.044284792998052</v>
       </c>
       <c r="F13">
-        <v>1.020538253771928</v>
+        <v>1.055195994063779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047518189666262</v>
+        <v>1.039418500382921</v>
       </c>
       <c r="J13">
-        <v>1.019438614648847</v>
+        <v>1.041715956119978</v>
       </c>
       <c r="K13">
-        <v>1.030427254878835</v>
+        <v>1.046799217335553</v>
       </c>
       <c r="L13">
-        <v>1.023877356132265</v>
+        <v>1.047856465757068</v>
       </c>
       <c r="M13">
-        <v>1.035239525046408</v>
+        <v>1.058727962833574</v>
       </c>
       <c r="N13">
-        <v>1.020886334412891</v>
+        <v>1.043195312264159</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9901406198862039</v>
+        <v>1.035245662059297</v>
       </c>
       <c r="D14">
-        <v>1.016284197596338</v>
+        <v>1.04334829926279</v>
       </c>
       <c r="E14">
-        <v>1.009666703345713</v>
+        <v>1.044426538457354</v>
       </c>
       <c r="F14">
-        <v>1.021280174104473</v>
+        <v>1.055343763247134</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047789079148237</v>
+        <v>1.039453608372174</v>
       </c>
       <c r="J14">
-        <v>1.019965640967652</v>
+        <v>1.041819286522442</v>
       </c>
       <c r="K14">
-        <v>1.030921990874195</v>
+        <v>1.046892064313509</v>
       </c>
       <c r="L14">
-        <v>1.024425326488373</v>
+        <v>1.04796636841022</v>
       </c>
       <c r="M14">
-        <v>1.035828092113489</v>
+        <v>1.058844249885933</v>
       </c>
       <c r="N14">
-        <v>1.021414109169521</v>
+        <v>1.043298789407646</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9906768061062839</v>
+        <v>1.035346902329212</v>
       </c>
       <c r="D15">
-        <v>1.016681833030697</v>
+        <v>1.043425112497197</v>
       </c>
       <c r="E15">
-        <v>1.01009871300019</v>
+        <v>1.044513890524954</v>
       </c>
       <c r="F15">
-        <v>1.021735832205534</v>
+        <v>1.055434822141145</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047955099652121</v>
+        <v>1.03947520129593</v>
       </c>
       <c r="J15">
-        <v>1.020289179762371</v>
+        <v>1.04188294837446</v>
       </c>
       <c r="K15">
-        <v>1.031225645769359</v>
+        <v>1.046949256761808</v>
       </c>
       <c r="L15">
-        <v>1.024761778804569</v>
+        <v>1.048034084999347</v>
       </c>
       <c r="M15">
-        <v>1.036189444713927</v>
+        <v>1.058915895696845</v>
       </c>
       <c r="N15">
-        <v>1.021738107426438</v>
+        <v>1.043362541666797</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9937691763500818</v>
+        <v>1.035936342233083</v>
       </c>
       <c r="D16">
-        <v>1.018976316809566</v>
+        <v>1.043872243072521</v>
       </c>
       <c r="E16">
-        <v>1.012592996356173</v>
+        <v>1.045022591225995</v>
       </c>
       <c r="F16">
-        <v>1.024366019137422</v>
+        <v>1.055965028030187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048908095462896</v>
+        <v>1.039600296624897</v>
       </c>
       <c r="J16">
-        <v>1.022154620591182</v>
+        <v>1.042253434878057</v>
       </c>
       <c r="K16">
-        <v>1.032975499978555</v>
+        <v>1.047281932423205</v>
       </c>
       <c r="L16">
-        <v>1.026702521731417</v>
+        <v>1.048428253521252</v>
       </c>
       <c r="M16">
-        <v>1.038273417517015</v>
+        <v>1.059332866426152</v>
       </c>
       <c r="N16">
-        <v>1.023606197395195</v>
+        <v>1.043733554303724</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9956844772823703</v>
+        <v>1.036306238066284</v>
       </c>
       <c r="D17">
-        <v>1.020398407248801</v>
+        <v>1.044152754112794</v>
       </c>
       <c r="E17">
-        <v>1.014140208545123</v>
+        <v>1.045341925790383</v>
       </c>
       <c r="F17">
-        <v>1.025996971576491</v>
+        <v>1.056297790367398</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049494341068934</v>
+        <v>1.039678249976035</v>
       </c>
       <c r="J17">
-        <v>1.023309510793377</v>
+        <v>1.042485783760993</v>
       </c>
       <c r="K17">
-        <v>1.034057987926972</v>
+        <v>1.047490425987815</v>
       </c>
       <c r="L17">
-        <v>1.027904769358031</v>
+        <v>1.048675529361784</v>
       </c>
       <c r="M17">
-        <v>1.039564033019848</v>
+        <v>1.059594385860171</v>
       </c>
       <c r="N17">
-        <v>1.024762727673945</v>
+        <v>1.043966233148724</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9967930589572045</v>
+        <v>1.036522047853578</v>
       </c>
       <c r="D18">
-        <v>1.021221840732998</v>
+        <v>1.044316384612276</v>
       </c>
       <c r="E18">
-        <v>1.015036561606288</v>
+        <v>1.045528274277934</v>
       </c>
       <c r="F18">
-        <v>1.026941634751832</v>
+        <v>1.056491948719706</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049832198923546</v>
+        <v>1.039723532794377</v>
       </c>
       <c r="J18">
-        <v>1.02397777053247</v>
+        <v>1.042621291477616</v>
       </c>
       <c r="K18">
-        <v>1.034684043247149</v>
+        <v>1.047611969690479</v>
       </c>
       <c r="L18">
-        <v>1.028600695747167</v>
+        <v>1.048819769575219</v>
       </c>
       <c r="M18">
-        <v>1.040310979035093</v>
+        <v>1.059746912582429</v>
       </c>
       <c r="N18">
-        <v>1.025431936418519</v>
+        <v>1.044101933301848</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.997169622766635</v>
+        <v>1.036595642848871</v>
       </c>
       <c r="D19">
-        <v>1.021501597647845</v>
+        <v>1.044372180569702</v>
       </c>
       <c r="E19">
-        <v>1.01534117291209</v>
+        <v>1.045591828845379</v>
       </c>
       <c r="F19">
-        <v>1.027262628829848</v>
+        <v>1.056558162458849</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049946712627679</v>
+        <v>1.039738941486475</v>
       </c>
       <c r="J19">
-        <v>1.024204731111206</v>
+        <v>1.042667493114836</v>
       </c>
       <c r="K19">
-        <v>1.034896616779306</v>
+        <v>1.047653401542172</v>
       </c>
       <c r="L19">
-        <v>1.028837097359347</v>
+        <v>1.048868953149861</v>
       </c>
       <c r="M19">
-        <v>1.040564688924911</v>
+        <v>1.059798917984534</v>
       </c>
       <c r="N19">
-        <v>1.025659219307309</v>
+        <v>1.044148200550693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9954798763585828</v>
+        <v>1.036266545964406</v>
       </c>
       <c r="D20">
-        <v>1.020246459115902</v>
+        <v>1.044122656561295</v>
       </c>
       <c r="E20">
-        <v>1.013974842711157</v>
+        <v>1.045307655303718</v>
       </c>
       <c r="F20">
-        <v>1.025822676665893</v>
+        <v>1.056262081516523</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049431867000507</v>
+        <v>1.039669905558483</v>
       </c>
       <c r="J20">
-        <v>1.023186160090191</v>
+        <v>1.042460856722807</v>
       </c>
       <c r="K20">
-        <v>1.033942402324657</v>
+        <v>1.047468063530284</v>
       </c>
       <c r="L20">
-        <v>1.027776333109296</v>
+        <v>1.04864899812712</v>
       </c>
       <c r="M20">
-        <v>1.039426170101607</v>
+        <v>1.05956632864943</v>
       </c>
       <c r="N20">
-        <v>1.024639201798612</v>
+        <v>1.043941270711285</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9898838432159248</v>
+        <v>1.035197278358734</v>
       </c>
       <c r="D21">
-        <v>1.016093794212082</v>
+        <v>1.043311587887672</v>
       </c>
       <c r="E21">
-        <v>1.009459865814734</v>
+        <v>1.044384794197548</v>
       </c>
       <c r="F21">
-        <v>1.02106200292841</v>
+        <v>1.055300246106499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047709493413971</v>
+        <v>1.03944327791509</v>
       </c>
       <c r="J21">
-        <v>1.019810691340437</v>
+        <v>1.041788859004813</v>
       </c>
       <c r="K21">
-        <v>1.030776547540436</v>
+        <v>1.046864726031983</v>
       </c>
       <c r="L21">
-        <v>1.024264207443724</v>
+        <v>1.047934004412455</v>
       </c>
       <c r="M21">
-        <v>1.035655041874012</v>
+        <v>1.05881000676168</v>
       </c>
       <c r="N21">
-        <v>1.021258939496062</v>
+        <v>1.043268318679453</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9862829446044493</v>
+        <v>1.034525497110266</v>
       </c>
       <c r="D22">
-        <v>1.013425228950716</v>
+        <v>1.042801765665253</v>
       </c>
       <c r="E22">
-        <v>1.006562661703142</v>
+        <v>1.043805340042585</v>
       </c>
       <c r="F22">
-        <v>1.018005299903568</v>
+        <v>1.054696086818628</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046588175881842</v>
+        <v>1.039299116726675</v>
       </c>
       <c r="J22">
-        <v>1.017637226600547</v>
+        <v>1.04136619723489</v>
       </c>
       <c r="K22">
-        <v>1.028735339843398</v>
+        <v>1.046484787367276</v>
       </c>
       <c r="L22">
-        <v>1.022005222484228</v>
+        <v>1.047484543132188</v>
       </c>
       <c r="M22">
-        <v>1.033228312386141</v>
+        <v>1.058334367826465</v>
       </c>
       <c r="N22">
-        <v>1.019082388186941</v>
+        <v>1.042845056681336</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9881999243912896</v>
+        <v>1.034881572404662</v>
       </c>
       <c r="D23">
-        <v>1.014845505661081</v>
+        <v>1.043072019358688</v>
       </c>
       <c r="E23">
-        <v>1.008104237937559</v>
+        <v>1.04411244473035</v>
       </c>
       <c r="F23">
-        <v>1.019631915758646</v>
+        <v>1.055016307129939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047186325080928</v>
+        <v>1.039375697499251</v>
       </c>
       <c r="J23">
-        <v>1.018794413943982</v>
+        <v>1.041590272121755</v>
       </c>
       <c r="K23">
-        <v>1.029822359809652</v>
+        <v>1.046686256201128</v>
       </c>
       <c r="L23">
-        <v>1.023207707286109</v>
+        <v>1.047722802745751</v>
       </c>
       <c r="M23">
-        <v>1.034520195174675</v>
+        <v>1.058586522953111</v>
       </c>
       <c r="N23">
-        <v>1.020241218869135</v>
+        <v>1.043069449780242</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9955723531730699</v>
+        <v>1.036284480944347</v>
       </c>
       <c r="D24">
-        <v>1.020315136593719</v>
+        <v>1.044136256308788</v>
       </c>
       <c r="E24">
-        <v>1.014049583258668</v>
+        <v>1.045323140395791</v>
       </c>
       <c r="F24">
-        <v>1.025901453527324</v>
+        <v>1.056278216612466</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049460108963738</v>
+        <v>1.039673676616521</v>
       </c>
       <c r="J24">
-        <v>1.023241913523411</v>
+        <v>1.042472120232416</v>
       </c>
       <c r="K24">
-        <v>1.033994646963218</v>
+        <v>1.047478168369587</v>
       </c>
       <c r="L24">
-        <v>1.027834384346216</v>
+        <v>1.048660986424197</v>
       </c>
       <c r="M24">
-        <v>1.039488482461738</v>
+        <v>1.059579006535977</v>
       </c>
       <c r="N24">
-        <v>1.024695034408101</v>
+        <v>1.04395255021637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.0037932437516</v>
+        <v>1.037914663664939</v>
       </c>
       <c r="D25">
-        <v>1.026426456578217</v>
+        <v>1.045371754629222</v>
       </c>
       <c r="E25">
-        <v>1.020710640641915</v>
+        <v>1.046731455088358</v>
       </c>
       <c r="F25">
-        <v>1.032917854952152</v>
+        <v>1.057745085825752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051938963530067</v>
+        <v>1.040012163788802</v>
       </c>
       <c r="J25">
-        <v>1.028193621002851</v>
+        <v>1.043494767336229</v>
       </c>
       <c r="K25">
-        <v>1.038627933200273</v>
+        <v>1.048394503355794</v>
       </c>
       <c r="L25">
-        <v>1.032995738055811</v>
+        <v>1.049750021609711</v>
       </c>
       <c r="M25">
-        <v>1.045025784962614</v>
+        <v>1.060730208275392</v>
       </c>
       <c r="N25">
-        <v>1.029653773880132</v>
+        <v>1.044976649596369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039216618482286</v>
+        <v>1.010105091694748</v>
       </c>
       <c r="D2">
-        <v>1.046357541331056</v>
+        <v>1.031125651737712</v>
       </c>
       <c r="E2">
-        <v>1.047857386747824</v>
+        <v>1.025847803351665</v>
       </c>
       <c r="F2">
-        <v>1.058917009885102</v>
+        <v>1.038322612466015</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040276226565228</v>
+        <v>1.053794688022163</v>
       </c>
       <c r="J2">
-        <v>1.044309834564598</v>
+        <v>1.031987705528991</v>
       </c>
       <c r="K2">
-        <v>1.049123203024651</v>
+        <v>1.042167740970497</v>
       </c>
       <c r="L2">
-        <v>1.050618852859598</v>
+        <v>1.036958409511845</v>
       </c>
       <c r="M2">
-        <v>1.061647935920581</v>
+        <v>1.04927267257905</v>
       </c>
       <c r="N2">
-        <v>1.045792874313692</v>
+        <v>1.033453246441487</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040162936897491</v>
+        <v>1.014556963039845</v>
       </c>
       <c r="D3">
-        <v>1.047073490039572</v>
+        <v>1.034442898843459</v>
       </c>
       <c r="E3">
-        <v>1.048676432164096</v>
+        <v>1.029483379779333</v>
       </c>
       <c r="F3">
-        <v>1.059769035826908</v>
+        <v>1.042143759999655</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040464516732097</v>
+        <v>1.055075040166588</v>
       </c>
       <c r="J3">
-        <v>1.04490128326365</v>
+        <v>1.03465850633771</v>
       </c>
       <c r="K3">
-        <v>1.04965102672486</v>
+        <v>1.044653256501741</v>
       </c>
       <c r="L3">
-        <v>1.051249808405838</v>
+        <v>1.039752417123747</v>
       </c>
       <c r="M3">
-        <v>1.062313993019986</v>
+        <v>1.052264370914929</v>
       </c>
       <c r="N3">
-        <v>1.046385162937737</v>
+        <v>1.036127840093699</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040775717791575</v>
+        <v>1.017380328206808</v>
       </c>
       <c r="D4">
-        <v>1.047536831201523</v>
+        <v>1.036547598483288</v>
       </c>
       <c r="E4">
-        <v>1.049207103766685</v>
+        <v>1.031794400234546</v>
       </c>
       <c r="F4">
-        <v>1.060320855789997</v>
+        <v>1.044570957460162</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040584755562964</v>
+        <v>1.055873493635402</v>
       </c>
       <c r="J4">
-        <v>1.045283816347476</v>
+        <v>1.036349655499315</v>
       </c>
       <c r="K4">
-        <v>1.049991966323565</v>
+        <v>1.046224062862322</v>
       </c>
       <c r="L4">
-        <v>1.051658121554631</v>
+        <v>1.041523660657158</v>
       </c>
       <c r="M4">
-        <v>1.062744832446882</v>
+        <v>1.054159640016059</v>
       </c>
       <c r="N4">
-        <v>1.046768239262418</v>
+        <v>1.037821390881092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041033437400736</v>
+        <v>1.018554025278282</v>
       </c>
       <c r="D5">
-        <v>1.047731636111191</v>
+        <v>1.037422702646603</v>
       </c>
       <c r="E5">
-        <v>1.049430362854265</v>
+        <v>1.032756349953955</v>
       </c>
       <c r="F5">
-        <v>1.060552959511864</v>
+        <v>1.045580833638312</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040634920776059</v>
+        <v>1.056202117924873</v>
       </c>
       <c r="J5">
-        <v>1.045444590562447</v>
+        <v>1.037052006441645</v>
       </c>
       <c r="K5">
-        <v>1.05013515307142</v>
+        <v>1.046875693183615</v>
       </c>
       <c r="L5">
-        <v>1.05182978542373</v>
+        <v>1.042259772632139</v>
       </c>
       <c r="M5">
-        <v>1.062925921491314</v>
+        <v>1.054946977100559</v>
       </c>
       <c r="N5">
-        <v>1.046929241795216</v>
+        <v>1.03852473924232</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04107671587125</v>
+        <v>1.018750330706679</v>
       </c>
       <c r="D6">
-        <v>1.047764345622707</v>
+        <v>1.037569075201541</v>
       </c>
       <c r="E6">
-        <v>1.049467858654371</v>
+        <v>1.032917311368612</v>
       </c>
       <c r="F6">
-        <v>1.060591937656232</v>
+        <v>1.045749789041819</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040643321243781</v>
+        <v>1.056256886209937</v>
       </c>
       <c r="J6">
-        <v>1.045471582725245</v>
+        <v>1.037169436760165</v>
       </c>
       <c r="K6">
-        <v>1.050159186262463</v>
+        <v>1.046984599170088</v>
       </c>
       <c r="L6">
-        <v>1.051858609036628</v>
+        <v>1.042382876832728</v>
       </c>
       <c r="M6">
-        <v>1.062956324996699</v>
+        <v>1.055078629028628</v>
       </c>
       <c r="N6">
-        <v>1.046956272289981</v>
+        <v>1.038642336325361</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040779161036443</v>
+        <v>1.017396062643965</v>
       </c>
       <c r="D7">
-        <v>1.047539434132218</v>
+        <v>1.036559329451618</v>
       </c>
       <c r="E7">
-        <v>1.049210086320099</v>
+        <v>1.031807291177399</v>
       </c>
       <c r="F7">
-        <v>1.060323956707275</v>
+        <v>1.044584492366524</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040585427379617</v>
+        <v>1.055877912230812</v>
       </c>
       <c r="J7">
-        <v>1.045285964789535</v>
+        <v>1.036359073837032</v>
       </c>
       <c r="K7">
-        <v>1.049993880160234</v>
+        <v>1.046232804000002</v>
       </c>
       <c r="L7">
-        <v>1.051660415301722</v>
+        <v>1.041533529759584</v>
       </c>
       <c r="M7">
-        <v>1.062747252310144</v>
+        <v>1.054170197165267</v>
       </c>
       <c r="N7">
-        <v>1.046770390755512</v>
+        <v>1.037830822593927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039536337458344</v>
+        <v>1.011621776060236</v>
       </c>
       <c r="D8">
-        <v>1.046599483202101</v>
+        <v>1.032255561516694</v>
       </c>
       <c r="E8">
-        <v>1.04813404228534</v>
+        <v>1.027085239992896</v>
       </c>
       <c r="F8">
-        <v>1.059204851083681</v>
+        <v>1.039623583147301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040340190432633</v>
+        <v>1.054233692246382</v>
       </c>
       <c r="J8">
-        <v>1.044509752746766</v>
+        <v>1.03289814380768</v>
       </c>
       <c r="K8">
-        <v>1.049301706546802</v>
+        <v>1.043015641876932</v>
       </c>
       <c r="L8">
-        <v>1.050832077670966</v>
+        <v>1.03791040945179</v>
       </c>
       <c r="M8">
-        <v>1.061873062044297</v>
+        <v>1.050292299630899</v>
       </c>
       <c r="N8">
-        <v>1.04599307640261</v>
+        <v>1.03436497764696</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037349816011797</v>
+        <v>1.000985598791624</v>
       </c>
       <c r="D9">
-        <v>1.044943807907629</v>
+        <v>1.024337994600822</v>
       </c>
       <c r="E9">
-        <v>1.046243300278029</v>
+        <v>1.018431952670739</v>
       </c>
       <c r="F9">
-        <v>1.05723676162515</v>
+        <v>1.030518613684622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039895849516591</v>
+        <v>1.051099721622874</v>
       </c>
       <c r="J9">
-        <v>1.04314068511918</v>
+        <v>1.026503600967001</v>
       </c>
       <c r="K9">
-        <v>1.048077483233626</v>
+        <v>1.037048171173123</v>
       </c>
       <c r="L9">
-        <v>1.049372821215318</v>
+        <v>1.031232898660176</v>
       </c>
       <c r="M9">
-        <v>1.060331583856112</v>
+        <v>1.043135219202394</v>
       </c>
       <c r="N9">
-        <v>1.044622064541958</v>
+        <v>1.027961353821983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035894548019024</v>
+        <v>0.9935515511148989</v>
       </c>
       <c r="D10">
-        <v>1.043840544440646</v>
+        <v>1.018814778375625</v>
       </c>
       <c r="E10">
-        <v>1.0449865150232</v>
+        <v>1.012417308676544</v>
       </c>
       <c r="F10">
-        <v>1.055927431341146</v>
+        <v>1.024180795051789</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03959146198807</v>
+        <v>1.048841285704486</v>
       </c>
       <c r="J10">
-        <v>1.042227174880679</v>
+        <v>1.022023371377623</v>
       </c>
       <c r="K10">
-        <v>1.047258361595917</v>
+        <v>1.032852437244289</v>
       </c>
       <c r="L10">
-        <v>1.048400310135251</v>
+        <v>1.026565926625081</v>
       </c>
       <c r="M10">
-        <v>1.059303310466299</v>
+        <v>1.038126764520438</v>
       </c>
       <c r="N10">
-        <v>1.043707257014137</v>
+        <v>1.023474761792699</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035264986467072</v>
+        <v>0.9902430807093574</v>
       </c>
       <c r="D11">
-        <v>1.043362961466952</v>
+        <v>1.016360177687474</v>
       </c>
       <c r="E11">
-        <v>1.044443211464008</v>
+        <v>1.009749246059416</v>
       </c>
       <c r="F11">
-        <v>1.055361144096552</v>
+        <v>1.021367237711478</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039457732362926</v>
+        <v>1.047820821693338</v>
       </c>
       <c r="J11">
-        <v>1.041831438721865</v>
+        <v>1.020027468502292</v>
       </c>
       <c r="K11">
-        <v>1.04690298221347</v>
+        <v>1.030980022259073</v>
       </c>
       <c r="L11">
-        <v>1.04797929427613</v>
+        <v>1.024489618458628</v>
       </c>
       <c r="M11">
-        <v>1.058857926036128</v>
+        <v>1.035897143768074</v>
       </c>
       <c r="N11">
-        <v>1.043310958864587</v>
+        <v>1.021476024506351</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03503122729101</v>
+        <v>0.988999986457042</v>
       </c>
       <c r="D12">
-        <v>1.043185588027701</v>
+        <v>1.015438512937401</v>
       </c>
       <c r="E12">
-        <v>1.04424153992883</v>
+        <v>1.008748150853953</v>
       </c>
       <c r="F12">
-        <v>1.055150900744204</v>
+        <v>1.020311234492025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039407770282946</v>
+        <v>1.047435161077451</v>
       </c>
       <c r="J12">
-        <v>1.041684418654898</v>
+        <v>1.019277294468071</v>
       </c>
       <c r="K12">
-        <v>1.046770875303775</v>
+        <v>1.030275794331055</v>
       </c>
       <c r="L12">
-        <v>1.047822924598815</v>
+        <v>1.023709647578455</v>
       </c>
       <c r="M12">
-        <v>1.058692471416802</v>
+        <v>1.035059381374125</v>
       </c>
       <c r="N12">
-        <v>1.043163730012261</v>
+        <v>1.020724785138955</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035081365428607</v>
+        <v>0.9892672885251496</v>
       </c>
       <c r="D13">
-        <v>1.04322363420653</v>
+        <v>1.015636669458914</v>
       </c>
       <c r="E13">
-        <v>1.044284792998052</v>
+        <v>1.008963352546098</v>
       </c>
       <c r="F13">
-        <v>1.055195994063779</v>
+        <v>1.020538253771927</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039418500382921</v>
+        <v>1.047518189666262</v>
       </c>
       <c r="J13">
-        <v>1.041715956119978</v>
+        <v>1.019438614648847</v>
       </c>
       <c r="K13">
-        <v>1.046799217335553</v>
+        <v>1.030427254878835</v>
       </c>
       <c r="L13">
-        <v>1.047856465757068</v>
+        <v>1.023877356132265</v>
       </c>
       <c r="M13">
-        <v>1.058727962833574</v>
+        <v>1.035239525046408</v>
       </c>
       <c r="N13">
-        <v>1.043195312264159</v>
+        <v>1.020886334412891</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035245662059297</v>
+        <v>0.9901406198862044</v>
       </c>
       <c r="D14">
-        <v>1.04334829926279</v>
+        <v>1.016284197596338</v>
       </c>
       <c r="E14">
-        <v>1.044426538457354</v>
+        <v>1.009666703345713</v>
       </c>
       <c r="F14">
-        <v>1.055343763247134</v>
+        <v>1.021280174104474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039453608372174</v>
+        <v>1.047789079148237</v>
       </c>
       <c r="J14">
-        <v>1.041819286522442</v>
+        <v>1.019965640967653</v>
       </c>
       <c r="K14">
-        <v>1.046892064313509</v>
+        <v>1.030921990874196</v>
       </c>
       <c r="L14">
-        <v>1.04796636841022</v>
+        <v>1.024425326488373</v>
       </c>
       <c r="M14">
-        <v>1.058844249885933</v>
+        <v>1.03582809211349</v>
       </c>
       <c r="N14">
-        <v>1.043298789407646</v>
+        <v>1.021414109169521</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035346902329212</v>
+        <v>0.9906768061062832</v>
       </c>
       <c r="D15">
-        <v>1.043425112497197</v>
+        <v>1.016681833030696</v>
       </c>
       <c r="E15">
-        <v>1.044513890524954</v>
+        <v>1.010098713000189</v>
       </c>
       <c r="F15">
-        <v>1.055434822141145</v>
+        <v>1.021735832205533</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03947520129593</v>
+        <v>1.04795509965212</v>
       </c>
       <c r="J15">
-        <v>1.04188294837446</v>
+        <v>1.02028917976237</v>
       </c>
       <c r="K15">
-        <v>1.046949256761808</v>
+        <v>1.031225645769358</v>
       </c>
       <c r="L15">
-        <v>1.048034084999347</v>
+        <v>1.024761778804568</v>
       </c>
       <c r="M15">
-        <v>1.058915895696845</v>
+        <v>1.036189444713925</v>
       </c>
       <c r="N15">
-        <v>1.043362541666797</v>
+        <v>1.021738107426438</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035936342233083</v>
+        <v>0.9937691763500813</v>
       </c>
       <c r="D16">
-        <v>1.043872243072521</v>
+        <v>1.018976316809565</v>
       </c>
       <c r="E16">
-        <v>1.045022591225995</v>
+        <v>1.012592996356172</v>
       </c>
       <c r="F16">
-        <v>1.055965028030187</v>
+        <v>1.024366019137422</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039600296624897</v>
+        <v>1.048908095462895</v>
       </c>
       <c r="J16">
-        <v>1.042253434878057</v>
+        <v>1.022154620591182</v>
       </c>
       <c r="K16">
-        <v>1.047281932423205</v>
+        <v>1.032975499978554</v>
       </c>
       <c r="L16">
-        <v>1.048428253521252</v>
+        <v>1.026702521731416</v>
       </c>
       <c r="M16">
-        <v>1.059332866426152</v>
+        <v>1.038273417517014</v>
       </c>
       <c r="N16">
-        <v>1.043733554303724</v>
+        <v>1.023606197395195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036306238066284</v>
+        <v>0.9956844772823701</v>
       </c>
       <c r="D17">
-        <v>1.044152754112794</v>
+        <v>1.020398407248801</v>
       </c>
       <c r="E17">
-        <v>1.045341925790383</v>
+        <v>1.014140208545122</v>
       </c>
       <c r="F17">
-        <v>1.056297790367398</v>
+        <v>1.02599697157649</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039678249976035</v>
+        <v>1.049494341068933</v>
       </c>
       <c r="J17">
-        <v>1.042485783760993</v>
+        <v>1.023309510793377</v>
       </c>
       <c r="K17">
-        <v>1.047490425987815</v>
+        <v>1.034057987926972</v>
       </c>
       <c r="L17">
-        <v>1.048675529361784</v>
+        <v>1.027904769358031</v>
       </c>
       <c r="M17">
-        <v>1.059594385860171</v>
+        <v>1.039564033019847</v>
       </c>
       <c r="N17">
-        <v>1.043966233148724</v>
+        <v>1.024762727673945</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036522047853578</v>
+        <v>0.9967930589572053</v>
       </c>
       <c r="D18">
-        <v>1.044316384612276</v>
+        <v>1.021221840732998</v>
       </c>
       <c r="E18">
-        <v>1.045528274277934</v>
+        <v>1.015036561606288</v>
       </c>
       <c r="F18">
-        <v>1.056491948719706</v>
+        <v>1.026941634751833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039723532794377</v>
+        <v>1.049832198923546</v>
       </c>
       <c r="J18">
-        <v>1.042621291477616</v>
+        <v>1.023977770532471</v>
       </c>
       <c r="K18">
-        <v>1.047611969690479</v>
+        <v>1.03468404324715</v>
       </c>
       <c r="L18">
-        <v>1.048819769575219</v>
+        <v>1.028600695747167</v>
       </c>
       <c r="M18">
-        <v>1.059746912582429</v>
+        <v>1.040310979035094</v>
       </c>
       <c r="N18">
-        <v>1.044101933301848</v>
+        <v>1.025431936418519</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036595642848871</v>
+        <v>0.9971696227666337</v>
       </c>
       <c r="D19">
-        <v>1.044372180569702</v>
+        <v>1.021501597647843</v>
       </c>
       <c r="E19">
-        <v>1.045591828845379</v>
+        <v>1.015341172912089</v>
       </c>
       <c r="F19">
-        <v>1.056558162458849</v>
+        <v>1.027262628829847</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039738941486475</v>
+        <v>1.049946712627678</v>
       </c>
       <c r="J19">
-        <v>1.042667493114836</v>
+        <v>1.024204731111205</v>
       </c>
       <c r="K19">
-        <v>1.047653401542172</v>
+        <v>1.034896616779305</v>
       </c>
       <c r="L19">
-        <v>1.048868953149861</v>
+        <v>1.028837097359346</v>
       </c>
       <c r="M19">
-        <v>1.059798917984534</v>
+        <v>1.04056468892491</v>
       </c>
       <c r="N19">
-        <v>1.044148200550693</v>
+        <v>1.025659219307307</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036266545964406</v>
+        <v>0.9954798763585825</v>
       </c>
       <c r="D20">
-        <v>1.044122656561295</v>
+        <v>1.020246459115902</v>
       </c>
       <c r="E20">
-        <v>1.045307655303718</v>
+        <v>1.013974842711156</v>
       </c>
       <c r="F20">
-        <v>1.056262081516523</v>
+        <v>1.025822676665892</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039669905558483</v>
+        <v>1.049431867000507</v>
       </c>
       <c r="J20">
-        <v>1.042460856722807</v>
+        <v>1.023186160090191</v>
       </c>
       <c r="K20">
-        <v>1.047468063530284</v>
+        <v>1.033942402324657</v>
       </c>
       <c r="L20">
-        <v>1.04864899812712</v>
+        <v>1.027776333109295</v>
       </c>
       <c r="M20">
-        <v>1.05956632864943</v>
+        <v>1.039426170101607</v>
       </c>
       <c r="N20">
-        <v>1.043941270711285</v>
+        <v>1.024639201798612</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035197278358734</v>
+        <v>0.9898838432159238</v>
       </c>
       <c r="D21">
-        <v>1.043311587887672</v>
+        <v>1.016093794212081</v>
       </c>
       <c r="E21">
-        <v>1.044384794197548</v>
+        <v>1.009459865814732</v>
       </c>
       <c r="F21">
-        <v>1.055300246106499</v>
+        <v>1.021062002928409</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03944327791509</v>
+        <v>1.047709493413971</v>
       </c>
       <c r="J21">
-        <v>1.041788859004813</v>
+        <v>1.019810691340436</v>
       </c>
       <c r="K21">
-        <v>1.046864726031983</v>
+        <v>1.030776547540435</v>
       </c>
       <c r="L21">
-        <v>1.047934004412455</v>
+        <v>1.024264207443723</v>
       </c>
       <c r="M21">
-        <v>1.05881000676168</v>
+        <v>1.035655041874011</v>
       </c>
       <c r="N21">
-        <v>1.043268318679453</v>
+        <v>1.021258939496061</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034525497110266</v>
+        <v>0.9862829446044487</v>
       </c>
       <c r="D22">
-        <v>1.042801765665253</v>
+        <v>1.013425228950716</v>
       </c>
       <c r="E22">
-        <v>1.043805340042585</v>
+        <v>1.006562661703141</v>
       </c>
       <c r="F22">
-        <v>1.054696086818628</v>
+        <v>1.018005299903567</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039299116726675</v>
+        <v>1.046588175881842</v>
       </c>
       <c r="J22">
-        <v>1.04136619723489</v>
+        <v>1.017637226600546</v>
       </c>
       <c r="K22">
-        <v>1.046484787367276</v>
+        <v>1.028735339843398</v>
       </c>
       <c r="L22">
-        <v>1.047484543132188</v>
+        <v>1.022005222484227</v>
       </c>
       <c r="M22">
-        <v>1.058334367826465</v>
+        <v>1.03322831238614</v>
       </c>
       <c r="N22">
-        <v>1.042845056681336</v>
+        <v>1.01908238818694</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034881572404662</v>
+        <v>0.9881999243912903</v>
       </c>
       <c r="D23">
-        <v>1.043072019358688</v>
+        <v>1.014845505661081</v>
       </c>
       <c r="E23">
-        <v>1.04411244473035</v>
+        <v>1.00810423793756</v>
       </c>
       <c r="F23">
-        <v>1.055016307129939</v>
+        <v>1.019631915758647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039375697499251</v>
+        <v>1.047186325080928</v>
       </c>
       <c r="J23">
-        <v>1.041590272121755</v>
+        <v>1.018794413943982</v>
       </c>
       <c r="K23">
-        <v>1.046686256201128</v>
+        <v>1.029822359809652</v>
       </c>
       <c r="L23">
-        <v>1.047722802745751</v>
+        <v>1.02320770728611</v>
       </c>
       <c r="M23">
-        <v>1.058586522953111</v>
+        <v>1.034520195174676</v>
       </c>
       <c r="N23">
-        <v>1.043069449780242</v>
+        <v>1.020241218869136</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036284480944347</v>
+        <v>0.9955723531730701</v>
       </c>
       <c r="D24">
-        <v>1.044136256308788</v>
+        <v>1.020315136593719</v>
       </c>
       <c r="E24">
-        <v>1.045323140395791</v>
+        <v>1.014049583258668</v>
       </c>
       <c r="F24">
-        <v>1.056278216612466</v>
+        <v>1.025901453527324</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039673676616521</v>
+        <v>1.049460108963738</v>
       </c>
       <c r="J24">
-        <v>1.042472120232416</v>
+        <v>1.023241913523411</v>
       </c>
       <c r="K24">
-        <v>1.047478168369587</v>
+        <v>1.033994646963218</v>
       </c>
       <c r="L24">
-        <v>1.048660986424197</v>
+        <v>1.027834384346216</v>
       </c>
       <c r="M24">
-        <v>1.059579006535977</v>
+        <v>1.039488482461738</v>
       </c>
       <c r="N24">
-        <v>1.04395255021637</v>
+        <v>1.024695034408102</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037914663664939</v>
+        <v>1.0037932437516</v>
       </c>
       <c r="D25">
-        <v>1.045371754629222</v>
+        <v>1.026426456578217</v>
       </c>
       <c r="E25">
-        <v>1.046731455088358</v>
+        <v>1.020710640641915</v>
       </c>
       <c r="F25">
-        <v>1.057745085825752</v>
+        <v>1.032917854952152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040012163788802</v>
+        <v>1.051938963530067</v>
       </c>
       <c r="J25">
-        <v>1.043494767336229</v>
+        <v>1.028193621002851</v>
       </c>
       <c r="K25">
-        <v>1.048394503355794</v>
+        <v>1.038627933200273</v>
       </c>
       <c r="L25">
-        <v>1.049750021609711</v>
+        <v>1.032995738055811</v>
       </c>
       <c r="M25">
-        <v>1.060730208275392</v>
+        <v>1.045025784962613</v>
       </c>
       <c r="N25">
-        <v>1.044976649596369</v>
+        <v>1.029653773880132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010105091694748</v>
+        <v>1.012841738079547</v>
       </c>
       <c r="D2">
-        <v>1.031125651737712</v>
+        <v>1.030298826191035</v>
       </c>
       <c r="E2">
-        <v>1.025847803351665</v>
+        <v>1.027190990773091</v>
       </c>
       <c r="F2">
-        <v>1.038322612466015</v>
+        <v>1.037511146201352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053794688022163</v>
+        <v>1.052300601499545</v>
       </c>
       <c r="J2">
-        <v>1.031987705528991</v>
+        <v>1.034645023666812</v>
       </c>
       <c r="K2">
-        <v>1.042167740970497</v>
+        <v>1.041351591235566</v>
       </c>
       <c r="L2">
-        <v>1.036958409511845</v>
+        <v>1.038284076058925</v>
       </c>
       <c r="M2">
-        <v>1.04927267257905</v>
+        <v>1.04847150296089</v>
       </c>
       <c r="N2">
-        <v>1.033453246441487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015436381212853</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04693430550012</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040309438536235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014556963039845</v>
+        <v>1.016056263110954</v>
       </c>
       <c r="D3">
-        <v>1.034442898843459</v>
+        <v>1.032407373474534</v>
       </c>
       <c r="E3">
-        <v>1.029483379779333</v>
+        <v>1.029705584073965</v>
       </c>
       <c r="F3">
-        <v>1.042143759999655</v>
+        <v>1.040047462855164</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055075040166588</v>
+        <v>1.053110802931881</v>
       </c>
       <c r="J3">
-        <v>1.03465850633771</v>
+        <v>1.036118586719609</v>
       </c>
       <c r="K3">
-        <v>1.044653256501741</v>
+        <v>1.042641730433372</v>
       </c>
       <c r="L3">
-        <v>1.039752417123747</v>
+        <v>1.039971977366279</v>
       </c>
       <c r="M3">
-        <v>1.052264370914929</v>
+        <v>1.050192341533648</v>
       </c>
       <c r="N3">
-        <v>1.036127840093699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015930952991522</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048296220580409</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04121901459506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017380328206808</v>
+        <v>1.018103054826739</v>
       </c>
       <c r="D4">
-        <v>1.036547598483288</v>
+        <v>1.0337533386224</v>
       </c>
       <c r="E4">
-        <v>1.031794400234546</v>
+        <v>1.031312351155519</v>
       </c>
       <c r="F4">
-        <v>1.044570957460162</v>
+        <v>1.041669464963582</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055873493635402</v>
+        <v>1.053617962291784</v>
       </c>
       <c r="J4">
-        <v>1.036349655499315</v>
+        <v>1.037054751210291</v>
       </c>
       <c r="K4">
-        <v>1.046224062862322</v>
+        <v>1.043460767833624</v>
       </c>
       <c r="L4">
-        <v>1.041523660657158</v>
+        <v>1.041046999380885</v>
       </c>
       <c r="M4">
-        <v>1.054159640016059</v>
+        <v>1.051289700509656</v>
       </c>
       <c r="N4">
-        <v>1.037821390881092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016245218213174</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049164696864304</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04179903416785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018554025278282</v>
+        <v>1.018958164616073</v>
       </c>
       <c r="D5">
-        <v>1.037422702646603</v>
+        <v>1.034318492332319</v>
       </c>
       <c r="E5">
-        <v>1.032756349953955</v>
+        <v>1.031985048191656</v>
       </c>
       <c r="F5">
-        <v>1.045580833638312</v>
+        <v>1.042348285248083</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056202117924873</v>
+        <v>1.053829053329113</v>
       </c>
       <c r="J5">
-        <v>1.037052006441645</v>
+        <v>1.037446580260927</v>
       </c>
       <c r="K5">
-        <v>1.046875693183615</v>
+        <v>1.043804969835188</v>
       </c>
       <c r="L5">
-        <v>1.042259772632139</v>
+        <v>1.041496860699967</v>
       </c>
       <c r="M5">
-        <v>1.054946977100559</v>
+        <v>1.051748641659247</v>
       </c>
       <c r="N5">
-        <v>1.03852473924232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016377032392427</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049527913626208</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042049563044858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018750330706679</v>
+        <v>1.019104202330925</v>
       </c>
       <c r="D6">
-        <v>1.037569075201541</v>
+        <v>1.034417544869678</v>
       </c>
       <c r="E6">
-        <v>1.032917311368612</v>
+        <v>1.032100119506063</v>
       </c>
       <c r="F6">
-        <v>1.045749789041819</v>
+        <v>1.042463720367912</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056256886209937</v>
+        <v>1.053866601479483</v>
       </c>
       <c r="J6">
-        <v>1.037169436760165</v>
+        <v>1.03751497550749</v>
       </c>
       <c r="K6">
-        <v>1.046984599170088</v>
+        <v>1.043866911252136</v>
       </c>
       <c r="L6">
-        <v>1.042382876832728</v>
+        <v>1.041574533069126</v>
       </c>
       <c r="M6">
-        <v>1.055078629028628</v>
+        <v>1.05182718000325</v>
       </c>
       <c r="N6">
-        <v>1.038642336325361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016400364764598</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049590070691161</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04210208083503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017396062643965</v>
+        <v>1.018122312829406</v>
       </c>
       <c r="D7">
-        <v>1.036559329451618</v>
+        <v>1.033772709294071</v>
       </c>
       <c r="E7">
-        <v>1.031807291177399</v>
+        <v>1.031327792631622</v>
       </c>
       <c r="F7">
-        <v>1.044584492366524</v>
+        <v>1.041683157315359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055877912230812</v>
+        <v>1.053627059363202</v>
       </c>
       <c r="J7">
-        <v>1.036359073837032</v>
+        <v>1.037067614428597</v>
       </c>
       <c r="K7">
-        <v>1.046232804000002</v>
+        <v>1.043477052591373</v>
       </c>
       <c r="L7">
-        <v>1.041533529759584</v>
+        <v>1.041059388542236</v>
       </c>
       <c r="M7">
-        <v>1.054170197165267</v>
+        <v>1.051300401898219</v>
       </c>
       <c r="N7">
-        <v>1.037830822593927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016250422402787</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049173166195571</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041830605057291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011621776060236</v>
+        <v>1.013944742483845</v>
       </c>
       <c r="D8">
-        <v>1.032255561516694</v>
+        <v>1.031029764863598</v>
       </c>
       <c r="E8">
-        <v>1.027085239992896</v>
+        <v>1.028053055999552</v>
       </c>
       <c r="F8">
-        <v>1.039623583147301</v>
+        <v>1.03837802122406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054233692246382</v>
+        <v>1.052585653958887</v>
       </c>
       <c r="J8">
-        <v>1.03289814380768</v>
+        <v>1.035156027950646</v>
       </c>
       <c r="K8">
-        <v>1.043015641876932</v>
+        <v>1.041805203137396</v>
       </c>
       <c r="L8">
-        <v>1.03791040945179</v>
+        <v>1.038865979482583</v>
       </c>
       <c r="M8">
-        <v>1.050292299630899</v>
+        <v>1.049062069407158</v>
       </c>
       <c r="N8">
-        <v>1.03436497764696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015609016838523</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047401694974213</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040653026313105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000985598791624</v>
+        <v>1.006307218793493</v>
       </c>
       <c r="D9">
-        <v>1.024337994600822</v>
+        <v>1.026032648403746</v>
       </c>
       <c r="E9">
-        <v>1.018431952670739</v>
+        <v>1.022111372877908</v>
       </c>
       <c r="F9">
-        <v>1.030518613684622</v>
+        <v>1.032394961987379</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051099721622874</v>
+        <v>1.050607502836649</v>
       </c>
       <c r="J9">
-        <v>1.026503600967001</v>
+        <v>1.031639202123229</v>
       </c>
       <c r="K9">
-        <v>1.037048171173123</v>
+        <v>1.038717025916584</v>
       </c>
       <c r="L9">
-        <v>1.031232898660176</v>
+        <v>1.03485561300906</v>
       </c>
       <c r="M9">
-        <v>1.043135219202394</v>
+        <v>1.044983442721742</v>
       </c>
       <c r="N9">
-        <v>1.027961353821983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01442804153474</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044173758863474</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038466327582374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9935515511148989</v>
+        <v>1.001073377657024</v>
       </c>
       <c r="D10">
-        <v>1.018814778375625</v>
+        <v>1.022637041242011</v>
       </c>
       <c r="E10">
-        <v>1.012417308676544</v>
+        <v>1.018117100055518</v>
       </c>
       <c r="F10">
-        <v>1.024180795051789</v>
+        <v>1.028441144968444</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048841285704486</v>
+        <v>1.049229048652423</v>
       </c>
       <c r="J10">
-        <v>1.022023371377623</v>
+        <v>1.029244473385621</v>
       </c>
       <c r="K10">
-        <v>1.032852437244289</v>
+        <v>1.036609261583028</v>
       </c>
       <c r="L10">
-        <v>1.026565926625081</v>
+        <v>1.032166772002417</v>
       </c>
       <c r="M10">
-        <v>1.038126764520438</v>
+        <v>1.042315196148534</v>
       </c>
       <c r="N10">
-        <v>1.023474761792699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013628254430851</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04211324073617</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036992790264935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9902430807093574</v>
+        <v>0.9991387746711045</v>
       </c>
       <c r="D11">
-        <v>1.016360177687474</v>
+        <v>1.021441182015185</v>
       </c>
       <c r="E11">
-        <v>1.009749246059416</v>
+        <v>1.017006291938704</v>
       </c>
       <c r="F11">
-        <v>1.021367237711478</v>
+        <v>1.027837119125152</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047820821693338</v>
+        <v>1.048866982853898</v>
       </c>
       <c r="J11">
-        <v>1.020027468502292</v>
+        <v>1.028547425565461</v>
       </c>
       <c r="K11">
-        <v>1.030980022259073</v>
+        <v>1.035969768437072</v>
       </c>
       <c r="L11">
-        <v>1.024489618458628</v>
+        <v>1.031614466090421</v>
       </c>
       <c r="M11">
-        <v>1.035897143768074</v>
+        <v>1.042252492635449</v>
       </c>
       <c r="N11">
-        <v>1.021476024506351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013427434456555</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042497811531</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036573416959103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.988999986457042</v>
+        <v>0.9985435281718674</v>
       </c>
       <c r="D12">
-        <v>1.015438512937401</v>
+        <v>1.021089324369382</v>
       </c>
       <c r="E12">
-        <v>1.008748150853953</v>
+        <v>1.016815604886016</v>
       </c>
       <c r="F12">
-        <v>1.020311234492025</v>
+        <v>1.028014284689034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047435161077451</v>
+        <v>1.048815960260266</v>
       </c>
       <c r="J12">
-        <v>1.019277294468071</v>
+        <v>1.028409656666604</v>
       </c>
       <c r="K12">
-        <v>1.030275794331055</v>
+        <v>1.035823340462903</v>
       </c>
       <c r="L12">
-        <v>1.023709647578455</v>
+        <v>1.031627582962828</v>
       </c>
       <c r="M12">
-        <v>1.035059381374125</v>
+        <v>1.042623760829758</v>
       </c>
       <c r="N12">
-        <v>1.020724785138955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013406115443805</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043116407255223</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036469888061423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9892672885251496</v>
+        <v>0.9989484321683746</v>
       </c>
       <c r="D13">
-        <v>1.015636669458914</v>
+        <v>1.021376522017821</v>
       </c>
       <c r="E13">
-        <v>1.008963352546098</v>
+        <v>1.017330065210267</v>
       </c>
       <c r="F13">
-        <v>1.020538253771927</v>
+        <v>1.028824501815472</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047518189666262</v>
+        <v>1.049013073509991</v>
       </c>
       <c r="J13">
-        <v>1.019438614648847</v>
+        <v>1.028704578900061</v>
       </c>
       <c r="K13">
-        <v>1.030427254878835</v>
+        <v>1.036062630405511</v>
       </c>
       <c r="L13">
-        <v>1.023877356132265</v>
+        <v>1.032089667778346</v>
       </c>
       <c r="M13">
-        <v>1.035239525046408</v>
+        <v>1.043377296289638</v>
       </c>
       <c r="N13">
-        <v>1.020886334412891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013526613765892</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043987734346285</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036636585833623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9901406198862044</v>
+        <v>0.9996844965975463</v>
       </c>
       <c r="D14">
-        <v>1.016284197596338</v>
+        <v>1.021867883400156</v>
       </c>
       <c r="E14">
-        <v>1.009666703345713</v>
+        <v>1.018006663666049</v>
       </c>
       <c r="F14">
-        <v>1.021280174104474</v>
+        <v>1.029674776995405</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047789079148237</v>
+        <v>1.049262860194754</v>
       </c>
       <c r="J14">
-        <v>1.019965640967653</v>
+        <v>1.029106079599081</v>
       </c>
       <c r="K14">
-        <v>1.030921990874196</v>
+        <v>1.036405303802362</v>
       </c>
       <c r="L14">
-        <v>1.024425326488373</v>
+        <v>1.032613341074427</v>
       </c>
       <c r="M14">
-        <v>1.03582809211349</v>
+        <v>1.044074224133833</v>
       </c>
       <c r="N14">
-        <v>1.021414109169521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013674975192179</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044711312059702</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036880287685803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9906768061062832</v>
+        <v>1.00008620892443</v>
       </c>
       <c r="D15">
-        <v>1.016681833030696</v>
+        <v>1.02213280559061</v>
       </c>
       <c r="E15">
-        <v>1.010098713000189</v>
+        <v>1.018335366858079</v>
       </c>
       <c r="F15">
-        <v>1.021735832205533</v>
+        <v>1.03003884282093</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04795509965212</v>
+        <v>1.049382527731354</v>
       </c>
       <c r="J15">
-        <v>1.02028917976237</v>
+        <v>1.029304334762576</v>
       </c>
       <c r="K15">
-        <v>1.031225645769358</v>
+        <v>1.036579382210766</v>
       </c>
       <c r="L15">
-        <v>1.024761778804568</v>
+        <v>1.032849540507505</v>
       </c>
       <c r="M15">
-        <v>1.036189444713925</v>
+        <v>1.04434675612483</v>
       </c>
       <c r="N15">
-        <v>1.021738107426438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013744468981281</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044964126565621</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037009224499212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9937691763500813</v>
+        <v>1.002219324406237</v>
       </c>
       <c r="D16">
-        <v>1.018976316809565</v>
+        <v>1.023513439084044</v>
       </c>
       <c r="E16">
-        <v>1.012592996356172</v>
+        <v>1.019930151966501</v>
       </c>
       <c r="F16">
-        <v>1.024366019137422</v>
+        <v>1.03159315077612</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048908095462895</v>
+        <v>1.049943358497481</v>
       </c>
       <c r="J16">
-        <v>1.022154620591182</v>
+        <v>1.030268661014675</v>
       </c>
       <c r="K16">
-        <v>1.032975499978554</v>
+        <v>1.037435273539346</v>
       </c>
       <c r="L16">
-        <v>1.026702521731416</v>
+        <v>1.033913000372533</v>
       </c>
       <c r="M16">
-        <v>1.038273417517014</v>
+        <v>1.045379411968179</v>
       </c>
       <c r="N16">
-        <v>1.023606197395195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014062829132441</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045741760610616</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037617529188919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9956844772823701</v>
+        <v>1.003473462089216</v>
       </c>
       <c r="D17">
-        <v>1.020398407248801</v>
+        <v>1.024318339965649</v>
       </c>
       <c r="E17">
-        <v>1.014140208545122</v>
+        <v>1.020801792347397</v>
       </c>
       <c r="F17">
-        <v>1.02599697157649</v>
+        <v>1.032335983696467</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049494341068933</v>
+        <v>1.050241180897575</v>
       </c>
       <c r="J17">
-        <v>1.023309510793377</v>
+        <v>1.03079881156989</v>
       </c>
       <c r="K17">
-        <v>1.034057987926972</v>
+        <v>1.037913005109252</v>
       </c>
       <c r="L17">
-        <v>1.027904769358031</v>
+        <v>1.034454663183545</v>
       </c>
       <c r="M17">
-        <v>1.039564033019847</v>
+        <v>1.045799844544123</v>
       </c>
       <c r="N17">
-        <v>1.024762727673945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014229492117898</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045945538067805</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037957885347391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9967930589572053</v>
+        <v>1.004076309861251</v>
       </c>
       <c r="D18">
-        <v>1.021221840732998</v>
+        <v>1.024686034730626</v>
       </c>
       <c r="E18">
-        <v>1.015036561606288</v>
+        <v>1.021097948736758</v>
       </c>
       <c r="F18">
-        <v>1.026941634751833</v>
+        <v>1.032386498115726</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049832198923546</v>
+        <v>1.05032793602356</v>
       </c>
       <c r="J18">
-        <v>1.023977770532471</v>
+        <v>1.030986198736124</v>
       </c>
       <c r="K18">
-        <v>1.03468404324715</v>
+        <v>1.03809183867855</v>
       </c>
       <c r="L18">
-        <v>1.028600695747167</v>
+        <v>1.034562177376262</v>
       </c>
       <c r="M18">
-        <v>1.040310979035094</v>
+        <v>1.045668672412753</v>
       </c>
       <c r="N18">
-        <v>1.025431936418519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014273548127116</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045605159608443</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038072716456516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9971696227666337</v>
+        <v>1.004091032506023</v>
       </c>
       <c r="D19">
-        <v>1.021501597647843</v>
+        <v>1.024666961444912</v>
       </c>
       <c r="E19">
-        <v>1.015341172912089</v>
+        <v>1.02086512059181</v>
       </c>
       <c r="F19">
-        <v>1.027262628829847</v>
+        <v>1.031795978392446</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049946712627678</v>
+        <v>1.050228456779133</v>
       </c>
       <c r="J19">
-        <v>1.024204731111205</v>
+        <v>1.030866642464068</v>
       </c>
       <c r="K19">
-        <v>1.034896616779305</v>
+        <v>1.038010738756931</v>
       </c>
       <c r="L19">
-        <v>1.028837097359346</v>
+        <v>1.034270492492153</v>
       </c>
       <c r="M19">
-        <v>1.04056468892491</v>
+        <v>1.04502582383855</v>
       </c>
       <c r="N19">
-        <v>1.025659219307307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01421032393759</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044772854841933</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038021756487051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9954798763585825</v>
+        <v>1.002447932097036</v>
       </c>
       <c r="D20">
-        <v>1.020246459115902</v>
+        <v>1.023543499025898</v>
       </c>
       <c r="E20">
-        <v>1.013974842711156</v>
+        <v>1.019166978097895</v>
       </c>
       <c r="F20">
-        <v>1.025822676665892</v>
+        <v>1.029478447653702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049431867000507</v>
+        <v>1.049605011548045</v>
       </c>
       <c r="J20">
-        <v>1.023186160090191</v>
+        <v>1.029884815114329</v>
       </c>
       <c r="K20">
-        <v>1.033942402324657</v>
+        <v>1.037184622946852</v>
       </c>
       <c r="L20">
-        <v>1.027776333109295</v>
+        <v>1.032880968978136</v>
       </c>
       <c r="M20">
-        <v>1.039426170101607</v>
+        <v>1.043022029444823</v>
       </c>
       <c r="N20">
-        <v>1.024639201798612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013844797403914</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042662119248867</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037441572196913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9898838432159238</v>
+        <v>0.9984534160376503</v>
       </c>
       <c r="D21">
-        <v>1.016093794212081</v>
+        <v>1.020946181883464</v>
       </c>
       <c r="E21">
-        <v>1.009459865814732</v>
+        <v>1.016060706821571</v>
       </c>
       <c r="F21">
-        <v>1.021062002928409</v>
+        <v>1.02631071561355</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047709493413971</v>
+        <v>1.048506183992945</v>
       </c>
       <c r="J21">
-        <v>1.019810691340436</v>
+        <v>1.028015941908493</v>
       </c>
       <c r="K21">
-        <v>1.030776547540435</v>
+        <v>1.035541299375391</v>
       </c>
       <c r="L21">
-        <v>1.024264207443723</v>
+        <v>1.03074406145818</v>
       </c>
       <c r="M21">
-        <v>1.035655041874011</v>
+        <v>1.04081019883722</v>
       </c>
       <c r="N21">
-        <v>1.021258939496061</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013214643544135</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040870925361949</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036282901358559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9862829446044487</v>
+        <v>0.9959131194418948</v>
       </c>
       <c r="D22">
-        <v>1.013425228950716</v>
+        <v>1.019296290994524</v>
       </c>
       <c r="E22">
-        <v>1.006562661703141</v>
+        <v>1.014114711097928</v>
       </c>
       <c r="F22">
-        <v>1.018005299903567</v>
+        <v>1.024360364018553</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046588175881842</v>
+        <v>1.047804617939867</v>
       </c>
       <c r="J22">
-        <v>1.017637226600546</v>
+        <v>1.02683374369143</v>
       </c>
       <c r="K22">
-        <v>1.028735339843398</v>
+        <v>1.034494937664863</v>
       </c>
       <c r="L22">
-        <v>1.022005222484227</v>
+        <v>1.02941164441056</v>
       </c>
       <c r="M22">
-        <v>1.03322831238614</v>
+        <v>1.03946420626611</v>
       </c>
       <c r="N22">
-        <v>1.01908238818694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012816862861857</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039805662248791</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035529599469521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9881999243912903</v>
+        <v>0.9972571315291773</v>
       </c>
       <c r="D23">
-        <v>1.014845505661081</v>
+        <v>1.020163086448789</v>
       </c>
       <c r="E23">
-        <v>1.00810423793756</v>
+        <v>1.015143125896042</v>
       </c>
       <c r="F23">
-        <v>1.019631915758647</v>
+        <v>1.025392640675066</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047186325080928</v>
+        <v>1.048173155233793</v>
       </c>
       <c r="J23">
-        <v>1.018794413943982</v>
+        <v>1.027455935341792</v>
       </c>
       <c r="K23">
-        <v>1.029822359809652</v>
+        <v>1.035041603047089</v>
       </c>
       <c r="L23">
-        <v>1.02320770728611</v>
+        <v>1.030114440673656</v>
       </c>
       <c r="M23">
-        <v>1.034520195174676</v>
+        <v>1.040175741386011</v>
       </c>
       <c r="N23">
-        <v>1.020241218869136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013025264143188</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040368794911908</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035906497856371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9955723531730701</v>
+        <v>1.002466039002008</v>
       </c>
       <c r="D24">
-        <v>1.020315136593719</v>
+        <v>1.023541397955132</v>
       </c>
       <c r="E24">
-        <v>1.014049583258668</v>
+        <v>1.019144978558043</v>
       </c>
       <c r="F24">
-        <v>1.025901453527324</v>
+        <v>1.029410220995465</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049460108963738</v>
+        <v>1.049589256167435</v>
       </c>
       <c r="J24">
-        <v>1.023241913523411</v>
+        <v>1.029869490130618</v>
       </c>
       <c r="K24">
-        <v>1.033994646963218</v>
+        <v>1.037167339090318</v>
       </c>
       <c r="L24">
-        <v>1.027834384346216</v>
+        <v>1.032844026381772</v>
       </c>
       <c r="M24">
-        <v>1.039488482461738</v>
+        <v>1.042939821746409</v>
       </c>
       <c r="N24">
-        <v>1.024695034408102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013835397079154</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042556376276874</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037402004219769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0037932437516</v>
+        <v>1.008326470497125</v>
       </c>
       <c r="D25">
-        <v>1.026426456578217</v>
+        <v>1.027360415857184</v>
       </c>
       <c r="E25">
-        <v>1.020710640641915</v>
+        <v>1.023677335628568</v>
       </c>
       <c r="F25">
-        <v>1.032917854952152</v>
+        <v>1.033967569881209</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051938963530067</v>
+        <v>1.05114459133142</v>
       </c>
       <c r="J25">
-        <v>1.028193621002851</v>
+        <v>1.032576828604711</v>
       </c>
       <c r="K25">
-        <v>1.038627933200273</v>
+        <v>1.039548341034581</v>
       </c>
       <c r="L25">
-        <v>1.032995738055811</v>
+        <v>1.035918883211765</v>
       </c>
       <c r="M25">
-        <v>1.045025784962613</v>
+        <v>1.046060512210466</v>
       </c>
       <c r="N25">
-        <v>1.029653773880132</v>
+        <v>1.014744348064482</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045026182335834</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039082633247422</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012841738079547</v>
+        <v>1.012267388709253</v>
       </c>
       <c r="D2">
-        <v>1.030298826191035</v>
+        <v>1.029150228638857</v>
       </c>
       <c r="E2">
-        <v>1.027190990773091</v>
+        <v>1.026739700869955</v>
       </c>
       <c r="F2">
-        <v>1.037511146201352</v>
+        <v>1.037160994360985</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052300601499545</v>
+        <v>1.051728946252763</v>
       </c>
       <c r="J2">
-        <v>1.034645023666812</v>
+        <v>1.034087274449994</v>
       </c>
       <c r="K2">
-        <v>1.041351591235566</v>
+        <v>1.040217859780362</v>
       </c>
       <c r="L2">
-        <v>1.038284076058925</v>
+        <v>1.037838666490261</v>
       </c>
       <c r="M2">
-        <v>1.04847150296089</v>
+        <v>1.048125800390451</v>
       </c>
       <c r="N2">
-        <v>1.015436381212853</v>
+        <v>1.016229436581099</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04693430550012</v>
+        <v>1.046660707457543</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040309438536235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039516550676415</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022765114292705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016056263110954</v>
+        <v>1.015383975816822</v>
       </c>
       <c r="D3">
-        <v>1.032407373474534</v>
+        <v>1.031119280816322</v>
       </c>
       <c r="E3">
-        <v>1.029705584073965</v>
+        <v>1.029176243168075</v>
       </c>
       <c r="F3">
-        <v>1.040047462855164</v>
+        <v>1.039640304608345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053110802931881</v>
+        <v>1.05246191744372</v>
       </c>
       <c r="J3">
-        <v>1.036118586719609</v>
+        <v>1.035463866147534</v>
       </c>
       <c r="K3">
-        <v>1.042641730433372</v>
+        <v>1.04136888532452</v>
       </c>
       <c r="L3">
-        <v>1.039971977366279</v>
+        <v>1.039448937520925</v>
       </c>
       <c r="M3">
-        <v>1.050192341533648</v>
+        <v>1.049789910780168</v>
       </c>
       <c r="N3">
-        <v>1.015930952991522</v>
+        <v>1.016596248584539</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048296220580409</v>
+        <v>1.047977726949329</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04121901459506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040327487450335</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022973276658012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018103054826739</v>
+        <v>1.017368905029104</v>
       </c>
       <c r="D4">
-        <v>1.0337533386224</v>
+        <v>1.032376751256713</v>
       </c>
       <c r="E4">
-        <v>1.031312351155519</v>
+        <v>1.030733667210037</v>
       </c>
       <c r="F4">
-        <v>1.041669464963582</v>
+        <v>1.041226283162392</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053617962291784</v>
+        <v>1.05292000553174</v>
       </c>
       <c r="J4">
-        <v>1.037054751210291</v>
+        <v>1.036338511260456</v>
       </c>
       <c r="K4">
-        <v>1.043460767833624</v>
+        <v>1.042099511072309</v>
       </c>
       <c r="L4">
-        <v>1.041046999380885</v>
+        <v>1.040474791508153</v>
       </c>
       <c r="M4">
-        <v>1.051289700509656</v>
+        <v>1.050851357202306</v>
       </c>
       <c r="N4">
-        <v>1.016245218213174</v>
+        <v>1.016829388565159</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049164696864304</v>
+        <v>1.048817781550998</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04179903416785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040845076319548</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023103073071777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018958164616073</v>
+        <v>1.018198274479758</v>
       </c>
       <c r="D5">
-        <v>1.034318492332319</v>
+        <v>1.032905051871437</v>
       </c>
       <c r="E5">
-        <v>1.031985048191656</v>
+        <v>1.03138582212082</v>
       </c>
       <c r="F5">
-        <v>1.042348285248083</v>
+        <v>1.04189011117247</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053829053329113</v>
+        <v>1.053110632313423</v>
       </c>
       <c r="J5">
-        <v>1.037446580260927</v>
+        <v>1.036704684286139</v>
       </c>
       <c r="K5">
-        <v>1.043804969835188</v>
+        <v>1.042406858813088</v>
       </c>
       <c r="L5">
-        <v>1.041496860699967</v>
+        <v>1.040904163337729</v>
       </c>
       <c r="M5">
-        <v>1.051748641659247</v>
+        <v>1.051295337873938</v>
       </c>
       <c r="N5">
-        <v>1.016377032392427</v>
+        <v>1.0169272172875</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049527913626208</v>
+        <v>1.049169158407348</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042049563044858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041070258288352</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023157556520276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019104202330925</v>
+        <v>1.01833991188396</v>
       </c>
       <c r="D6">
-        <v>1.034417544869678</v>
+        <v>1.032997865980772</v>
       </c>
       <c r="E6">
-        <v>1.032100119506063</v>
+        <v>1.031497378039083</v>
       </c>
       <c r="F6">
-        <v>1.042463720367912</v>
+        <v>1.042002983118446</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053866601479483</v>
+        <v>1.053144702486947</v>
       </c>
       <c r="J6">
-        <v>1.03751497550749</v>
+        <v>1.036768692093563</v>
       </c>
       <c r="K6">
-        <v>1.043866911252136</v>
+        <v>1.042462560173909</v>
       </c>
       <c r="L6">
-        <v>1.041574533069126</v>
+        <v>1.040978328772289</v>
       </c>
       <c r="M6">
-        <v>1.05182718000325</v>
+        <v>1.051371318100736</v>
       </c>
       <c r="N6">
-        <v>1.016400364764598</v>
+        <v>1.016944568478713</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049590070691161</v>
+        <v>1.049229290948144</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04210208083503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041119233311457</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023167945674574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018122312829406</v>
+        <v>1.017393829432004</v>
       </c>
       <c r="D7">
-        <v>1.033772709294071</v>
+        <v>1.032399924010657</v>
       </c>
       <c r="E7">
-        <v>1.031327792631622</v>
+        <v>1.030753642831951</v>
       </c>
       <c r="F7">
-        <v>1.041683157315359</v>
+        <v>1.041243156438812</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053627059363202</v>
+        <v>1.052931974784211</v>
       </c>
       <c r="J7">
-        <v>1.037067614428597</v>
+        <v>1.036356895134348</v>
       </c>
       <c r="K7">
-        <v>1.043477052591373</v>
+        <v>1.042119549701991</v>
       </c>
       <c r="L7">
-        <v>1.041059388542236</v>
+        <v>1.040491661660089</v>
       </c>
       <c r="M7">
-        <v>1.051300401898219</v>
+        <v>1.050865203017476</v>
       </c>
       <c r="N7">
-        <v>1.016250422402787</v>
+        <v>1.016860739413924</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049173166195571</v>
+        <v>1.048828739460729</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041830605057291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040881301619683</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023108660718322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013944742483845</v>
+        <v>1.013355855381828</v>
       </c>
       <c r="D8">
-        <v>1.031029764863598</v>
+        <v>1.029847164892307</v>
       </c>
       <c r="E8">
-        <v>1.028053055999552</v>
+        <v>1.027590283351971</v>
       </c>
       <c r="F8">
-        <v>1.03837802122406</v>
+        <v>1.038019070994455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052585653958887</v>
+        <v>1.051997579783771</v>
       </c>
       <c r="J8">
-        <v>1.035156027950646</v>
+        <v>1.034583601077268</v>
       </c>
       <c r="K8">
-        <v>1.041805203137396</v>
+        <v>1.040637463092201</v>
       </c>
       <c r="L8">
-        <v>1.038865979482583</v>
+        <v>1.038409058800812</v>
       </c>
       <c r="M8">
-        <v>1.049062069407158</v>
+        <v>1.048707546018315</v>
       </c>
       <c r="N8">
-        <v>1.015609016838523</v>
+        <v>1.016440854883819</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047401694974213</v>
+        <v>1.047121116081922</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040653026313105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03983836078492</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022844954015318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006307218793493</v>
+        <v>1.00595690749985</v>
       </c>
       <c r="D9">
-        <v>1.026032648403746</v>
+        <v>1.025185251898276</v>
       </c>
       <c r="E9">
-        <v>1.022111372877908</v>
+        <v>1.02183846212362</v>
       </c>
       <c r="F9">
-        <v>1.032394961987379</v>
+        <v>1.03217475381753</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050607502836649</v>
+        <v>1.050204900273623</v>
       </c>
       <c r="J9">
-        <v>1.031639202123229</v>
+        <v>1.03130105153637</v>
       </c>
       <c r="K9">
-        <v>1.038717025916584</v>
+        <v>1.037882516408556</v>
       </c>
       <c r="L9">
-        <v>1.03485561300906</v>
+        <v>1.034586890361184</v>
       </c>
       <c r="M9">
-        <v>1.044983442721742</v>
+        <v>1.044766528537138</v>
       </c>
       <c r="N9">
-        <v>1.01442804153474</v>
+        <v>1.015575292946799</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044173758863474</v>
+        <v>1.044002086679011</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038466327582374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037886992492347</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02233225241675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001073377657024</v>
+        <v>1.000915790624859</v>
       </c>
       <c r="D10">
-        <v>1.022637041242011</v>
+        <v>1.022039381953219</v>
       </c>
       <c r="E10">
-        <v>1.018117100055518</v>
+        <v>1.017997229455321</v>
       </c>
       <c r="F10">
-        <v>1.028441144968444</v>
+        <v>1.028332463123818</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049229048652423</v>
+        <v>1.048967559042729</v>
       </c>
       <c r="J10">
-        <v>1.029244473385621</v>
+        <v>1.029093121128949</v>
       </c>
       <c r="K10">
-        <v>1.036609261583028</v>
+        <v>1.036021792738866</v>
       </c>
       <c r="L10">
-        <v>1.032166772002417</v>
+        <v>1.03204896755562</v>
       </c>
       <c r="M10">
-        <v>1.042315196148534</v>
+        <v>1.042208339394778</v>
       </c>
       <c r="N10">
-        <v>1.013628254430851</v>
+        <v>1.015106561002532</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04211324073617</v>
+        <v>1.042028676190322</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036992790264935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036589804216036</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021980431823427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9991387746711045</v>
+        <v>0.9990839575286011</v>
       </c>
       <c r="D11">
-        <v>1.021441182015185</v>
+        <v>1.020953555302041</v>
       </c>
       <c r="E11">
-        <v>1.017006291938704</v>
+        <v>1.016966690862881</v>
       </c>
       <c r="F11">
-        <v>1.027837119125152</v>
+        <v>1.027786938365422</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048866982853898</v>
+        <v>1.048672582089135</v>
       </c>
       <c r="J11">
-        <v>1.028547425565461</v>
+        <v>1.028494894655697</v>
       </c>
       <c r="K11">
-        <v>1.035969768437072</v>
+        <v>1.035490848651617</v>
       </c>
       <c r="L11">
-        <v>1.031614466090421</v>
+        <v>1.031575579753291</v>
       </c>
       <c r="M11">
-        <v>1.042252492635449</v>
+        <v>1.042203193005903</v>
       </c>
       <c r="N11">
-        <v>1.013427434456555</v>
+        <v>1.015197940714047</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042497811531</v>
+        <v>1.042458816127396</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036573416959103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036250395920076</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021910330868211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9985435281718674</v>
+        <v>0.9985212913873232</v>
       </c>
       <c r="D12">
-        <v>1.021089324369382</v>
+        <v>1.02063398745712</v>
       </c>
       <c r="E12">
-        <v>1.016815604886016</v>
+        <v>1.016800502282202</v>
       </c>
       <c r="F12">
-        <v>1.028014284689034</v>
+        <v>1.027982241026415</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048815960260266</v>
+        <v>1.048642127263038</v>
       </c>
       <c r="J12">
-        <v>1.028409656666604</v>
+        <v>1.028388364930187</v>
       </c>
       <c r="K12">
-        <v>1.035823340462903</v>
+        <v>1.035376269462778</v>
       </c>
       <c r="L12">
-        <v>1.031627582962828</v>
+        <v>1.031612757377034</v>
       </c>
       <c r="M12">
-        <v>1.042623760829758</v>
+        <v>1.042592288430794</v>
       </c>
       <c r="N12">
-        <v>1.013406115443805</v>
+        <v>1.015287969667488</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043116407255223</v>
+        <v>1.043091521324053</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036469888061423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036169386677437</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021909066595439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9989484321683746</v>
+        <v>0.9988981525246658</v>
       </c>
       <c r="D13">
-        <v>1.021376522017821</v>
+        <v>1.020889569465327</v>
       </c>
       <c r="E13">
-        <v>1.017330065210267</v>
+        <v>1.017291497026284</v>
       </c>
       <c r="F13">
-        <v>1.028824501815472</v>
+        <v>1.028776093483142</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049013073509991</v>
+        <v>1.048820915772412</v>
       </c>
       <c r="J13">
-        <v>1.028704578900061</v>
+        <v>1.028656425913864</v>
       </c>
       <c r="K13">
-        <v>1.036062630405511</v>
+        <v>1.035584482078096</v>
       </c>
       <c r="L13">
-        <v>1.032089667778346</v>
+        <v>1.032051803754608</v>
       </c>
       <c r="M13">
-        <v>1.043377296289638</v>
+        <v>1.0433297463488</v>
       </c>
       <c r="N13">
-        <v>1.013526613765892</v>
+        <v>1.015351568171314</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043987734346285</v>
+        <v>1.043950144912876</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036636585833623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036313866332541</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021964952659558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9996844965975463</v>
+        <v>0.9995877145216173</v>
       </c>
       <c r="D14">
-        <v>1.021867883400156</v>
+        <v>1.021330391326055</v>
       </c>
       <c r="E14">
-        <v>1.018006663666049</v>
+        <v>1.017930587655539</v>
       </c>
       <c r="F14">
-        <v>1.029674776995405</v>
+        <v>1.029599757696787</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049262860194754</v>
+        <v>1.049040582644572</v>
       </c>
       <c r="J14">
-        <v>1.029106079599081</v>
+        <v>1.029013333702874</v>
       </c>
       <c r="K14">
-        <v>1.036405303802362</v>
+        <v>1.035877411746913</v>
       </c>
       <c r="L14">
-        <v>1.032613341074427</v>
+        <v>1.032538636466577</v>
       </c>
       <c r="M14">
-        <v>1.044074224133833</v>
+        <v>1.044000517772656</v>
       </c>
       <c r="N14">
-        <v>1.013674975192179</v>
+        <v>1.01538520256849</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044711312059702</v>
+        <v>1.044653053124814</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036880287685803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036522532414065</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022030321547334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00008620892443</v>
+        <v>0.9999652874452297</v>
       </c>
       <c r="D15">
-        <v>1.02213280559061</v>
+        <v>1.021569236806979</v>
       </c>
       <c r="E15">
-        <v>1.018335366858079</v>
+        <v>1.018240083754084</v>
       </c>
       <c r="F15">
-        <v>1.03003884282093</v>
+        <v>1.02995009374009</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049382527731354</v>
+        <v>1.049144585679427</v>
       </c>
       <c r="J15">
-        <v>1.029304334762576</v>
+        <v>1.029188412942639</v>
       </c>
       <c r="K15">
-        <v>1.036579382210766</v>
+        <v>1.036025804137203</v>
       </c>
       <c r="L15">
-        <v>1.032849540507505</v>
+        <v>1.032755961929636</v>
       </c>
       <c r="M15">
-        <v>1.04434675612483</v>
+        <v>1.044259548315281</v>
       </c>
       <c r="N15">
-        <v>1.013744468981281</v>
+        <v>1.015392416871492</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044964126565621</v>
+        <v>1.044895197629067</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037009224499212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036633877787072</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022060784196294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002219324406237</v>
+        <v>1.001981686771048</v>
       </c>
       <c r="D16">
-        <v>1.023513439084044</v>
+        <v>1.022821493754411</v>
       </c>
       <c r="E16">
-        <v>1.019930151966501</v>
+        <v>1.019742977225011</v>
       </c>
       <c r="F16">
-        <v>1.03159315077612</v>
+        <v>1.031438157344053</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049943358497481</v>
+        <v>1.04962842370885</v>
       </c>
       <c r="J16">
-        <v>1.030268661014675</v>
+        <v>1.030040365945017</v>
       </c>
       <c r="K16">
-        <v>1.037435273539346</v>
+        <v>1.036755067221933</v>
       </c>
       <c r="L16">
-        <v>1.033913000372533</v>
+        <v>1.033729027950572</v>
       </c>
       <c r="M16">
-        <v>1.045379411968179</v>
+        <v>1.045226993511743</v>
       </c>
       <c r="N16">
-        <v>1.014062829132441</v>
+        <v>1.015410263583942</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045741760610616</v>
+        <v>1.045621285856846</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037617529188919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037152952072746</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022196751360047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003473462089216</v>
+        <v>1.003177266571913</v>
       </c>
       <c r="D17">
-        <v>1.024318339965649</v>
+        <v>1.023558959187635</v>
       </c>
       <c r="E17">
-        <v>1.020801792347397</v>
+        <v>1.020568782133795</v>
       </c>
       <c r="F17">
-        <v>1.032335983696467</v>
+        <v>1.032147625335764</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050241180897575</v>
+        <v>1.04988628955108</v>
       </c>
       <c r="J17">
-        <v>1.03079881156989</v>
+        <v>1.030513892287966</v>
       </c>
       <c r="K17">
-        <v>1.037913005109252</v>
+        <v>1.037166149989805</v>
       </c>
       <c r="L17">
-        <v>1.034454663183545</v>
+        <v>1.034225527990557</v>
       </c>
       <c r="M17">
-        <v>1.045799844544123</v>
+        <v>1.04561452924462</v>
       </c>
       <c r="N17">
-        <v>1.014229492117898</v>
+        <v>1.0154348825201</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045945538067805</v>
+        <v>1.045799046472173</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037957885347391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037446433015786</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022267487453168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004076309861251</v>
+        <v>1.003758400501108</v>
       </c>
       <c r="D18">
-        <v>1.024686034730626</v>
+        <v>1.023900407824393</v>
       </c>
       <c r="E18">
-        <v>1.021097948736758</v>
+        <v>1.020848390766576</v>
       </c>
       <c r="F18">
-        <v>1.032386498115726</v>
+        <v>1.032185661979318</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05032793602356</v>
+        <v>1.049957507950719</v>
       </c>
       <c r="J18">
-        <v>1.030986198736124</v>
+        <v>1.030680168080393</v>
       </c>
       <c r="K18">
-        <v>1.03809183867855</v>
+        <v>1.037318959140532</v>
       </c>
       <c r="L18">
-        <v>1.034562177376262</v>
+        <v>1.034316702587626</v>
       </c>
       <c r="M18">
-        <v>1.045668672412753</v>
+        <v>1.045471030647707</v>
       </c>
       <c r="N18">
-        <v>1.014273548127116</v>
+        <v>1.015425050240983</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045605159608443</v>
+        <v>1.045448891658945</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038072716456516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037541728058042</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022282117064964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004091032506023</v>
+        <v>1.003780069297368</v>
       </c>
       <c r="D19">
-        <v>1.024666961444912</v>
+        <v>1.023889372826175</v>
       </c>
       <c r="E19">
-        <v>1.02086512059181</v>
+        <v>1.020621850758492</v>
       </c>
       <c r="F19">
-        <v>1.031795978392446</v>
+        <v>1.031599031103293</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050228456779133</v>
+        <v>1.049862331923376</v>
       </c>
       <c r="J19">
-        <v>1.030866642464068</v>
+        <v>1.030567229950271</v>
       </c>
       <c r="K19">
-        <v>1.038010738756931</v>
+        <v>1.037245700285856</v>
       </c>
       <c r="L19">
-        <v>1.034270492492153</v>
+        <v>1.034031184004272</v>
       </c>
       <c r="M19">
-        <v>1.04502582383855</v>
+        <v>1.044831996959172</v>
       </c>
       <c r="N19">
-        <v>1.01421032393759</v>
+        <v>1.015367066953627</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044772854841933</v>
+        <v>1.044619553563785</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038021756487051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037496936619587</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022249035832982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002447932097036</v>
+        <v>1.002222009782861</v>
       </c>
       <c r="D20">
-        <v>1.023543499025898</v>
+        <v>1.022867919210274</v>
       </c>
       <c r="E20">
-        <v>1.019166978097895</v>
+        <v>1.018992633882112</v>
       </c>
       <c r="F20">
-        <v>1.029478447653702</v>
+        <v>1.029330411739112</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049605011548045</v>
+        <v>1.049297446068341</v>
       </c>
       <c r="J20">
-        <v>1.029884815114329</v>
+        <v>1.029667544579807</v>
       </c>
       <c r="K20">
-        <v>1.037184622946852</v>
+        <v>1.036520238811347</v>
       </c>
       <c r="L20">
-        <v>1.032880968978136</v>
+        <v>1.032709544218341</v>
       </c>
       <c r="M20">
-        <v>1.043022029444823</v>
+        <v>1.042876408953646</v>
       </c>
       <c r="N20">
-        <v>1.013844797403914</v>
+        <v>1.015162889484344</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042662119248867</v>
+        <v>1.042546876388455</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037441572196913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036988307783933</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022077581463549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9984534160376503</v>
+        <v>0.9984613317039289</v>
       </c>
       <c r="D21">
-        <v>1.020946181883464</v>
+        <v>1.0205240281841</v>
       </c>
       <c r="E21">
-        <v>1.016060706821571</v>
+        <v>1.016073170984185</v>
       </c>
       <c r="F21">
-        <v>1.02631071561355</v>
+        <v>1.026297115305628</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048506183992945</v>
+        <v>1.048351108536764</v>
       </c>
       <c r="J21">
-        <v>1.028015941908493</v>
+        <v>1.028023525166336</v>
       </c>
       <c r="K21">
-        <v>1.035541299375391</v>
+        <v>1.035126726915272</v>
       </c>
       <c r="L21">
-        <v>1.03074406145818</v>
+        <v>1.030756299099401</v>
       </c>
       <c r="M21">
-        <v>1.04081019883722</v>
+        <v>1.040796839344051</v>
       </c>
       <c r="N21">
-        <v>1.013214643544135</v>
+        <v>1.015138526202584</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040870925361949</v>
+        <v>1.040860352224193</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036282901358559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036006589882459</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021810994324483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9959131194418948</v>
+        <v>0.9960681048356295</v>
       </c>
       <c r="D22">
-        <v>1.019296290994524</v>
+        <v>1.019033635164583</v>
       </c>
       <c r="E22">
-        <v>1.014114711097928</v>
+        <v>1.014244725843683</v>
       </c>
       <c r="F22">
-        <v>1.024360364018553</v>
+        <v>1.024431477225017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047804617939867</v>
+        <v>1.047745181336144</v>
       </c>
       <c r="J22">
-        <v>1.02683374369143</v>
+        <v>1.026981847985369</v>
       </c>
       <c r="K22">
-        <v>1.034494937664863</v>
+        <v>1.034237232593063</v>
       </c>
       <c r="L22">
-        <v>1.02941164441056</v>
+        <v>1.029539176904211</v>
       </c>
       <c r="M22">
-        <v>1.03946420626611</v>
+        <v>1.039533996868844</v>
       </c>
       <c r="N22">
-        <v>1.012816862861857</v>
+        <v>1.015117064758193</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039805662248791</v>
+        <v>1.039860896882684</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035529599469521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035362898042848</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021638970301035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9972571315291773</v>
+        <v>0.9973244899081439</v>
       </c>
       <c r="D23">
-        <v>1.020163086448789</v>
+        <v>1.019808890323443</v>
       </c>
       <c r="E23">
-        <v>1.015143125896042</v>
+        <v>1.015203025618094</v>
       </c>
       <c r="F23">
-        <v>1.025392640675066</v>
+        <v>1.025413346427639</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048173155233793</v>
+        <v>1.048058023539998</v>
       </c>
       <c r="J23">
-        <v>1.027455935341792</v>
+        <v>1.027520389415886</v>
       </c>
       <c r="K23">
-        <v>1.035041603047089</v>
+        <v>1.034693915508359</v>
       </c>
       <c r="L23">
-        <v>1.030114440673656</v>
+        <v>1.030173226041553</v>
       </c>
       <c r="M23">
-        <v>1.040175741386011</v>
+        <v>1.040196071867396</v>
       </c>
       <c r="N23">
-        <v>1.013025264143188</v>
+        <v>1.015084735928356</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040368794911908</v>
+        <v>1.040384885127556</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035906497856371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035675232376947</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021725508798868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002466039002008</v>
+        <v>1.002240231193488</v>
       </c>
       <c r="D24">
-        <v>1.023541397955132</v>
+        <v>1.022865787789822</v>
       </c>
       <c r="E24">
-        <v>1.019144978558043</v>
+        <v>1.018970870240633</v>
       </c>
       <c r="F24">
-        <v>1.029410220995465</v>
+        <v>1.029262277194298</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049589256167435</v>
+        <v>1.049281666605606</v>
       </c>
       <c r="J24">
-        <v>1.029869490130618</v>
+        <v>1.029652317137591</v>
       </c>
       <c r="K24">
-        <v>1.037167339090318</v>
+        <v>1.036502910828359</v>
       </c>
       <c r="L24">
-        <v>1.032844026381772</v>
+        <v>1.03267282999286</v>
       </c>
       <c r="M24">
-        <v>1.042939821746409</v>
+        <v>1.042794289190003</v>
       </c>
       <c r="N24">
-        <v>1.013835397079154</v>
+        <v>1.015151801449018</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042556376276874</v>
+        <v>1.042441197334387</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037402004219769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036946034406729</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022069653657022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008326470497125</v>
+        <v>1.007904813405746</v>
       </c>
       <c r="D25">
-        <v>1.027360415857184</v>
+        <v>1.026418754874909</v>
       </c>
       <c r="E25">
-        <v>1.023677335628568</v>
+        <v>1.023347619007306</v>
       </c>
       <c r="F25">
-        <v>1.033967569881209</v>
+        <v>1.033706000371762</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05114459133142</v>
+        <v>1.050688887824171</v>
       </c>
       <c r="J25">
-        <v>1.032576828604711</v>
+        <v>1.032169046430431</v>
       </c>
       <c r="K25">
-        <v>1.039548341034581</v>
+        <v>1.038620343376168</v>
       </c>
       <c r="L25">
-        <v>1.035918883211765</v>
+        <v>1.035593990862662</v>
       </c>
       <c r="M25">
-        <v>1.046060512210466</v>
+        <v>1.045802673750233</v>
       </c>
       <c r="N25">
-        <v>1.014744348064482</v>
+        <v>1.015774959918927</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045026182335834</v>
+        <v>1.044822121724593</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039082633247422</v>
+        <v>1.038440003114923</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022473160314056</v>
       </c>
     </row>
   </sheetData>
